--- a/document/API接口文档.xlsx
+++ b/document/API接口文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18820" yWindow="940" windowWidth="28200" windowHeight="23340" activeTab="1"/>
+    <workbookView xWindow="23780" yWindow="1060" windowWidth="28200" windowHeight="23340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="125">
   <si>
     <t>必选</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -676,12 +676,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -689,6 +683,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1144,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y146"/>
+  <dimension ref="A1:Y147"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="AD161" sqref="AD161"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L59" sqref="L59:Y59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1226,19 +1226,19 @@
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
       <c r="N5" s="17"/>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="22"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="20"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
@@ -1260,19 +1260,19 @@
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
       <c r="N6" s="17"/>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="22"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="20"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
@@ -1294,19 +1294,19 @@
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
       <c r="N7" s="17"/>
-      <c r="O7" s="20" t="s">
+      <c r="O7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="22"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="20"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -1322,28 +1322,28 @@
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18" t="s">
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B11" s="15" t="s">
@@ -1360,22 +1360,22 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="17"/>
-      <c r="L11" s="19" t="s">
+      <c r="L11" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
@@ -1386,28 +1386,28 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="19" t="s">
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
@@ -1418,28 +1418,28 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="19" t="s">
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B14" s="15" t="s">
@@ -1450,28 +1450,28 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="17"/>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="19" t="s">
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
@@ -1540,19 +1540,19 @@
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
       <c r="N20" s="17"/>
-      <c r="O20" s="20" t="s">
+      <c r="O20" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="22"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="20"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B21" s="15" t="s">
@@ -1574,19 +1574,19 @@
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
       <c r="N21" s="17"/>
-      <c r="O21" s="20" t="s">
+      <c r="O21" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="22"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="20"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B22" s="15" t="s">
@@ -1608,19 +1608,19 @@
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
       <c r="N22" s="17"/>
-      <c r="O22" s="20" t="s">
+      <c r="O22" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="22"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="20"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
@@ -1636,28 +1636,28 @@
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18" t="s">
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="18"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B26" s="15" t="s">
@@ -1674,22 +1674,22 @@
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
       <c r="K26" s="17"/>
-      <c r="L26" s="19" t="s">
+      <c r="L26" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B27" s="15" t="s">
@@ -1700,28 +1700,28 @@
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="17"/>
-      <c r="H27" s="18" t="s">
+      <c r="H27" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="19" t="s">
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B28" s="15" t="s">
@@ -1732,28 +1732,28 @@
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="18" t="s">
+      <c r="H28" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="19" t="s">
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B29" s="15" t="s">
@@ -1764,28 +1764,28 @@
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="18" t="s">
+      <c r="H29" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="19" t="s">
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B30" s="8"/>
@@ -1851,28 +1851,28 @@
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="18" t="s">
+      <c r="H32" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18" t="s">
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="18"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B33" s="15" t="s">
@@ -1883,28 +1883,28 @@
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="18" t="s">
+      <c r="H33" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="19" t="s">
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B34" s="15" t="s">
@@ -1915,28 +1915,28 @@
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="18" t="s">
+      <c r="H34" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="19" t="s">
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="19"/>
-      <c r="X34" s="19"/>
-      <c r="Y34" s="19"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B35" s="15" t="s">
@@ -1947,28 +1947,28 @@
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="17"/>
-      <c r="H35" s="18" t="s">
+      <c r="H35" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="19" t="s">
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="19"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B36" s="15" t="s">
@@ -1979,28 +1979,28 @@
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="17"/>
-      <c r="H36" s="18" t="s">
+      <c r="H36" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="19" t="s">
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="19"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B37" s="15" t="s">
@@ -2011,28 +2011,28 @@
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="17"/>
-      <c r="H37" s="18" t="s">
+      <c r="H37" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="19" t="s">
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="19"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B38" s="15" t="s">
@@ -2043,28 +2043,28 @@
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
       <c r="G38" s="17"/>
-      <c r="H38" s="18" t="s">
+      <c r="H38" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="19" t="s">
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B39" s="15" t="s">
@@ -2075,28 +2075,28 @@
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="17"/>
-      <c r="H39" s="18" t="s">
+      <c r="H39" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="19" t="s">
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B40" s="15" t="s">
@@ -2107,28 +2107,28 @@
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="18" t="s">
+      <c r="H40" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="19" t="s">
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="19"/>
-      <c r="V40" s="19"/>
-      <c r="W40" s="19"/>
-      <c r="X40" s="19"/>
-      <c r="Y40" s="19"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B41" s="15" t="s">
@@ -2139,28 +2139,28 @@
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="18" t="s">
+      <c r="H41" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="19" t="s">
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="19"/>
-      <c r="W41" s="19"/>
-      <c r="X41" s="19"/>
-      <c r="Y41" s="19"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="22"/>
+      <c r="W41" s="22"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B42" s="23" t="s">
@@ -2171,28 +2171,28 @@
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
       <c r="G42" s="25"/>
-      <c r="H42" s="18" t="s">
+      <c r="H42" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="19" t="s">
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="19"/>
-      <c r="W42" s="19"/>
-      <c r="X42" s="19"/>
-      <c r="Y42" s="19"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B43" s="23" t="s">
@@ -2203,28 +2203,28 @@
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="18" t="s">
+      <c r="H43" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="19" t="s">
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="19"/>
-      <c r="V43" s="19"/>
-      <c r="W43" s="19"/>
-      <c r="X43" s="19"/>
-      <c r="Y43" s="19"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B44" s="8"/>
@@ -2319,19 +2319,19 @@
       <c r="L49" s="16"/>
       <c r="M49" s="16"/>
       <c r="N49" s="17"/>
-      <c r="O49" s="20" t="s">
+      <c r="O49" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="21"/>
-      <c r="T49" s="21"/>
-      <c r="U49" s="21"/>
-      <c r="V49" s="21"/>
-      <c r="W49" s="21"/>
-      <c r="X49" s="21"/>
-      <c r="Y49" s="22"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="20"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B50" s="15" t="s">
@@ -2353,19 +2353,19 @@
       <c r="L50" s="16"/>
       <c r="M50" s="16"/>
       <c r="N50" s="17"/>
-      <c r="O50" s="20" t="s">
+      <c r="O50" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="21"/>
-      <c r="V50" s="21"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="21"/>
-      <c r="Y50" s="22"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="20"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B51" s="15" t="s">
@@ -2387,19 +2387,19 @@
       <c r="L51" s="16"/>
       <c r="M51" s="16"/>
       <c r="N51" s="17"/>
-      <c r="O51" s="20" t="s">
+      <c r="O51" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="21"/>
-      <c r="W51" s="21"/>
-      <c r="X51" s="21"/>
-      <c r="Y51" s="22"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="20"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
@@ -2415,28 +2415,28 @@
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
       <c r="G54" s="17"/>
-      <c r="H54" s="18" t="s">
+      <c r="H54" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18" t="s">
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
-      <c r="U54" s="18"/>
-      <c r="V54" s="18"/>
-      <c r="W54" s="18"/>
-      <c r="X54" s="18"/>
-      <c r="Y54" s="18"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="21"/>
+      <c r="V54" s="21"/>
+      <c r="W54" s="21"/>
+      <c r="X54" s="21"/>
+      <c r="Y54" s="21"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B55" s="15" t="s">
@@ -2453,22 +2453,22 @@
       <c r="I55" s="16"/>
       <c r="J55" s="16"/>
       <c r="K55" s="17"/>
-      <c r="L55" s="19" t="s">
+      <c r="L55" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="19"/>
-      <c r="S55" s="19"/>
-      <c r="T55" s="19"/>
-      <c r="U55" s="19"/>
-      <c r="V55" s="19"/>
-      <c r="W55" s="19"/>
-      <c r="X55" s="19"/>
-      <c r="Y55" s="19"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="22"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="22"/>
+      <c r="X55" s="22"/>
+      <c r="Y55" s="22"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B56" s="15" t="s">
@@ -2479,28 +2479,28 @@
       <c r="E56" s="16"/>
       <c r="F56" s="16"/>
       <c r="G56" s="17"/>
-      <c r="H56" s="18" t="s">
+      <c r="H56" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="19" t="s">
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="19"/>
-      <c r="P56" s="19"/>
-      <c r="Q56" s="19"/>
-      <c r="R56" s="19"/>
-      <c r="S56" s="19"/>
-      <c r="T56" s="19"/>
-      <c r="U56" s="19"/>
-      <c r="V56" s="19"/>
-      <c r="W56" s="19"/>
-      <c r="X56" s="19"/>
-      <c r="Y56" s="19"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="22"/>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="22"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B57" s="15" t="s">
@@ -2511,28 +2511,28 @@
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
       <c r="G57" s="17"/>
-      <c r="H57" s="18" t="s">
+      <c r="H57" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="19" t="s">
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="19"/>
-      <c r="S57" s="19"/>
-      <c r="T57" s="19"/>
-      <c r="U57" s="19"/>
-      <c r="V57" s="19"/>
-      <c r="W57" s="19"/>
-      <c r="X57" s="19"/>
-      <c r="Y57" s="19"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="22"/>
+      <c r="T57" s="22"/>
+      <c r="U57" s="22"/>
+      <c r="V57" s="22"/>
+      <c r="W57" s="22"/>
+      <c r="X57" s="22"/>
+      <c r="Y57" s="22"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B58" s="15" t="s">
@@ -2543,59 +2543,62 @@
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
       <c r="G58" s="17"/>
-      <c r="H58" s="18" t="s">
+      <c r="H58" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="19" t="s">
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="19"/>
-      <c r="S58" s="19"/>
-      <c r="T58" s="19"/>
-      <c r="U58" s="19"/>
-      <c r="V58" s="19"/>
-      <c r="W58" s="19"/>
-      <c r="X58" s="19"/>
-      <c r="Y58" s="19"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="22"/>
+      <c r="T58" s="22"/>
+      <c r="U58" s="22"/>
+      <c r="V58" s="22"/>
+      <c r="W58" s="22"/>
+      <c r="X58" s="22"/>
+      <c r="Y58" s="22"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="9"/>
-      <c r="S59" s="9"/>
-      <c r="T59" s="9"/>
-      <c r="U59" s="9"/>
-      <c r="V59" s="9"/>
-      <c r="W59" s="9"/>
-      <c r="X59" s="9"/>
-      <c r="Y59" s="9"/>
+      <c r="B59" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
+      <c r="S59" s="22"/>
+      <c r="T59" s="22"/>
+      <c r="U59" s="22"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="22"/>
+      <c r="X59" s="22"/>
+      <c r="Y59" s="22"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -2622,183 +2625,178 @@
       <c r="Y60" s="9"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B61" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="M61" s="18"/>
-      <c r="N61" s="18"/>
-      <c r="O61" s="18"/>
-      <c r="P61" s="18"/>
-      <c r="Q61" s="18"/>
-      <c r="R61" s="18"/>
-      <c r="S61" s="18"/>
-      <c r="T61" s="18"/>
-      <c r="U61" s="18"/>
-      <c r="V61" s="18"/>
-      <c r="W61" s="18"/>
-      <c r="X61" s="18"/>
-      <c r="Y61" s="18"/>
+      <c r="A61" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="9"/>
+      <c r="Y61" s="9"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B62" s="15" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
       <c r="G62" s="17"/>
-      <c r="H62" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="19"/>
-      <c r="S62" s="19"/>
-      <c r="T62" s="19"/>
-      <c r="U62" s="19"/>
-      <c r="V62" s="19"/>
-      <c r="W62" s="19"/>
-      <c r="X62" s="19"/>
-      <c r="Y62" s="19"/>
+      <c r="H62" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+      <c r="R62" s="21"/>
+      <c r="S62" s="21"/>
+      <c r="T62" s="21"/>
+      <c r="U62" s="21"/>
+      <c r="V62" s="21"/>
+      <c r="W62" s="21"/>
+      <c r="X62" s="21"/>
+      <c r="Y62" s="21"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B63" s="15" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C63" s="16"/>
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
       <c r="G63" s="17"/>
-      <c r="H63" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="19"/>
-      <c r="P63" s="19"/>
-      <c r="Q63" s="19"/>
-      <c r="R63" s="19"/>
-      <c r="S63" s="19"/>
-      <c r="T63" s="19"/>
-      <c r="U63" s="19"/>
-      <c r="V63" s="19"/>
-      <c r="W63" s="19"/>
-      <c r="X63" s="19"/>
-      <c r="Y63" s="19"/>
+      <c r="H63" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="22"/>
+      <c r="Q63" s="22"/>
+      <c r="R63" s="22"/>
+      <c r="S63" s="22"/>
+      <c r="T63" s="22"/>
+      <c r="U63" s="22"/>
+      <c r="V63" s="22"/>
+      <c r="W63" s="22"/>
+      <c r="X63" s="22"/>
+      <c r="Y63" s="22"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B64" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
       <c r="G64" s="17"/>
-      <c r="H64" s="18" t="s">
+      <c r="H64" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="19" t="s">
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="22"/>
+      <c r="Q64" s="22"/>
+      <c r="R64" s="22"/>
+      <c r="S64" s="22"/>
+      <c r="T64" s="22"/>
+      <c r="U64" s="22"/>
+      <c r="V64" s="22"/>
+      <c r="W64" s="22"/>
+      <c r="X64" s="22"/>
+      <c r="Y64" s="22"/>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B65" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="19"/>
-      <c r="P64" s="19"/>
-      <c r="Q64" s="19"/>
-      <c r="R64" s="19"/>
-      <c r="S64" s="19"/>
-      <c r="T64" s="19"/>
-      <c r="U64" s="19"/>
-      <c r="V64" s="19"/>
-      <c r="W64" s="19"/>
-      <c r="X64" s="19"/>
-      <c r="Y64" s="19"/>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="22"/>
+      <c r="P65" s="22"/>
+      <c r="Q65" s="22"/>
+      <c r="R65" s="22"/>
+      <c r="S65" s="22"/>
+      <c r="T65" s="22"/>
+      <c r="U65" s="22"/>
+      <c r="V65" s="22"/>
+      <c r="W65" s="22"/>
+      <c r="X65" s="22"/>
+      <c r="Y65" s="22"/>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A67" s="6"/>
-    </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="6"/>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B69" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I69" s="16"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="16"/>
-      <c r="S69" s="16"/>
-      <c r="T69" s="16"/>
-      <c r="U69" s="16"/>
-      <c r="V69" s="16"/>
-      <c r="W69" s="16"/>
-      <c r="X69" s="16"/>
-      <c r="Y69" s="17"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B70" s="15" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
@@ -2806,33 +2804,33 @@
       <c r="F70" s="16"/>
       <c r="G70" s="17"/>
       <c r="H70" s="15" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I70" s="16"/>
       <c r="J70" s="17"/>
       <c r="K70" s="15" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="L70" s="16"/>
       <c r="M70" s="16"/>
       <c r="N70" s="17"/>
-      <c r="O70" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="P70" s="21"/>
-      <c r="Q70" s="21"/>
-      <c r="R70" s="21"/>
-      <c r="S70" s="21"/>
-      <c r="T70" s="21"/>
-      <c r="U70" s="21"/>
-      <c r="V70" s="21"/>
-      <c r="W70" s="21"/>
-      <c r="X70" s="21"/>
-      <c r="Y70" s="22"/>
+      <c r="O70" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="16"/>
+      <c r="R70" s="16"/>
+      <c r="S70" s="16"/>
+      <c r="T70" s="16"/>
+      <c r="U70" s="16"/>
+      <c r="V70" s="16"/>
+      <c r="W70" s="16"/>
+      <c r="X70" s="16"/>
+      <c r="Y70" s="17"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B71" s="15" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
@@ -2845,28 +2843,28 @@
       <c r="I71" s="16"/>
       <c r="J71" s="17"/>
       <c r="K71" s="15" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="L71" s="16"/>
       <c r="M71" s="16"/>
       <c r="N71" s="17"/>
-      <c r="O71" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="P71" s="21"/>
-      <c r="Q71" s="21"/>
-      <c r="R71" s="21"/>
-      <c r="S71" s="21"/>
-      <c r="T71" s="21"/>
-      <c r="U71" s="21"/>
-      <c r="V71" s="21"/>
-      <c r="W71" s="21"/>
-      <c r="X71" s="21"/>
-      <c r="Y71" s="22"/>
+      <c r="O71" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="19"/>
+      <c r="S71" s="19"/>
+      <c r="T71" s="19"/>
+      <c r="U71" s="19"/>
+      <c r="V71" s="19"/>
+      <c r="W71" s="19"/>
+      <c r="X71" s="19"/>
+      <c r="Y71" s="20"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B72" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
@@ -2884,23 +2882,23 @@
       <c r="L72" s="16"/>
       <c r="M72" s="16"/>
       <c r="N72" s="17"/>
-      <c r="O72" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="P72" s="21"/>
-      <c r="Q72" s="21"/>
-      <c r="R72" s="21"/>
-      <c r="S72" s="21"/>
-      <c r="T72" s="21"/>
-      <c r="U72" s="21"/>
-      <c r="V72" s="21"/>
-      <c r="W72" s="21"/>
-      <c r="X72" s="21"/>
-      <c r="Y72" s="22"/>
+      <c r="O72" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="19"/>
+      <c r="S72" s="19"/>
+      <c r="T72" s="19"/>
+      <c r="U72" s="19"/>
+      <c r="V72" s="19"/>
+      <c r="W72" s="19"/>
+      <c r="X72" s="19"/>
+      <c r="Y72" s="20"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B73" s="15" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
@@ -2913,28 +2911,28 @@
       <c r="I73" s="16"/>
       <c r="J73" s="17"/>
       <c r="K73" s="15" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="L73" s="16"/>
       <c r="M73" s="16"/>
       <c r="N73" s="17"/>
-      <c r="O73" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="P73" s="21"/>
-      <c r="Q73" s="21"/>
-      <c r="R73" s="21"/>
-      <c r="S73" s="21"/>
-      <c r="T73" s="21"/>
-      <c r="U73" s="21"/>
-      <c r="V73" s="21"/>
-      <c r="W73" s="21"/>
-      <c r="X73" s="21"/>
-      <c r="Y73" s="22"/>
+      <c r="O73" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="19"/>
+      <c r="S73" s="19"/>
+      <c r="T73" s="19"/>
+      <c r="U73" s="19"/>
+      <c r="V73" s="19"/>
+      <c r="W73" s="19"/>
+      <c r="X73" s="19"/>
+      <c r="Y73" s="20"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B74" s="15" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
@@ -2947,28 +2945,28 @@
       <c r="I74" s="16"/>
       <c r="J74" s="17"/>
       <c r="K74" s="15" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="L74" s="16"/>
       <c r="M74" s="16"/>
       <c r="N74" s="17"/>
-      <c r="O74" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="P74" s="21"/>
-      <c r="Q74" s="21"/>
-      <c r="R74" s="21"/>
-      <c r="S74" s="21"/>
-      <c r="T74" s="21"/>
-      <c r="U74" s="21"/>
-      <c r="V74" s="21"/>
-      <c r="W74" s="21"/>
-      <c r="X74" s="21"/>
-      <c r="Y74" s="22"/>
+      <c r="O74" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="19"/>
+      <c r="S74" s="19"/>
+      <c r="T74" s="19"/>
+      <c r="U74" s="19"/>
+      <c r="V74" s="19"/>
+      <c r="W74" s="19"/>
+      <c r="X74" s="19"/>
+      <c r="Y74" s="20"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B75" s="15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
@@ -2986,215 +2984,220 @@
       <c r="L75" s="16"/>
       <c r="M75" s="16"/>
       <c r="N75" s="17"/>
-      <c r="O75" s="20" t="s">
+      <c r="O75" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="19"/>
+      <c r="S75" s="19"/>
+      <c r="T75" s="19"/>
+      <c r="U75" s="19"/>
+      <c r="V75" s="19"/>
+      <c r="W75" s="19"/>
+      <c r="X75" s="19"/>
+      <c r="Y75" s="20"/>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B76" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" s="16"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="P75" s="21"/>
-      <c r="Q75" s="21"/>
-      <c r="R75" s="21"/>
-      <c r="S75" s="21"/>
-      <c r="T75" s="21"/>
-      <c r="U75" s="21"/>
-      <c r="V75" s="21"/>
-      <c r="W75" s="21"/>
-      <c r="X75" s="21"/>
-      <c r="Y75" s="22"/>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A77" s="7" t="s">
+      <c r="P76" s="19"/>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="19"/>
+      <c r="S76" s="19"/>
+      <c r="T76" s="19"/>
+      <c r="U76" s="19"/>
+      <c r="V76" s="19"/>
+      <c r="W76" s="19"/>
+      <c r="X76" s="19"/>
+      <c r="Y76" s="20"/>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B78" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="18"/>
-      <c r="L78" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="M78" s="18"/>
-      <c r="N78" s="18"/>
-      <c r="O78" s="18"/>
-      <c r="P78" s="18"/>
-      <c r="Q78" s="18"/>
-      <c r="R78" s="18"/>
-      <c r="S78" s="18"/>
-      <c r="T78" s="18"/>
-      <c r="U78" s="18"/>
-      <c r="V78" s="18"/>
-      <c r="W78" s="18"/>
-      <c r="X78" s="18"/>
-      <c r="Y78" s="18"/>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B79" s="15" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C79" s="16"/>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
       <c r="F79" s="16"/>
       <c r="G79" s="17"/>
-      <c r="H79" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I79" s="16"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="M79" s="19"/>
-      <c r="N79" s="19"/>
-      <c r="O79" s="19"/>
-      <c r="P79" s="19"/>
-      <c r="Q79" s="19"/>
-      <c r="R79" s="19"/>
-      <c r="S79" s="19"/>
-      <c r="T79" s="19"/>
-      <c r="U79" s="19"/>
-      <c r="V79" s="19"/>
-      <c r="W79" s="19"/>
-      <c r="X79" s="19"/>
-      <c r="Y79" s="19"/>
+      <c r="H79" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
+      <c r="O79" s="21"/>
+      <c r="P79" s="21"/>
+      <c r="Q79" s="21"/>
+      <c r="R79" s="21"/>
+      <c r="S79" s="21"/>
+      <c r="T79" s="21"/>
+      <c r="U79" s="21"/>
+      <c r="V79" s="21"/>
+      <c r="W79" s="21"/>
+      <c r="X79" s="21"/>
+      <c r="Y79" s="21"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B80" s="15" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
       <c r="F80" s="16"/>
       <c r="G80" s="17"/>
-      <c r="H80" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="M80" s="19"/>
-      <c r="N80" s="19"/>
-      <c r="O80" s="19"/>
-      <c r="P80" s="19"/>
-      <c r="Q80" s="19"/>
-      <c r="R80" s="19"/>
-      <c r="S80" s="19"/>
-      <c r="T80" s="19"/>
-      <c r="U80" s="19"/>
-      <c r="V80" s="19"/>
-      <c r="W80" s="19"/>
-      <c r="X80" s="19"/>
-      <c r="Y80" s="19"/>
+      <c r="H80" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="M80" s="22"/>
+      <c r="N80" s="22"/>
+      <c r="O80" s="22"/>
+      <c r="P80" s="22"/>
+      <c r="Q80" s="22"/>
+      <c r="R80" s="22"/>
+      <c r="S80" s="22"/>
+      <c r="T80" s="22"/>
+      <c r="U80" s="22"/>
+      <c r="V80" s="22"/>
+      <c r="W80" s="22"/>
+      <c r="X80" s="22"/>
+      <c r="Y80" s="22"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B81" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C81" s="16"/>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
       <c r="F81" s="16"/>
       <c r="G81" s="17"/>
-      <c r="H81" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M81" s="19"/>
-      <c r="N81" s="19"/>
-      <c r="O81" s="19"/>
-      <c r="P81" s="19"/>
-      <c r="Q81" s="19"/>
-      <c r="R81" s="19"/>
-      <c r="S81" s="19"/>
-      <c r="T81" s="19"/>
-      <c r="U81" s="19"/>
-      <c r="V81" s="19"/>
-      <c r="W81" s="19"/>
-      <c r="X81" s="19"/>
-      <c r="Y81" s="19"/>
+      <c r="H81" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M81" s="22"/>
+      <c r="N81" s="22"/>
+      <c r="O81" s="22"/>
+      <c r="P81" s="22"/>
+      <c r="Q81" s="22"/>
+      <c r="R81" s="22"/>
+      <c r="S81" s="22"/>
+      <c r="T81" s="22"/>
+      <c r="U81" s="22"/>
+      <c r="V81" s="22"/>
+      <c r="W81" s="22"/>
+      <c r="X81" s="22"/>
+      <c r="Y81" s="22"/>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B82" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
       <c r="G82" s="17"/>
-      <c r="H82" s="18" t="s">
+      <c r="H82" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M82" s="22"/>
+      <c r="N82" s="22"/>
+      <c r="O82" s="22"/>
+      <c r="P82" s="22"/>
+      <c r="Q82" s="22"/>
+      <c r="R82" s="22"/>
+      <c r="S82" s="22"/>
+      <c r="T82" s="22"/>
+      <c r="U82" s="22"/>
+      <c r="V82" s="22"/>
+      <c r="W82" s="22"/>
+      <c r="X82" s="22"/>
+      <c r="Y82" s="22"/>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B83" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="19" t="s">
+      <c r="I83" s="21"/>
+      <c r="J83" s="21"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="M82" s="19"/>
-      <c r="N82" s="19"/>
-      <c r="O82" s="19"/>
-      <c r="P82" s="19"/>
-      <c r="Q82" s="19"/>
-      <c r="R82" s="19"/>
-      <c r="S82" s="19"/>
-      <c r="T82" s="19"/>
-      <c r="U82" s="19"/>
-      <c r="V82" s="19"/>
-      <c r="W82" s="19"/>
-      <c r="X82" s="19"/>
-      <c r="Y82" s="19"/>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="9"/>
-      <c r="O83" s="9"/>
-      <c r="P83" s="9"/>
-      <c r="Q83" s="9"/>
-      <c r="R83" s="9"/>
-      <c r="S83" s="9"/>
-      <c r="T83" s="9"/>
-      <c r="U83" s="9"/>
-      <c r="V83" s="9"/>
-      <c r="W83" s="9"/>
-      <c r="X83" s="9"/>
-      <c r="Y83" s="9"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="22"/>
+      <c r="O83" s="22"/>
+      <c r="P83" s="22"/>
+      <c r="Q83" s="22"/>
+      <c r="R83" s="22"/>
+      <c r="S83" s="22"/>
+      <c r="T83" s="22"/>
+      <c r="U83" s="22"/>
+      <c r="V83" s="22"/>
+      <c r="W83" s="22"/>
+      <c r="X83" s="22"/>
+      <c r="Y83" s="22"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A84" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -3221,369 +3224,364 @@
       <c r="Y84" s="9"/>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B85" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="I85" s="18"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="18"/>
-      <c r="L85" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="M85" s="18"/>
-      <c r="N85" s="18"/>
-      <c r="O85" s="18"/>
-      <c r="P85" s="18"/>
-      <c r="Q85" s="18"/>
-      <c r="R85" s="18"/>
-      <c r="S85" s="18"/>
-      <c r="T85" s="18"/>
-      <c r="U85" s="18"/>
-      <c r="V85" s="18"/>
-      <c r="W85" s="18"/>
-      <c r="X85" s="18"/>
-      <c r="Y85" s="18"/>
+      <c r="A85" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="9"/>
+      <c r="T85" s="9"/>
+      <c r="U85" s="9"/>
+      <c r="V85" s="9"/>
+      <c r="W85" s="9"/>
+      <c r="X85" s="9"/>
+      <c r="Y85" s="9"/>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B86" s="15" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="C86" s="16"/>
       <c r="D86" s="16"/>
       <c r="E86" s="16"/>
       <c r="F86" s="16"/>
       <c r="G86" s="17"/>
-      <c r="H86" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="I86" s="18"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="18"/>
-      <c r="L86" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="M86" s="19"/>
-      <c r="N86" s="19"/>
-      <c r="O86" s="19"/>
-      <c r="P86" s="19"/>
-      <c r="Q86" s="19"/>
-      <c r="R86" s="19"/>
-      <c r="S86" s="19"/>
-      <c r="T86" s="19"/>
-      <c r="U86" s="19"/>
-      <c r="V86" s="19"/>
-      <c r="W86" s="19"/>
-      <c r="X86" s="19"/>
-      <c r="Y86" s="19"/>
+      <c r="H86" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M86" s="21"/>
+      <c r="N86" s="21"/>
+      <c r="O86" s="21"/>
+      <c r="P86" s="21"/>
+      <c r="Q86" s="21"/>
+      <c r="R86" s="21"/>
+      <c r="S86" s="21"/>
+      <c r="T86" s="21"/>
+      <c r="U86" s="21"/>
+      <c r="V86" s="21"/>
+      <c r="W86" s="21"/>
+      <c r="X86" s="21"/>
+      <c r="Y86" s="21"/>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B87" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C87" s="16"/>
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
       <c r="F87" s="16"/>
       <c r="G87" s="17"/>
-      <c r="H87" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="M87" s="19"/>
-      <c r="N87" s="19"/>
-      <c r="O87" s="19"/>
-      <c r="P87" s="19"/>
-      <c r="Q87" s="19"/>
-      <c r="R87" s="19"/>
-      <c r="S87" s="19"/>
-      <c r="T87" s="19"/>
-      <c r="U87" s="19"/>
-      <c r="V87" s="19"/>
-      <c r="W87" s="19"/>
-      <c r="X87" s="19"/>
-      <c r="Y87" s="19"/>
+      <c r="H87" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="M87" s="22"/>
+      <c r="N87" s="22"/>
+      <c r="O87" s="22"/>
+      <c r="P87" s="22"/>
+      <c r="Q87" s="22"/>
+      <c r="R87" s="22"/>
+      <c r="S87" s="22"/>
+      <c r="T87" s="22"/>
+      <c r="U87" s="22"/>
+      <c r="V87" s="22"/>
+      <c r="W87" s="22"/>
+      <c r="X87" s="22"/>
+      <c r="Y87" s="22"/>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B88" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C88" s="16"/>
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
       <c r="F88" s="16"/>
       <c r="G88" s="17"/>
-      <c r="H88" s="18" t="s">
+      <c r="H88" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="M88" s="19"/>
-      <c r="N88" s="19"/>
-      <c r="O88" s="19"/>
-      <c r="P88" s="19"/>
-      <c r="Q88" s="19"/>
-      <c r="R88" s="19"/>
-      <c r="S88" s="19"/>
-      <c r="T88" s="19"/>
-      <c r="U88" s="19"/>
-      <c r="V88" s="19"/>
-      <c r="W88" s="19"/>
-      <c r="X88" s="19"/>
-      <c r="Y88" s="19"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="M88" s="22"/>
+      <c r="N88" s="22"/>
+      <c r="O88" s="22"/>
+      <c r="P88" s="22"/>
+      <c r="Q88" s="22"/>
+      <c r="R88" s="22"/>
+      <c r="S88" s="22"/>
+      <c r="T88" s="22"/>
+      <c r="U88" s="22"/>
+      <c r="V88" s="22"/>
+      <c r="W88" s="22"/>
+      <c r="X88" s="22"/>
+      <c r="Y88" s="22"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B89" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C89" s="16"/>
       <c r="D89" s="16"/>
       <c r="E89" s="16"/>
       <c r="F89" s="16"/>
       <c r="G89" s="17"/>
-      <c r="H89" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="M89" s="19"/>
-      <c r="N89" s="19"/>
-      <c r="O89" s="19"/>
-      <c r="P89" s="19"/>
-      <c r="Q89" s="19"/>
-      <c r="R89" s="19"/>
-      <c r="S89" s="19"/>
-      <c r="T89" s="19"/>
-      <c r="U89" s="19"/>
-      <c r="V89" s="19"/>
-      <c r="W89" s="19"/>
-      <c r="X89" s="19"/>
-      <c r="Y89" s="19"/>
+      <c r="H89" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="M89" s="22"/>
+      <c r="N89" s="22"/>
+      <c r="O89" s="22"/>
+      <c r="P89" s="22"/>
+      <c r="Q89" s="22"/>
+      <c r="R89" s="22"/>
+      <c r="S89" s="22"/>
+      <c r="T89" s="22"/>
+      <c r="U89" s="22"/>
+      <c r="V89" s="22"/>
+      <c r="W89" s="22"/>
+      <c r="X89" s="22"/>
+      <c r="Y89" s="22"/>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B90" s="15" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C90" s="16"/>
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
       <c r="F90" s="16"/>
       <c r="G90" s="17"/>
-      <c r="H90" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="M90" s="19"/>
-      <c r="N90" s="19"/>
-      <c r="O90" s="19"/>
-      <c r="P90" s="19"/>
-      <c r="Q90" s="19"/>
-      <c r="R90" s="19"/>
-      <c r="S90" s="19"/>
-      <c r="T90" s="19"/>
-      <c r="U90" s="19"/>
-      <c r="V90" s="19"/>
-      <c r="W90" s="19"/>
-      <c r="X90" s="19"/>
-      <c r="Y90" s="19"/>
+      <c r="H90" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="M90" s="22"/>
+      <c r="N90" s="22"/>
+      <c r="O90" s="22"/>
+      <c r="P90" s="22"/>
+      <c r="Q90" s="22"/>
+      <c r="R90" s="22"/>
+      <c r="S90" s="22"/>
+      <c r="T90" s="22"/>
+      <c r="U90" s="22"/>
+      <c r="V90" s="22"/>
+      <c r="W90" s="22"/>
+      <c r="X90" s="22"/>
+      <c r="Y90" s="22"/>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B91" s="15" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
       <c r="G91" s="17"/>
-      <c r="H91" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="I91" s="18"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="18"/>
-      <c r="L91" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="M91" s="19"/>
-      <c r="N91" s="19"/>
-      <c r="O91" s="19"/>
-      <c r="P91" s="19"/>
-      <c r="Q91" s="19"/>
-      <c r="R91" s="19"/>
-      <c r="S91" s="19"/>
-      <c r="T91" s="19"/>
-      <c r="U91" s="19"/>
-      <c r="V91" s="19"/>
-      <c r="W91" s="19"/>
-      <c r="X91" s="19"/>
-      <c r="Y91" s="19"/>
+      <c r="H91" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="M91" s="22"/>
+      <c r="N91" s="22"/>
+      <c r="O91" s="22"/>
+      <c r="P91" s="22"/>
+      <c r="Q91" s="22"/>
+      <c r="R91" s="22"/>
+      <c r="S91" s="22"/>
+      <c r="T91" s="22"/>
+      <c r="U91" s="22"/>
+      <c r="V91" s="22"/>
+      <c r="W91" s="22"/>
+      <c r="X91" s="22"/>
+      <c r="Y91" s="22"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B92" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C92" s="16"/>
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
       <c r="F92" s="16"/>
       <c r="G92" s="17"/>
-      <c r="H92" s="18" t="s">
+      <c r="H92" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="M92" s="19"/>
-      <c r="N92" s="19"/>
-      <c r="O92" s="19"/>
-      <c r="P92" s="19"/>
-      <c r="Q92" s="19"/>
-      <c r="R92" s="19"/>
-      <c r="S92" s="19"/>
-      <c r="T92" s="19"/>
-      <c r="U92" s="19"/>
-      <c r="V92" s="19"/>
-      <c r="W92" s="19"/>
-      <c r="X92" s="19"/>
-      <c r="Y92" s="19"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="M92" s="22"/>
+      <c r="N92" s="22"/>
+      <c r="O92" s="22"/>
+      <c r="P92" s="22"/>
+      <c r="Q92" s="22"/>
+      <c r="R92" s="22"/>
+      <c r="S92" s="22"/>
+      <c r="T92" s="22"/>
+      <c r="U92" s="22"/>
+      <c r="V92" s="22"/>
+      <c r="W92" s="22"/>
+      <c r="X92" s="22"/>
+      <c r="Y92" s="22"/>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B93" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C93" s="16"/>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
       <c r="F93" s="16"/>
       <c r="G93" s="17"/>
-      <c r="H93" s="18" t="s">
+      <c r="H93" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="I93" s="18"/>
-      <c r="J93" s="18"/>
-      <c r="K93" s="18"/>
-      <c r="L93" s="19" t="s">
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="M93" s="22"/>
+      <c r="N93" s="22"/>
+      <c r="O93" s="22"/>
+      <c r="P93" s="22"/>
+      <c r="Q93" s="22"/>
+      <c r="R93" s="22"/>
+      <c r="S93" s="22"/>
+      <c r="T93" s="22"/>
+      <c r="U93" s="22"/>
+      <c r="V93" s="22"/>
+      <c r="W93" s="22"/>
+      <c r="X93" s="22"/>
+      <c r="Y93" s="22"/>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B94" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I94" s="21"/>
+      <c r="J94" s="21"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="M93" s="19"/>
-      <c r="N93" s="19"/>
-      <c r="O93" s="19"/>
-      <c r="P93" s="19"/>
-      <c r="Q93" s="19"/>
-      <c r="R93" s="19"/>
-      <c r="S93" s="19"/>
-      <c r="T93" s="19"/>
-      <c r="U93" s="19"/>
-      <c r="V93" s="19"/>
-      <c r="W93" s="19"/>
-      <c r="X93" s="19"/>
-      <c r="Y93" s="19"/>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="9"/>
-      <c r="M94" s="9"/>
-      <c r="N94" s="9"/>
-      <c r="O94" s="9"/>
-      <c r="P94" s="9"/>
-      <c r="Q94" s="9"/>
-      <c r="R94" s="9"/>
-      <c r="S94" s="9"/>
-      <c r="T94" s="9"/>
-      <c r="U94" s="9"/>
-      <c r="V94" s="9"/>
-      <c r="W94" s="9"/>
-      <c r="X94" s="9"/>
-      <c r="Y94" s="9"/>
+      <c r="M94" s="22"/>
+      <c r="N94" s="22"/>
+      <c r="O94" s="22"/>
+      <c r="P94" s="22"/>
+      <c r="Q94" s="22"/>
+      <c r="R94" s="22"/>
+      <c r="S94" s="22"/>
+      <c r="T94" s="22"/>
+      <c r="U94" s="22"/>
+      <c r="V94" s="22"/>
+      <c r="W94" s="22"/>
+      <c r="X94" s="22"/>
+      <c r="Y94" s="22"/>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A95" s="6" t="s">
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="9"/>
+      <c r="Q95" s="9"/>
+      <c r="R95" s="9"/>
+      <c r="S95" s="9"/>
+      <c r="T95" s="9"/>
+      <c r="U95" s="9"/>
+      <c r="V95" s="9"/>
+      <c r="W95" s="9"/>
+      <c r="X95" s="9"/>
+      <c r="Y95" s="9"/>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A96" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A96" s="6"/>
-    </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="6"/>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A98" s="7" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B98" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I98" s="16"/>
-      <c r="J98" s="17"/>
-      <c r="K98" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L98" s="16"/>
-      <c r="M98" s="16"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="P98" s="16"/>
-      <c r="Q98" s="16"/>
-      <c r="R98" s="16"/>
-      <c r="S98" s="16"/>
-      <c r="T98" s="16"/>
-      <c r="U98" s="16"/>
-      <c r="V98" s="16"/>
-      <c r="W98" s="16"/>
-      <c r="X98" s="16"/>
-      <c r="Y98" s="17"/>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B99" s="15" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C99" s="16"/>
       <c r="D99" s="16"/>
@@ -3591,33 +3589,33 @@
       <c r="F99" s="16"/>
       <c r="G99" s="17"/>
       <c r="H99" s="15" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I99" s="16"/>
       <c r="J99" s="17"/>
       <c r="K99" s="15" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="L99" s="16"/>
       <c r="M99" s="16"/>
       <c r="N99" s="17"/>
-      <c r="O99" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="P99" s="21"/>
-      <c r="Q99" s="21"/>
-      <c r="R99" s="21"/>
-      <c r="S99" s="21"/>
-      <c r="T99" s="21"/>
-      <c r="U99" s="21"/>
-      <c r="V99" s="21"/>
-      <c r="W99" s="21"/>
-      <c r="X99" s="21"/>
-      <c r="Y99" s="22"/>
+      <c r="O99" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P99" s="16"/>
+      <c r="Q99" s="16"/>
+      <c r="R99" s="16"/>
+      <c r="S99" s="16"/>
+      <c r="T99" s="16"/>
+      <c r="U99" s="16"/>
+      <c r="V99" s="16"/>
+      <c r="W99" s="16"/>
+      <c r="X99" s="16"/>
+      <c r="Y99" s="17"/>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B100" s="15" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
@@ -3630,28 +3628,28 @@
       <c r="I100" s="16"/>
       <c r="J100" s="17"/>
       <c r="K100" s="15" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="L100" s="16"/>
       <c r="M100" s="16"/>
       <c r="N100" s="17"/>
-      <c r="O100" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="21"/>
-      <c r="Q100" s="21"/>
-      <c r="R100" s="21"/>
-      <c r="S100" s="21"/>
-      <c r="T100" s="21"/>
-      <c r="U100" s="21"/>
-      <c r="V100" s="21"/>
-      <c r="W100" s="21"/>
-      <c r="X100" s="21"/>
-      <c r="Y100" s="22"/>
+      <c r="O100" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="P100" s="19"/>
+      <c r="Q100" s="19"/>
+      <c r="R100" s="19"/>
+      <c r="S100" s="19"/>
+      <c r="T100" s="19"/>
+      <c r="U100" s="19"/>
+      <c r="V100" s="19"/>
+      <c r="W100" s="19"/>
+      <c r="X100" s="19"/>
+      <c r="Y100" s="20"/>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B101" s="15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
@@ -3669,23 +3667,23 @@
       <c r="L101" s="16"/>
       <c r="M101" s="16"/>
       <c r="N101" s="17"/>
-      <c r="O101" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="21"/>
-      <c r="Q101" s="21"/>
-      <c r="R101" s="21"/>
-      <c r="S101" s="21"/>
-      <c r="T101" s="21"/>
-      <c r="U101" s="21"/>
-      <c r="V101" s="21"/>
-      <c r="W101" s="21"/>
-      <c r="X101" s="21"/>
-      <c r="Y101" s="22"/>
+      <c r="O101" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P101" s="19"/>
+      <c r="Q101" s="19"/>
+      <c r="R101" s="19"/>
+      <c r="S101" s="19"/>
+      <c r="T101" s="19"/>
+      <c r="U101" s="19"/>
+      <c r="V101" s="19"/>
+      <c r="W101" s="19"/>
+      <c r="X101" s="19"/>
+      <c r="Y101" s="20"/>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B102" s="15" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
@@ -3698,558 +3696,566 @@
       <c r="I102" s="16"/>
       <c r="J102" s="17"/>
       <c r="K102" s="15" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="L102" s="16"/>
       <c r="M102" s="16"/>
       <c r="N102" s="17"/>
-      <c r="O102" s="20" t="s">
+      <c r="O102" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="19"/>
+      <c r="Q102" s="19"/>
+      <c r="R102" s="19"/>
+      <c r="S102" s="19"/>
+      <c r="T102" s="19"/>
+      <c r="U102" s="19"/>
+      <c r="V102" s="19"/>
+      <c r="W102" s="19"/>
+      <c r="X102" s="19"/>
+      <c r="Y102" s="20"/>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B103" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I103" s="16"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L103" s="16"/>
+      <c r="M103" s="16"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="P102" s="21"/>
-      <c r="Q102" s="21"/>
-      <c r="R102" s="21"/>
-      <c r="S102" s="21"/>
-      <c r="T102" s="21"/>
-      <c r="U102" s="21"/>
-      <c r="V102" s="21"/>
-      <c r="W102" s="21"/>
-      <c r="X102" s="21"/>
-      <c r="Y102" s="22"/>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A104" s="7" t="s">
+      <c r="P103" s="19"/>
+      <c r="Q103" s="19"/>
+      <c r="R103" s="19"/>
+      <c r="S103" s="19"/>
+      <c r="T103" s="19"/>
+      <c r="U103" s="19"/>
+      <c r="V103" s="19"/>
+      <c r="W103" s="19"/>
+      <c r="X103" s="19"/>
+      <c r="Y103" s="20"/>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A105" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
-      <c r="K104" s="8"/>
-      <c r="L104" s="9"/>
-      <c r="M104" s="9"/>
-      <c r="N104" s="9"/>
-      <c r="O104" s="9"/>
-      <c r="P104" s="9"/>
-      <c r="Q104" s="9"/>
-      <c r="R104" s="9"/>
-      <c r="S104" s="9"/>
-      <c r="T104" s="9"/>
-      <c r="U104" s="9"/>
-      <c r="V104" s="9"/>
-      <c r="W104" s="9"/>
-      <c r="X104" s="9"/>
-      <c r="Y104" s="9"/>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B105" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
-      <c r="F105" s="16"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="I105" s="18"/>
-      <c r="J105" s="18"/>
-      <c r="K105" s="18"/>
-      <c r="L105" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="M105" s="18"/>
-      <c r="N105" s="18"/>
-      <c r="O105" s="18"/>
-      <c r="P105" s="18"/>
-      <c r="Q105" s="18"/>
-      <c r="R105" s="18"/>
-      <c r="S105" s="18"/>
-      <c r="T105" s="18"/>
-      <c r="U105" s="18"/>
-      <c r="V105" s="18"/>
-      <c r="W105" s="18"/>
-      <c r="X105" s="18"/>
-      <c r="Y105" s="18"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="9"/>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="9"/>
+      <c r="S105" s="9"/>
+      <c r="T105" s="9"/>
+      <c r="U105" s="9"/>
+      <c r="V105" s="9"/>
+      <c r="W105" s="9"/>
+      <c r="X105" s="9"/>
+      <c r="Y105" s="9"/>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B106" s="15" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="C106" s="16"/>
       <c r="D106" s="16"/>
       <c r="E106" s="16"/>
       <c r="F106" s="16"/>
       <c r="G106" s="17"/>
-      <c r="H106" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="I106" s="18"/>
-      <c r="J106" s="18"/>
-      <c r="K106" s="18"/>
-      <c r="L106" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="M106" s="19"/>
-      <c r="N106" s="19"/>
-      <c r="O106" s="19"/>
-      <c r="P106" s="19"/>
-      <c r="Q106" s="19"/>
-      <c r="R106" s="19"/>
-      <c r="S106" s="19"/>
-      <c r="T106" s="19"/>
-      <c r="U106" s="19"/>
-      <c r="V106" s="19"/>
-      <c r="W106" s="19"/>
-      <c r="X106" s="19"/>
-      <c r="Y106" s="19"/>
+      <c r="H106" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I106" s="21"/>
+      <c r="J106" s="21"/>
+      <c r="K106" s="21"/>
+      <c r="L106" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M106" s="21"/>
+      <c r="N106" s="21"/>
+      <c r="O106" s="21"/>
+      <c r="P106" s="21"/>
+      <c r="Q106" s="21"/>
+      <c r="R106" s="21"/>
+      <c r="S106" s="21"/>
+      <c r="T106" s="21"/>
+      <c r="U106" s="21"/>
+      <c r="V106" s="21"/>
+      <c r="W106" s="21"/>
+      <c r="X106" s="21"/>
+      <c r="Y106" s="21"/>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B107" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C107" s="16"/>
       <c r="D107" s="16"/>
       <c r="E107" s="16"/>
       <c r="F107" s="16"/>
       <c r="G107" s="17"/>
-      <c r="H107" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="I107" s="18"/>
-      <c r="J107" s="18"/>
-      <c r="K107" s="18"/>
-      <c r="L107" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="M107" s="19"/>
-      <c r="N107" s="19"/>
-      <c r="O107" s="19"/>
-      <c r="P107" s="19"/>
-      <c r="Q107" s="19"/>
-      <c r="R107" s="19"/>
-      <c r="S107" s="19"/>
-      <c r="T107" s="19"/>
-      <c r="U107" s="19"/>
-      <c r="V107" s="19"/>
-      <c r="W107" s="19"/>
-      <c r="X107" s="19"/>
-      <c r="Y107" s="19"/>
+      <c r="H107" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I107" s="21"/>
+      <c r="J107" s="21"/>
+      <c r="K107" s="21"/>
+      <c r="L107" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="M107" s="22"/>
+      <c r="N107" s="22"/>
+      <c r="O107" s="22"/>
+      <c r="P107" s="22"/>
+      <c r="Q107" s="22"/>
+      <c r="R107" s="22"/>
+      <c r="S107" s="22"/>
+      <c r="T107" s="22"/>
+      <c r="U107" s="22"/>
+      <c r="V107" s="22"/>
+      <c r="W107" s="22"/>
+      <c r="X107" s="22"/>
+      <c r="Y107" s="22"/>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B108" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C108" s="16"/>
       <c r="D108" s="16"/>
       <c r="E108" s="16"/>
       <c r="F108" s="16"/>
       <c r="G108" s="17"/>
-      <c r="H108" s="18" t="s">
+      <c r="H108" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I108" s="18"/>
-      <c r="J108" s="18"/>
-      <c r="K108" s="18"/>
-      <c r="L108" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="M108" s="19"/>
-      <c r="N108" s="19"/>
-      <c r="O108" s="19"/>
-      <c r="P108" s="19"/>
-      <c r="Q108" s="19"/>
-      <c r="R108" s="19"/>
-      <c r="S108" s="19"/>
-      <c r="T108" s="19"/>
-      <c r="U108" s="19"/>
-      <c r="V108" s="19"/>
-      <c r="W108" s="19"/>
-      <c r="X108" s="19"/>
-      <c r="Y108" s="19"/>
+      <c r="I108" s="21"/>
+      <c r="J108" s="21"/>
+      <c r="K108" s="21"/>
+      <c r="L108" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="M108" s="22"/>
+      <c r="N108" s="22"/>
+      <c r="O108" s="22"/>
+      <c r="P108" s="22"/>
+      <c r="Q108" s="22"/>
+      <c r="R108" s="22"/>
+      <c r="S108" s="22"/>
+      <c r="T108" s="22"/>
+      <c r="U108" s="22"/>
+      <c r="V108" s="22"/>
+      <c r="W108" s="22"/>
+      <c r="X108" s="22"/>
+      <c r="Y108" s="22"/>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B109" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C109" s="16"/>
       <c r="D109" s="16"/>
       <c r="E109" s="16"/>
       <c r="F109" s="16"/>
       <c r="G109" s="17"/>
-      <c r="H109" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="I109" s="18"/>
-      <c r="J109" s="18"/>
-      <c r="K109" s="18"/>
-      <c r="L109" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="M109" s="19"/>
-      <c r="N109" s="19"/>
-      <c r="O109" s="19"/>
-      <c r="P109" s="19"/>
-      <c r="Q109" s="19"/>
-      <c r="R109" s="19"/>
-      <c r="S109" s="19"/>
-      <c r="T109" s="19"/>
-      <c r="U109" s="19"/>
-      <c r="V109" s="19"/>
-      <c r="W109" s="19"/>
-      <c r="X109" s="19"/>
-      <c r="Y109" s="19"/>
+      <c r="H109" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="I109" s="21"/>
+      <c r="J109" s="21"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="M109" s="22"/>
+      <c r="N109" s="22"/>
+      <c r="O109" s="22"/>
+      <c r="P109" s="22"/>
+      <c r="Q109" s="22"/>
+      <c r="R109" s="22"/>
+      <c r="S109" s="22"/>
+      <c r="T109" s="22"/>
+      <c r="U109" s="22"/>
+      <c r="V109" s="22"/>
+      <c r="W109" s="22"/>
+      <c r="X109" s="22"/>
+      <c r="Y109" s="22"/>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B110" s="15" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
       <c r="E110" s="16"/>
       <c r="F110" s="16"/>
       <c r="G110" s="17"/>
-      <c r="H110" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I110" s="18"/>
-      <c r="J110" s="18"/>
-      <c r="K110" s="18"/>
-      <c r="L110" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="M110" s="19"/>
-      <c r="N110" s="19"/>
-      <c r="O110" s="19"/>
-      <c r="P110" s="19"/>
-      <c r="Q110" s="19"/>
-      <c r="R110" s="19"/>
-      <c r="S110" s="19"/>
-      <c r="T110" s="19"/>
-      <c r="U110" s="19"/>
-      <c r="V110" s="19"/>
-      <c r="W110" s="19"/>
-      <c r="X110" s="19"/>
-      <c r="Y110" s="19"/>
+      <c r="H110" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I110" s="21"/>
+      <c r="J110" s="21"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="M110" s="22"/>
+      <c r="N110" s="22"/>
+      <c r="O110" s="22"/>
+      <c r="P110" s="22"/>
+      <c r="Q110" s="22"/>
+      <c r="R110" s="22"/>
+      <c r="S110" s="22"/>
+      <c r="T110" s="22"/>
+      <c r="U110" s="22"/>
+      <c r="V110" s="22"/>
+      <c r="W110" s="22"/>
+      <c r="X110" s="22"/>
+      <c r="Y110" s="22"/>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B111" s="15" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C111" s="16"/>
       <c r="D111" s="16"/>
       <c r="E111" s="16"/>
       <c r="F111" s="16"/>
       <c r="G111" s="17"/>
-      <c r="H111" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="I111" s="18"/>
-      <c r="J111" s="18"/>
-      <c r="K111" s="18"/>
-      <c r="L111" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="M111" s="19"/>
-      <c r="N111" s="19"/>
-      <c r="O111" s="19"/>
-      <c r="P111" s="19"/>
-      <c r="Q111" s="19"/>
-      <c r="R111" s="19"/>
-      <c r="S111" s="19"/>
-      <c r="T111" s="19"/>
-      <c r="U111" s="19"/>
-      <c r="V111" s="19"/>
-      <c r="W111" s="19"/>
-      <c r="X111" s="19"/>
-      <c r="Y111" s="19"/>
+      <c r="H111" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I111" s="21"/>
+      <c r="J111" s="21"/>
+      <c r="K111" s="21"/>
+      <c r="L111" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="M111" s="22"/>
+      <c r="N111" s="22"/>
+      <c r="O111" s="22"/>
+      <c r="P111" s="22"/>
+      <c r="Q111" s="22"/>
+      <c r="R111" s="22"/>
+      <c r="S111" s="22"/>
+      <c r="T111" s="22"/>
+      <c r="U111" s="22"/>
+      <c r="V111" s="22"/>
+      <c r="W111" s="22"/>
+      <c r="X111" s="22"/>
+      <c r="Y111" s="22"/>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B112" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
       <c r="F112" s="16"/>
       <c r="G112" s="17"/>
-      <c r="H112" s="18" t="s">
+      <c r="H112" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="I112" s="18"/>
-      <c r="J112" s="18"/>
-      <c r="K112" s="18"/>
-      <c r="L112" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="M112" s="19"/>
-      <c r="N112" s="19"/>
-      <c r="O112" s="19"/>
-      <c r="P112" s="19"/>
-      <c r="Q112" s="19"/>
-      <c r="R112" s="19"/>
-      <c r="S112" s="19"/>
-      <c r="T112" s="19"/>
-      <c r="U112" s="19"/>
-      <c r="V112" s="19"/>
-      <c r="W112" s="19"/>
-      <c r="X112" s="19"/>
-      <c r="Y112" s="19"/>
+      <c r="I112" s="21"/>
+      <c r="J112" s="21"/>
+      <c r="K112" s="21"/>
+      <c r="L112" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="M112" s="22"/>
+      <c r="N112" s="22"/>
+      <c r="O112" s="22"/>
+      <c r="P112" s="22"/>
+      <c r="Q112" s="22"/>
+      <c r="R112" s="22"/>
+      <c r="S112" s="22"/>
+      <c r="T112" s="22"/>
+      <c r="U112" s="22"/>
+      <c r="V112" s="22"/>
+      <c r="W112" s="22"/>
+      <c r="X112" s="22"/>
+      <c r="Y112" s="22"/>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B113" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C113" s="16"/>
       <c r="D113" s="16"/>
       <c r="E113" s="16"/>
       <c r="F113" s="16"/>
       <c r="G113" s="17"/>
-      <c r="H113" s="18" t="s">
+      <c r="H113" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="I113" s="18"/>
-      <c r="J113" s="18"/>
-      <c r="K113" s="18"/>
-      <c r="L113" s="19" t="s">
+      <c r="I113" s="21"/>
+      <c r="J113" s="21"/>
+      <c r="K113" s="21"/>
+      <c r="L113" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="M113" s="22"/>
+      <c r="N113" s="22"/>
+      <c r="O113" s="22"/>
+      <c r="P113" s="22"/>
+      <c r="Q113" s="22"/>
+      <c r="R113" s="22"/>
+      <c r="S113" s="22"/>
+      <c r="T113" s="22"/>
+      <c r="U113" s="22"/>
+      <c r="V113" s="22"/>
+      <c r="W113" s="22"/>
+      <c r="X113" s="22"/>
+      <c r="Y113" s="22"/>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B114" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I114" s="21"/>
+      <c r="J114" s="21"/>
+      <c r="K114" s="21"/>
+      <c r="L114" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="M113" s="19"/>
-      <c r="N113" s="19"/>
-      <c r="O113" s="19"/>
-      <c r="P113" s="19"/>
-      <c r="Q113" s="19"/>
-      <c r="R113" s="19"/>
-      <c r="S113" s="19"/>
-      <c r="T113" s="19"/>
-      <c r="U113" s="19"/>
-      <c r="V113" s="19"/>
-      <c r="W113" s="19"/>
-      <c r="X113" s="19"/>
-      <c r="Y113" s="19"/>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8"/>
-      <c r="J114" s="8"/>
-      <c r="K114" s="8"/>
-      <c r="L114" s="9"/>
-      <c r="M114" s="9"/>
-      <c r="N114" s="9"/>
-      <c r="O114" s="9"/>
-      <c r="P114" s="9"/>
-      <c r="Q114" s="9"/>
-      <c r="R114" s="9"/>
-      <c r="S114" s="9"/>
-      <c r="T114" s="9"/>
-      <c r="U114" s="9"/>
-      <c r="V114" s="9"/>
-      <c r="W114" s="9"/>
-      <c r="X114" s="9"/>
-      <c r="Y114" s="9"/>
+      <c r="M114" s="22"/>
+      <c r="N114" s="22"/>
+      <c r="O114" s="22"/>
+      <c r="P114" s="22"/>
+      <c r="Q114" s="22"/>
+      <c r="R114" s="22"/>
+      <c r="S114" s="22"/>
+      <c r="T114" s="22"/>
+      <c r="U114" s="22"/>
+      <c r="V114" s="22"/>
+      <c r="W114" s="22"/>
+      <c r="X114" s="22"/>
+      <c r="Y114" s="22"/>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A115" s="7" t="s">
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="9"/>
+      <c r="O115" s="9"/>
+      <c r="P115" s="9"/>
+      <c r="Q115" s="9"/>
+      <c r="R115" s="9"/>
+      <c r="S115" s="9"/>
+      <c r="T115" s="9"/>
+      <c r="U115" s="9"/>
+      <c r="V115" s="9"/>
+      <c r="W115" s="9"/>
+      <c r="X115" s="9"/>
+      <c r="Y115" s="9"/>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A116" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B116" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C116" s="16"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="16"/>
-      <c r="F116" s="16"/>
-      <c r="G116" s="17"/>
-      <c r="H116" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="I116" s="18"/>
-      <c r="J116" s="18"/>
-      <c r="K116" s="18"/>
-      <c r="L116" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="M116" s="18"/>
-      <c r="N116" s="18"/>
-      <c r="O116" s="18"/>
-      <c r="P116" s="18"/>
-      <c r="Q116" s="18"/>
-      <c r="R116" s="18"/>
-      <c r="S116" s="18"/>
-      <c r="T116" s="18"/>
-      <c r="U116" s="18"/>
-      <c r="V116" s="18"/>
-      <c r="W116" s="18"/>
-      <c r="X116" s="18"/>
-      <c r="Y116" s="18"/>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B117" s="15" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
       <c r="E117" s="16"/>
       <c r="F117" s="16"/>
       <c r="G117" s="17"/>
-      <c r="H117" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I117" s="16"/>
-      <c r="J117" s="16"/>
-      <c r="K117" s="17"/>
-      <c r="L117" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="M117" s="19"/>
-      <c r="N117" s="19"/>
-      <c r="O117" s="19"/>
-      <c r="P117" s="19"/>
-      <c r="Q117" s="19"/>
-      <c r="R117" s="19"/>
-      <c r="S117" s="19"/>
-      <c r="T117" s="19"/>
-      <c r="U117" s="19"/>
-      <c r="V117" s="19"/>
-      <c r="W117" s="19"/>
-      <c r="X117" s="19"/>
-      <c r="Y117" s="19"/>
+      <c r="H117" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I117" s="21"/>
+      <c r="J117" s="21"/>
+      <c r="K117" s="21"/>
+      <c r="L117" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M117" s="21"/>
+      <c r="N117" s="21"/>
+      <c r="O117" s="21"/>
+      <c r="P117" s="21"/>
+      <c r="Q117" s="21"/>
+      <c r="R117" s="21"/>
+      <c r="S117" s="21"/>
+      <c r="T117" s="21"/>
+      <c r="U117" s="21"/>
+      <c r="V117" s="21"/>
+      <c r="W117" s="21"/>
+      <c r="X117" s="21"/>
+      <c r="Y117" s="21"/>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B118" s="15" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
       <c r="E118" s="16"/>
       <c r="F118" s="16"/>
       <c r="G118" s="17"/>
-      <c r="H118" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I118" s="18"/>
-      <c r="J118" s="18"/>
-      <c r="K118" s="18"/>
-      <c r="L118" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="M118" s="19"/>
-      <c r="N118" s="19"/>
-      <c r="O118" s="19"/>
-      <c r="P118" s="19"/>
-      <c r="Q118" s="19"/>
-      <c r="R118" s="19"/>
-      <c r="S118" s="19"/>
-      <c r="T118" s="19"/>
-      <c r="U118" s="19"/>
-      <c r="V118" s="19"/>
-      <c r="W118" s="19"/>
-      <c r="X118" s="19"/>
-      <c r="Y118" s="19"/>
+      <c r="H118" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I118" s="16"/>
+      <c r="J118" s="16"/>
+      <c r="K118" s="17"/>
+      <c r="L118" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="M118" s="22"/>
+      <c r="N118" s="22"/>
+      <c r="O118" s="22"/>
+      <c r="P118" s="22"/>
+      <c r="Q118" s="22"/>
+      <c r="R118" s="22"/>
+      <c r="S118" s="22"/>
+      <c r="T118" s="22"/>
+      <c r="U118" s="22"/>
+      <c r="V118" s="22"/>
+      <c r="W118" s="22"/>
+      <c r="X118" s="22"/>
+      <c r="Y118" s="22"/>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B119" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C119" s="16"/>
       <c r="D119" s="16"/>
       <c r="E119" s="16"/>
       <c r="F119" s="16"/>
       <c r="G119" s="17"/>
-      <c r="H119" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="I119" s="18"/>
-      <c r="J119" s="18"/>
-      <c r="K119" s="18"/>
-      <c r="L119" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M119" s="19"/>
-      <c r="N119" s="19"/>
-      <c r="O119" s="19"/>
-      <c r="P119" s="19"/>
-      <c r="Q119" s="19"/>
-      <c r="R119" s="19"/>
-      <c r="S119" s="19"/>
-      <c r="T119" s="19"/>
-      <c r="U119" s="19"/>
-      <c r="V119" s="19"/>
-      <c r="W119" s="19"/>
-      <c r="X119" s="19"/>
-      <c r="Y119" s="19"/>
+      <c r="H119" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I119" s="21"/>
+      <c r="J119" s="21"/>
+      <c r="K119" s="21"/>
+      <c r="L119" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M119" s="22"/>
+      <c r="N119" s="22"/>
+      <c r="O119" s="22"/>
+      <c r="P119" s="22"/>
+      <c r="Q119" s="22"/>
+      <c r="R119" s="22"/>
+      <c r="S119" s="22"/>
+      <c r="T119" s="22"/>
+      <c r="U119" s="22"/>
+      <c r="V119" s="22"/>
+      <c r="W119" s="22"/>
+      <c r="X119" s="22"/>
+      <c r="Y119" s="22"/>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B120" s="15" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="C120" s="16"/>
       <c r="D120" s="16"/>
       <c r="E120" s="16"/>
       <c r="F120" s="16"/>
       <c r="G120" s="17"/>
-      <c r="H120" s="18" t="s">
+      <c r="H120" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I120" s="21"/>
+      <c r="J120" s="21"/>
+      <c r="K120" s="21"/>
+      <c r="L120" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M120" s="22"/>
+      <c r="N120" s="22"/>
+      <c r="O120" s="22"/>
+      <c r="P120" s="22"/>
+      <c r="Q120" s="22"/>
+      <c r="R120" s="22"/>
+      <c r="S120" s="22"/>
+      <c r="T120" s="22"/>
+      <c r="U120" s="22"/>
+      <c r="V120" s="22"/>
+      <c r="W120" s="22"/>
+      <c r="X120" s="22"/>
+      <c r="Y120" s="22"/>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B121" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="I120" s="18"/>
-      <c r="J120" s="18"/>
-      <c r="K120" s="18"/>
-      <c r="L120" s="19" t="s">
+      <c r="I121" s="21"/>
+      <c r="J121" s="21"/>
+      <c r="K121" s="21"/>
+      <c r="L121" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="M120" s="19"/>
-      <c r="N120" s="19"/>
-      <c r="O120" s="19"/>
-      <c r="P120" s="19"/>
-      <c r="Q120" s="19"/>
-      <c r="R120" s="19"/>
-      <c r="S120" s="19"/>
-      <c r="T120" s="19"/>
-      <c r="U120" s="19"/>
-      <c r="V120" s="19"/>
-      <c r="W120" s="19"/>
-      <c r="X120" s="19"/>
-      <c r="Y120" s="19"/>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
-      <c r="K121" s="8"/>
-      <c r="L121" s="9"/>
-      <c r="M121" s="9"/>
-      <c r="N121" s="9"/>
-      <c r="O121" s="9"/>
-      <c r="P121" s="9"/>
-      <c r="Q121" s="9"/>
-      <c r="R121" s="9"/>
-      <c r="S121" s="9"/>
-      <c r="T121" s="9"/>
-      <c r="U121" s="9"/>
-      <c r="V121" s="9"/>
-      <c r="W121" s="9"/>
-      <c r="X121" s="9"/>
-      <c r="Y121" s="9"/>
+      <c r="M121" s="22"/>
+      <c r="N121" s="22"/>
+      <c r="O121" s="22"/>
+      <c r="P121" s="22"/>
+      <c r="Q121" s="22"/>
+      <c r="R121" s="22"/>
+      <c r="S121" s="22"/>
+      <c r="T121" s="22"/>
+      <c r="U121" s="22"/>
+      <c r="V121" s="22"/>
+      <c r="W121" s="22"/>
+      <c r="X121" s="22"/>
+      <c r="Y121" s="22"/>
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B122" s="8"/>
@@ -4278,55 +4284,47 @@
       <c r="Y122" s="9"/>
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A123" s="6" t="s">
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="8"/>
+      <c r="L123" s="9"/>
+      <c r="M123" s="9"/>
+      <c r="N123" s="9"/>
+      <c r="O123" s="9"/>
+      <c r="P123" s="9"/>
+      <c r="Q123" s="9"/>
+      <c r="R123" s="9"/>
+      <c r="S123" s="9"/>
+      <c r="T123" s="9"/>
+      <c r="U123" s="9"/>
+      <c r="V123" s="9"/>
+      <c r="W123" s="9"/>
+      <c r="X123" s="9"/>
+      <c r="Y123" s="9"/>
+    </row>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A124" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A124" s="6"/>
-    </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A125" s="7" t="s">
+      <c r="A125" s="6"/>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A126" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B126" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C126" s="16"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="16"/>
-      <c r="F126" s="16"/>
-      <c r="G126" s="17"/>
-      <c r="H126" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I126" s="16"/>
-      <c r="J126" s="17"/>
-      <c r="K126" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L126" s="16"/>
-      <c r="M126" s="16"/>
-      <c r="N126" s="17"/>
-      <c r="O126" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="P126" s="16"/>
-      <c r="Q126" s="16"/>
-      <c r="R126" s="16"/>
-      <c r="S126" s="16"/>
-      <c r="T126" s="16"/>
-      <c r="U126" s="16"/>
-      <c r="V126" s="16"/>
-      <c r="W126" s="16"/>
-      <c r="X126" s="16"/>
-      <c r="Y126" s="17"/>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B127" s="15" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C127" s="16"/>
       <c r="D127" s="16"/>
@@ -4334,33 +4332,33 @@
       <c r="F127" s="16"/>
       <c r="G127" s="17"/>
       <c r="H127" s="15" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I127" s="16"/>
       <c r="J127" s="17"/>
       <c r="K127" s="15" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="L127" s="16"/>
       <c r="M127" s="16"/>
       <c r="N127" s="17"/>
-      <c r="O127" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="P127" s="21"/>
-      <c r="Q127" s="21"/>
-      <c r="R127" s="21"/>
-      <c r="S127" s="21"/>
-      <c r="T127" s="21"/>
-      <c r="U127" s="21"/>
-      <c r="V127" s="21"/>
-      <c r="W127" s="21"/>
-      <c r="X127" s="21"/>
-      <c r="Y127" s="22"/>
+      <c r="O127" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P127" s="16"/>
+      <c r="Q127" s="16"/>
+      <c r="R127" s="16"/>
+      <c r="S127" s="16"/>
+      <c r="T127" s="16"/>
+      <c r="U127" s="16"/>
+      <c r="V127" s="16"/>
+      <c r="W127" s="16"/>
+      <c r="X127" s="16"/>
+      <c r="Y127" s="17"/>
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B128" s="15" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C128" s="16"/>
       <c r="D128" s="16"/>
@@ -4373,28 +4371,28 @@
       <c r="I128" s="16"/>
       <c r="J128" s="17"/>
       <c r="K128" s="15" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="L128" s="16"/>
       <c r="M128" s="16"/>
       <c r="N128" s="17"/>
-      <c r="O128" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="P128" s="21"/>
-      <c r="Q128" s="21"/>
-      <c r="R128" s="21"/>
-      <c r="S128" s="21"/>
-      <c r="T128" s="21"/>
-      <c r="U128" s="21"/>
-      <c r="V128" s="21"/>
-      <c r="W128" s="21"/>
-      <c r="X128" s="21"/>
-      <c r="Y128" s="22"/>
+      <c r="O128" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="P128" s="19"/>
+      <c r="Q128" s="19"/>
+      <c r="R128" s="19"/>
+      <c r="S128" s="19"/>
+      <c r="T128" s="19"/>
+      <c r="U128" s="19"/>
+      <c r="V128" s="19"/>
+      <c r="W128" s="19"/>
+      <c r="X128" s="19"/>
+      <c r="Y128" s="20"/>
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B129" s="15" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="C129" s="16"/>
       <c r="D129" s="16"/>
@@ -4407,679 +4405,653 @@
       <c r="I129" s="16"/>
       <c r="J129" s="17"/>
       <c r="K129" s="15" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="L129" s="16"/>
       <c r="M129" s="16"/>
       <c r="N129" s="17"/>
-      <c r="O129" s="20" t="s">
+      <c r="O129" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P129" s="19"/>
+      <c r="Q129" s="19"/>
+      <c r="R129" s="19"/>
+      <c r="S129" s="19"/>
+      <c r="T129" s="19"/>
+      <c r="U129" s="19"/>
+      <c r="V129" s="19"/>
+      <c r="W129" s="19"/>
+      <c r="X129" s="19"/>
+      <c r="Y129" s="20"/>
+    </row>
+    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B130" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C130" s="16"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="17"/>
+      <c r="H130" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I130" s="16"/>
+      <c r="J130" s="17"/>
+      <c r="K130" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="L130" s="16"/>
+      <c r="M130" s="16"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="P129" s="21"/>
-      <c r="Q129" s="21"/>
-      <c r="R129" s="21"/>
-      <c r="S129" s="21"/>
-      <c r="T129" s="21"/>
-      <c r="U129" s="21"/>
-      <c r="V129" s="21"/>
-      <c r="W129" s="21"/>
-      <c r="X129" s="21"/>
-      <c r="Y129" s="22"/>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A131" s="7" t="s">
+      <c r="P130" s="19"/>
+      <c r="Q130" s="19"/>
+      <c r="R130" s="19"/>
+      <c r="S130" s="19"/>
+      <c r="T130" s="19"/>
+      <c r="U130" s="19"/>
+      <c r="V130" s="19"/>
+      <c r="W130" s="19"/>
+      <c r="X130" s="19"/>
+      <c r="Y130" s="20"/>
+    </row>
+    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A132" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
-      <c r="I131" s="8"/>
-      <c r="J131" s="8"/>
-      <c r="K131" s="8"/>
-      <c r="L131" s="9"/>
-      <c r="M131" s="9"/>
-      <c r="N131" s="9"/>
-      <c r="O131" s="9"/>
-      <c r="P131" s="9"/>
-      <c r="Q131" s="9"/>
-      <c r="R131" s="9"/>
-      <c r="S131" s="9"/>
-      <c r="T131" s="9"/>
-      <c r="U131" s="9"/>
-      <c r="V131" s="9"/>
-      <c r="W131" s="9"/>
-      <c r="X131" s="9"/>
-      <c r="Y131" s="9"/>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B132" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C132" s="16"/>
-      <c r="D132" s="16"/>
-      <c r="E132" s="16"/>
-      <c r="F132" s="16"/>
-      <c r="G132" s="17"/>
-      <c r="H132" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="I132" s="18"/>
-      <c r="J132" s="18"/>
-      <c r="K132" s="18"/>
-      <c r="L132" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="M132" s="18"/>
-      <c r="N132" s="18"/>
-      <c r="O132" s="18"/>
-      <c r="P132" s="18"/>
-      <c r="Q132" s="18"/>
-      <c r="R132" s="18"/>
-      <c r="S132" s="18"/>
-      <c r="T132" s="18"/>
-      <c r="U132" s="18"/>
-      <c r="V132" s="18"/>
-      <c r="W132" s="18"/>
-      <c r="X132" s="18"/>
-      <c r="Y132" s="18"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="8"/>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="9"/>
+      <c r="O132" s="9"/>
+      <c r="P132" s="9"/>
+      <c r="Q132" s="9"/>
+      <c r="R132" s="9"/>
+      <c r="S132" s="9"/>
+      <c r="T132" s="9"/>
+      <c r="U132" s="9"/>
+      <c r="V132" s="9"/>
+      <c r="W132" s="9"/>
+      <c r="X132" s="9"/>
+      <c r="Y132" s="9"/>
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B133" s="15" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="C133" s="16"/>
       <c r="D133" s="16"/>
       <c r="E133" s="16"/>
       <c r="F133" s="16"/>
       <c r="G133" s="17"/>
-      <c r="H133" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="I133" s="18"/>
-      <c r="J133" s="18"/>
-      <c r="K133" s="18"/>
-      <c r="L133" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="M133" s="19"/>
-      <c r="N133" s="19"/>
-      <c r="O133" s="19"/>
-      <c r="P133" s="19"/>
-      <c r="Q133" s="19"/>
-      <c r="R133" s="19"/>
-      <c r="S133" s="19"/>
-      <c r="T133" s="19"/>
-      <c r="U133" s="19"/>
-      <c r="V133" s="19"/>
-      <c r="W133" s="19"/>
-      <c r="X133" s="19"/>
-      <c r="Y133" s="19"/>
+      <c r="H133" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I133" s="21"/>
+      <c r="J133" s="21"/>
+      <c r="K133" s="21"/>
+      <c r="L133" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M133" s="21"/>
+      <c r="N133" s="21"/>
+      <c r="O133" s="21"/>
+      <c r="P133" s="21"/>
+      <c r="Q133" s="21"/>
+      <c r="R133" s="21"/>
+      <c r="S133" s="21"/>
+      <c r="T133" s="21"/>
+      <c r="U133" s="21"/>
+      <c r="V133" s="21"/>
+      <c r="W133" s="21"/>
+      <c r="X133" s="21"/>
+      <c r="Y133" s="21"/>
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B134" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C134" s="16"/>
       <c r="D134" s="16"/>
       <c r="E134" s="16"/>
       <c r="F134" s="16"/>
       <c r="G134" s="17"/>
-      <c r="H134" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="I134" s="18"/>
-      <c r="J134" s="18"/>
-      <c r="K134" s="18"/>
-      <c r="L134" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="M134" s="19"/>
-      <c r="N134" s="19"/>
-      <c r="O134" s="19"/>
-      <c r="P134" s="19"/>
-      <c r="Q134" s="19"/>
-      <c r="R134" s="19"/>
-      <c r="S134" s="19"/>
-      <c r="T134" s="19"/>
-      <c r="U134" s="19"/>
-      <c r="V134" s="19"/>
-      <c r="W134" s="19"/>
-      <c r="X134" s="19"/>
-      <c r="Y134" s="19"/>
+      <c r="H134" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I134" s="21"/>
+      <c r="J134" s="21"/>
+      <c r="K134" s="21"/>
+      <c r="L134" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="M134" s="22"/>
+      <c r="N134" s="22"/>
+      <c r="O134" s="22"/>
+      <c r="P134" s="22"/>
+      <c r="Q134" s="22"/>
+      <c r="R134" s="22"/>
+      <c r="S134" s="22"/>
+      <c r="T134" s="22"/>
+      <c r="U134" s="22"/>
+      <c r="V134" s="22"/>
+      <c r="W134" s="22"/>
+      <c r="X134" s="22"/>
+      <c r="Y134" s="22"/>
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B135" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C135" s="16"/>
       <c r="D135" s="16"/>
       <c r="E135" s="16"/>
       <c r="F135" s="16"/>
       <c r="G135" s="17"/>
-      <c r="H135" s="18" t="s">
+      <c r="H135" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I135" s="18"/>
-      <c r="J135" s="18"/>
-      <c r="K135" s="18"/>
-      <c r="L135" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="M135" s="19"/>
-      <c r="N135" s="19"/>
-      <c r="O135" s="19"/>
-      <c r="P135" s="19"/>
-      <c r="Q135" s="19"/>
-      <c r="R135" s="19"/>
-      <c r="S135" s="19"/>
-      <c r="T135" s="19"/>
-      <c r="U135" s="19"/>
-      <c r="V135" s="19"/>
-      <c r="W135" s="19"/>
-      <c r="X135" s="19"/>
-      <c r="Y135" s="19"/>
+      <c r="I135" s="21"/>
+      <c r="J135" s="21"/>
+      <c r="K135" s="21"/>
+      <c r="L135" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="M135" s="22"/>
+      <c r="N135" s="22"/>
+      <c r="O135" s="22"/>
+      <c r="P135" s="22"/>
+      <c r="Q135" s="22"/>
+      <c r="R135" s="22"/>
+      <c r="S135" s="22"/>
+      <c r="T135" s="22"/>
+      <c r="U135" s="22"/>
+      <c r="V135" s="22"/>
+      <c r="W135" s="22"/>
+      <c r="X135" s="22"/>
+      <c r="Y135" s="22"/>
     </row>
     <row r="136" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B136" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C136" s="16"/>
       <c r="D136" s="16"/>
       <c r="E136" s="16"/>
       <c r="F136" s="16"/>
       <c r="G136" s="17"/>
-      <c r="H136" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="I136" s="18"/>
-      <c r="J136" s="18"/>
-      <c r="K136" s="18"/>
-      <c r="L136" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="M136" s="19"/>
-      <c r="N136" s="19"/>
-      <c r="O136" s="19"/>
-      <c r="P136" s="19"/>
-      <c r="Q136" s="19"/>
-      <c r="R136" s="19"/>
-      <c r="S136" s="19"/>
-      <c r="T136" s="19"/>
-      <c r="U136" s="19"/>
-      <c r="V136" s="19"/>
-      <c r="W136" s="19"/>
-      <c r="X136" s="19"/>
-      <c r="Y136" s="19"/>
+      <c r="H136" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="I136" s="21"/>
+      <c r="J136" s="21"/>
+      <c r="K136" s="21"/>
+      <c r="L136" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="M136" s="22"/>
+      <c r="N136" s="22"/>
+      <c r="O136" s="22"/>
+      <c r="P136" s="22"/>
+      <c r="Q136" s="22"/>
+      <c r="R136" s="22"/>
+      <c r="S136" s="22"/>
+      <c r="T136" s="22"/>
+      <c r="U136" s="22"/>
+      <c r="V136" s="22"/>
+      <c r="W136" s="22"/>
+      <c r="X136" s="22"/>
+      <c r="Y136" s="22"/>
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B137" s="15" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C137" s="16"/>
       <c r="D137" s="16"/>
       <c r="E137" s="16"/>
       <c r="F137" s="16"/>
       <c r="G137" s="17"/>
-      <c r="H137" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I137" s="18"/>
-      <c r="J137" s="18"/>
-      <c r="K137" s="18"/>
-      <c r="L137" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="M137" s="19"/>
-      <c r="N137" s="19"/>
-      <c r="O137" s="19"/>
-      <c r="P137" s="19"/>
-      <c r="Q137" s="19"/>
-      <c r="R137" s="19"/>
-      <c r="S137" s="19"/>
-      <c r="T137" s="19"/>
-      <c r="U137" s="19"/>
-      <c r="V137" s="19"/>
-      <c r="W137" s="19"/>
-      <c r="X137" s="19"/>
-      <c r="Y137" s="19"/>
+      <c r="H137" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I137" s="21"/>
+      <c r="J137" s="21"/>
+      <c r="K137" s="21"/>
+      <c r="L137" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="M137" s="22"/>
+      <c r="N137" s="22"/>
+      <c r="O137" s="22"/>
+      <c r="P137" s="22"/>
+      <c r="Q137" s="22"/>
+      <c r="R137" s="22"/>
+      <c r="S137" s="22"/>
+      <c r="T137" s="22"/>
+      <c r="U137" s="22"/>
+      <c r="V137" s="22"/>
+      <c r="W137" s="22"/>
+      <c r="X137" s="22"/>
+      <c r="Y137" s="22"/>
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B138" s="15" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C138" s="16"/>
       <c r="D138" s="16"/>
       <c r="E138" s="16"/>
       <c r="F138" s="16"/>
       <c r="G138" s="17"/>
-      <c r="H138" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="I138" s="18"/>
-      <c r="J138" s="18"/>
-      <c r="K138" s="18"/>
-      <c r="L138" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="M138" s="19"/>
-      <c r="N138" s="19"/>
-      <c r="O138" s="19"/>
-      <c r="P138" s="19"/>
-      <c r="Q138" s="19"/>
-      <c r="R138" s="19"/>
-      <c r="S138" s="19"/>
-      <c r="T138" s="19"/>
-      <c r="U138" s="19"/>
-      <c r="V138" s="19"/>
-      <c r="W138" s="19"/>
-      <c r="X138" s="19"/>
-      <c r="Y138" s="19"/>
+      <c r="H138" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I138" s="21"/>
+      <c r="J138" s="21"/>
+      <c r="K138" s="21"/>
+      <c r="L138" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="M138" s="22"/>
+      <c r="N138" s="22"/>
+      <c r="O138" s="22"/>
+      <c r="P138" s="22"/>
+      <c r="Q138" s="22"/>
+      <c r="R138" s="22"/>
+      <c r="S138" s="22"/>
+      <c r="T138" s="22"/>
+      <c r="U138" s="22"/>
+      <c r="V138" s="22"/>
+      <c r="W138" s="22"/>
+      <c r="X138" s="22"/>
+      <c r="Y138" s="22"/>
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B139" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C139" s="16"/>
       <c r="D139" s="16"/>
       <c r="E139" s="16"/>
       <c r="F139" s="16"/>
       <c r="G139" s="17"/>
-      <c r="H139" s="18" t="s">
+      <c r="H139" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="I139" s="18"/>
-      <c r="J139" s="18"/>
-      <c r="K139" s="18"/>
-      <c r="L139" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="M139" s="19"/>
-      <c r="N139" s="19"/>
-      <c r="O139" s="19"/>
-      <c r="P139" s="19"/>
-      <c r="Q139" s="19"/>
-      <c r="R139" s="19"/>
-      <c r="S139" s="19"/>
-      <c r="T139" s="19"/>
-      <c r="U139" s="19"/>
-      <c r="V139" s="19"/>
-      <c r="W139" s="19"/>
-      <c r="X139" s="19"/>
-      <c r="Y139" s="19"/>
+      <c r="I139" s="21"/>
+      <c r="J139" s="21"/>
+      <c r="K139" s="21"/>
+      <c r="L139" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="M139" s="22"/>
+      <c r="N139" s="22"/>
+      <c r="O139" s="22"/>
+      <c r="P139" s="22"/>
+      <c r="Q139" s="22"/>
+      <c r="R139" s="22"/>
+      <c r="S139" s="22"/>
+      <c r="T139" s="22"/>
+      <c r="U139" s="22"/>
+      <c r="V139" s="22"/>
+      <c r="W139" s="22"/>
+      <c r="X139" s="22"/>
+      <c r="Y139" s="22"/>
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B140" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C140" s="16"/>
       <c r="D140" s="16"/>
       <c r="E140" s="16"/>
       <c r="F140" s="16"/>
       <c r="G140" s="17"/>
-      <c r="H140" s="18" t="s">
+      <c r="H140" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="I140" s="18"/>
-      <c r="J140" s="18"/>
-      <c r="K140" s="18"/>
-      <c r="L140" s="19" t="s">
+      <c r="I140" s="21"/>
+      <c r="J140" s="21"/>
+      <c r="K140" s="21"/>
+      <c r="L140" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="M140" s="22"/>
+      <c r="N140" s="22"/>
+      <c r="O140" s="22"/>
+      <c r="P140" s="22"/>
+      <c r="Q140" s="22"/>
+      <c r="R140" s="22"/>
+      <c r="S140" s="22"/>
+      <c r="T140" s="22"/>
+      <c r="U140" s="22"/>
+      <c r="V140" s="22"/>
+      <c r="W140" s="22"/>
+      <c r="X140" s="22"/>
+      <c r="Y140" s="22"/>
+    </row>
+    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B141" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C141" s="16"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="17"/>
+      <c r="H141" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I141" s="21"/>
+      <c r="J141" s="21"/>
+      <c r="K141" s="21"/>
+      <c r="L141" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="M140" s="19"/>
-      <c r="N140" s="19"/>
-      <c r="O140" s="19"/>
-      <c r="P140" s="19"/>
-      <c r="Q140" s="19"/>
-      <c r="R140" s="19"/>
-      <c r="S140" s="19"/>
-      <c r="T140" s="19"/>
-      <c r="U140" s="19"/>
-      <c r="V140" s="19"/>
-      <c r="W140" s="19"/>
-      <c r="X140" s="19"/>
-      <c r="Y140" s="19"/>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="8"/>
-      <c r="H141" s="8"/>
-      <c r="I141" s="8"/>
-      <c r="J141" s="8"/>
-      <c r="K141" s="8"/>
-      <c r="L141" s="9"/>
-      <c r="M141" s="9"/>
-      <c r="N141" s="9"/>
-      <c r="O141" s="9"/>
-      <c r="P141" s="9"/>
-      <c r="Q141" s="9"/>
-      <c r="R141" s="9"/>
-      <c r="S141" s="9"/>
-      <c r="T141" s="9"/>
-      <c r="U141" s="9"/>
-      <c r="V141" s="9"/>
-      <c r="W141" s="9"/>
-      <c r="X141" s="9"/>
-      <c r="Y141" s="9"/>
+      <c r="M141" s="22"/>
+      <c r="N141" s="22"/>
+      <c r="O141" s="22"/>
+      <c r="P141" s="22"/>
+      <c r="Q141" s="22"/>
+      <c r="R141" s="22"/>
+      <c r="S141" s="22"/>
+      <c r="T141" s="22"/>
+      <c r="U141" s="22"/>
+      <c r="V141" s="22"/>
+      <c r="W141" s="22"/>
+      <c r="X141" s="22"/>
+      <c r="Y141" s="22"/>
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A142" s="7" t="s">
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="8"/>
+      <c r="J142" s="8"/>
+      <c r="K142" s="8"/>
+      <c r="L142" s="9"/>
+      <c r="M142" s="9"/>
+      <c r="N142" s="9"/>
+      <c r="O142" s="9"/>
+      <c r="P142" s="9"/>
+      <c r="Q142" s="9"/>
+      <c r="R142" s="9"/>
+      <c r="S142" s="9"/>
+      <c r="T142" s="9"/>
+      <c r="U142" s="9"/>
+      <c r="V142" s="9"/>
+      <c r="W142" s="9"/>
+      <c r="X142" s="9"/>
+      <c r="Y142" s="9"/>
+    </row>
+    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A143" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B143" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C143" s="16"/>
-      <c r="D143" s="16"/>
-      <c r="E143" s="16"/>
-      <c r="F143" s="16"/>
-      <c r="G143" s="17"/>
-      <c r="H143" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="I143" s="18"/>
-      <c r="J143" s="18"/>
-      <c r="K143" s="18"/>
-      <c r="L143" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="M143" s="18"/>
-      <c r="N143" s="18"/>
-      <c r="O143" s="18"/>
-      <c r="P143" s="18"/>
-      <c r="Q143" s="18"/>
-      <c r="R143" s="18"/>
-      <c r="S143" s="18"/>
-      <c r="T143" s="18"/>
-      <c r="U143" s="18"/>
-      <c r="V143" s="18"/>
-      <c r="W143" s="18"/>
-      <c r="X143" s="18"/>
-      <c r="Y143" s="18"/>
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B144" s="15" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C144" s="16"/>
       <c r="D144" s="16"/>
       <c r="E144" s="16"/>
       <c r="F144" s="16"/>
       <c r="G144" s="17"/>
-      <c r="H144" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I144" s="16"/>
-      <c r="J144" s="16"/>
-      <c r="K144" s="17"/>
-      <c r="L144" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="M144" s="19"/>
-      <c r="N144" s="19"/>
-      <c r="O144" s="19"/>
-      <c r="P144" s="19"/>
-      <c r="Q144" s="19"/>
-      <c r="R144" s="19"/>
-      <c r="S144" s="19"/>
-      <c r="T144" s="19"/>
-      <c r="U144" s="19"/>
-      <c r="V144" s="19"/>
-      <c r="W144" s="19"/>
-      <c r="X144" s="19"/>
-      <c r="Y144" s="19"/>
+      <c r="H144" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I144" s="21"/>
+      <c r="J144" s="21"/>
+      <c r="K144" s="21"/>
+      <c r="L144" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M144" s="21"/>
+      <c r="N144" s="21"/>
+      <c r="O144" s="21"/>
+      <c r="P144" s="21"/>
+      <c r="Q144" s="21"/>
+      <c r="R144" s="21"/>
+      <c r="S144" s="21"/>
+      <c r="T144" s="21"/>
+      <c r="U144" s="21"/>
+      <c r="V144" s="21"/>
+      <c r="W144" s="21"/>
+      <c r="X144" s="21"/>
+      <c r="Y144" s="21"/>
     </row>
     <row r="145" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B145" s="15" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C145" s="16"/>
       <c r="D145" s="16"/>
       <c r="E145" s="16"/>
       <c r="F145" s="16"/>
       <c r="G145" s="17"/>
-      <c r="H145" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I145" s="18"/>
-      <c r="J145" s="18"/>
-      <c r="K145" s="18"/>
-      <c r="L145" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="M145" s="19"/>
-      <c r="N145" s="19"/>
-      <c r="O145" s="19"/>
-      <c r="P145" s="19"/>
-      <c r="Q145" s="19"/>
-      <c r="R145" s="19"/>
-      <c r="S145" s="19"/>
-      <c r="T145" s="19"/>
-      <c r="U145" s="19"/>
-      <c r="V145" s="19"/>
-      <c r="W145" s="19"/>
-      <c r="X145" s="19"/>
-      <c r="Y145" s="19"/>
+      <c r="H145" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I145" s="16"/>
+      <c r="J145" s="16"/>
+      <c r="K145" s="17"/>
+      <c r="L145" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="M145" s="22"/>
+      <c r="N145" s="22"/>
+      <c r="O145" s="22"/>
+      <c r="P145" s="22"/>
+      <c r="Q145" s="22"/>
+      <c r="R145" s="22"/>
+      <c r="S145" s="22"/>
+      <c r="T145" s="22"/>
+      <c r="U145" s="22"/>
+      <c r="V145" s="22"/>
+      <c r="W145" s="22"/>
+      <c r="X145" s="22"/>
+      <c r="Y145" s="22"/>
     </row>
     <row r="146" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B146" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C146" s="16"/>
       <c r="D146" s="16"/>
       <c r="E146" s="16"/>
       <c r="F146" s="16"/>
       <c r="G146" s="17"/>
-      <c r="H146" s="18" t="s">
+      <c r="H146" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I146" s="21"/>
+      <c r="J146" s="21"/>
+      <c r="K146" s="21"/>
+      <c r="L146" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M146" s="22"/>
+      <c r="N146" s="22"/>
+      <c r="O146" s="22"/>
+      <c r="P146" s="22"/>
+      <c r="Q146" s="22"/>
+      <c r="R146" s="22"/>
+      <c r="S146" s="22"/>
+      <c r="T146" s="22"/>
+      <c r="U146" s="22"/>
+      <c r="V146" s="22"/>
+      <c r="W146" s="22"/>
+      <c r="X146" s="22"/>
+      <c r="Y146" s="22"/>
+    </row>
+    <row r="147" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B147" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" s="16"/>
+      <c r="D147" s="16"/>
+      <c r="E147" s="16"/>
+      <c r="F147" s="16"/>
+      <c r="G147" s="17"/>
+      <c r="H147" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I146" s="18"/>
-      <c r="J146" s="18"/>
-      <c r="K146" s="18"/>
-      <c r="L146" s="19" t="s">
+      <c r="I147" s="21"/>
+      <c r="J147" s="21"/>
+      <c r="K147" s="21"/>
+      <c r="L147" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="M146" s="19"/>
-      <c r="N146" s="19"/>
-      <c r="O146" s="19"/>
-      <c r="P146" s="19"/>
-      <c r="Q146" s="19"/>
-      <c r="R146" s="19"/>
-      <c r="S146" s="19"/>
-      <c r="T146" s="19"/>
-      <c r="U146" s="19"/>
-      <c r="V146" s="19"/>
-      <c r="W146" s="19"/>
-      <c r="X146" s="19"/>
-      <c r="Y146" s="19"/>
+      <c r="M147" s="22"/>
+      <c r="N147" s="22"/>
+      <c r="O147" s="22"/>
+      <c r="P147" s="22"/>
+      <c r="Q147" s="22"/>
+      <c r="R147" s="22"/>
+      <c r="S147" s="22"/>
+      <c r="T147" s="22"/>
+      <c r="U147" s="22"/>
+      <c r="V147" s="22"/>
+      <c r="W147" s="22"/>
+      <c r="X147" s="22"/>
+      <c r="Y147" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="328">
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:Y4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="O6:Y6"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:Y10"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:Y12"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="O7:Y7"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="O22:Y22"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="L25:Y25"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="O19:Y19"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="O21:Y21"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="L29:Y29"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="L32:Y32"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="L27:Y27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="L28:Y28"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="L34:Y34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="L35:Y35"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="L33:Y33"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:Y39"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="L36:Y36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="L37:Y37"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:Y57"/>
+  <mergeCells count="331">
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:Y136"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:Y137"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:Y58"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="L42:Y42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="L43:Y43"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="O75:Y75"/>
+    <mergeCell ref="H128:J128"/>
+    <mergeCell ref="K128:N128"/>
+    <mergeCell ref="O128:Y128"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="K129:N129"/>
+    <mergeCell ref="O129:Y129"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:Y114"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:Y121"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:Y117"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:Y110"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:Y111"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:Y108"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:Y109"/>
+    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:Y106"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:Y107"/>
+    <mergeCell ref="K101:N101"/>
+    <mergeCell ref="O101:Y101"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="K103:N103"/>
+    <mergeCell ref="O103:Y103"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="K102:N102"/>
+    <mergeCell ref="O102:Y102"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:Y93"/>
     <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="L78:Y78"/>
-    <mergeCell ref="O69:Y69"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="O70:Y70"/>
     <mergeCell ref="H74:J74"/>
     <mergeCell ref="K74:N74"/>
     <mergeCell ref="O74:Y74"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:Y88"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:Y89"/>
     <mergeCell ref="B82:G82"/>
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:Y82"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="L80:Y80"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="L79:Y79"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="K98:N98"/>
-    <mergeCell ref="O98:Y98"/>
-    <mergeCell ref="B99:G99"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="K99:N99"/>
-    <mergeCell ref="O99:Y99"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="H85:K85"/>
-    <mergeCell ref="L85:Y85"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="H86:K86"/>
-    <mergeCell ref="L86:Y86"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="B127:G127"/>
-    <mergeCell ref="B126:G126"/>
-    <mergeCell ref="H126:J126"/>
-    <mergeCell ref="K126:N126"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="H112:K112"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="H111:K111"/>
-    <mergeCell ref="L111:Y111"/>
-    <mergeCell ref="L112:Y112"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="H118:K118"/>
-    <mergeCell ref="L118:Y118"/>
-    <mergeCell ref="H119:K119"/>
-    <mergeCell ref="L119:Y119"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="H117:K117"/>
-    <mergeCell ref="L117:Y117"/>
-    <mergeCell ref="H133:K133"/>
-    <mergeCell ref="L133:Y133"/>
-    <mergeCell ref="B134:G134"/>
-    <mergeCell ref="H134:K134"/>
-    <mergeCell ref="L134:Y134"/>
-    <mergeCell ref="B129:G129"/>
-    <mergeCell ref="B132:G132"/>
-    <mergeCell ref="H132:K132"/>
-    <mergeCell ref="L132:Y132"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:N129"/>
-    <mergeCell ref="O129:Y129"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:Y5"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="H145:K145"/>
-    <mergeCell ref="L145:Y145"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="H146:K146"/>
-    <mergeCell ref="L146:Y146"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:Y92"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="O72:Y72"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="O73:Y73"/>
+    <mergeCell ref="O51:Y51"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:Y54"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:Y64"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:Y65"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:Y62"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:Y63"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:Y26"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="O48:Y48"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:Y40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:Y41"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:Y38"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:Y138"/>
     <mergeCell ref="B139:G139"/>
     <mergeCell ref="H139:K139"/>
     <mergeCell ref="L139:Y139"/>
-    <mergeCell ref="B140:G140"/>
-    <mergeCell ref="H140:K140"/>
-    <mergeCell ref="L140:Y140"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="H137:K137"/>
-    <mergeCell ref="L137:Y137"/>
-    <mergeCell ref="B138:G138"/>
-    <mergeCell ref="H138:K138"/>
-    <mergeCell ref="L138:Y138"/>
-    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="B134:G134"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:Y11"/>
     <mergeCell ref="B14:G14"/>
@@ -5097,25 +5069,127 @@
     <mergeCell ref="K49:N49"/>
     <mergeCell ref="O49:Y49"/>
     <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="L146:Y146"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="L147:Y147"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:Y140"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:Y141"/>
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="L144:Y144"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="L145:Y145"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:Y134"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:Y135"/>
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:Y133"/>
+    <mergeCell ref="H130:J130"/>
+    <mergeCell ref="K130:N130"/>
+    <mergeCell ref="O130:Y130"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="H127:J127"/>
+    <mergeCell ref="K127:N127"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:Y112"/>
+    <mergeCell ref="L113:Y113"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:Y119"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:Y120"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:Y118"/>
+    <mergeCell ref="O127:Y127"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="K99:N99"/>
+    <mergeCell ref="O99:Y99"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="K100:N100"/>
+    <mergeCell ref="O100:Y100"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:Y86"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:Y87"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:Y94"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:Y90"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:Y91"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:Y83"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:Y81"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:Y80"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="O76:Y76"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:Y79"/>
+    <mergeCell ref="O70:Y70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="O71:Y71"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="O75:Y75"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:Y57"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:Y59"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:Y42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:Y43"/>
     <mergeCell ref="H50:J50"/>
     <mergeCell ref="K50:N50"/>
     <mergeCell ref="O50:Y50"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="L26:Y26"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="O48:Y48"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:Y40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:Y41"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:Y38"/>
     <mergeCell ref="B55:G55"/>
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:Y55"/>
@@ -5125,113 +5199,74 @@
     <mergeCell ref="B51:G51"/>
     <mergeCell ref="H51:J51"/>
     <mergeCell ref="K51:N51"/>
-    <mergeCell ref="O51:Y51"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="L54:Y54"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="L63:Y63"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:Y64"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="L61:Y61"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="L62:Y62"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="L93:Y93"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="H89:K89"/>
-    <mergeCell ref="L89:Y89"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="L90:Y90"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="H91:K91"/>
-    <mergeCell ref="L91:Y91"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="O71:Y71"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="O72:Y72"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="L92:Y92"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="O73:Y73"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="H87:K87"/>
-    <mergeCell ref="L87:Y87"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="H88:K88"/>
-    <mergeCell ref="L88:Y88"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="L81:Y81"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="H105:K105"/>
-    <mergeCell ref="L105:Y105"/>
-    <mergeCell ref="B106:G106"/>
-    <mergeCell ref="H106:K106"/>
-    <mergeCell ref="L106:Y106"/>
-    <mergeCell ref="K100:N100"/>
-    <mergeCell ref="O100:Y100"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="K102:N102"/>
-    <mergeCell ref="O102:Y102"/>
-    <mergeCell ref="B101:G101"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="K101:N101"/>
-    <mergeCell ref="O101:Y101"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="H109:K109"/>
-    <mergeCell ref="L109:Y109"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="H110:K110"/>
-    <mergeCell ref="L110:Y110"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="H107:K107"/>
-    <mergeCell ref="L107:Y107"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="H108:K108"/>
-    <mergeCell ref="L108:Y108"/>
-    <mergeCell ref="O126:Y126"/>
-    <mergeCell ref="H127:J127"/>
-    <mergeCell ref="K127:N127"/>
-    <mergeCell ref="O127:Y127"/>
-    <mergeCell ref="H128:J128"/>
-    <mergeCell ref="K128:N128"/>
-    <mergeCell ref="O128:Y128"/>
-    <mergeCell ref="H113:K113"/>
-    <mergeCell ref="L113:Y113"/>
-    <mergeCell ref="H120:K120"/>
-    <mergeCell ref="L120:Y120"/>
-    <mergeCell ref="H116:K116"/>
-    <mergeCell ref="L116:Y116"/>
-    <mergeCell ref="B143:G143"/>
-    <mergeCell ref="H143:K143"/>
-    <mergeCell ref="L143:Y143"/>
-    <mergeCell ref="B144:G144"/>
-    <mergeCell ref="H144:K144"/>
-    <mergeCell ref="L144:Y144"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="H135:K135"/>
-    <mergeCell ref="L135:Y135"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="H136:K136"/>
-    <mergeCell ref="L136:Y136"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:Y39"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:Y36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:Y37"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:Y34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:Y35"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:Y33"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:Y29"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:Y32"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:Y27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:Y28"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:Y25"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="O19:Y19"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="O21:Y21"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:Y12"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="O7:Y7"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="O22:Y22"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:Y4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="O6:Y6"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:Y10"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:Y5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/document/API接口文档.xlsx
+++ b/document/API接口文档.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27417"/>
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiuhong/Documents/work/2-SoftwareDevelop/2017DK07-渔船监管大数据平台/source/xkClient/document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiuhong/Desktop/code/xkClient/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23780" yWindow="1060" windowWidth="28200" windowHeight="23340" activeTab="1"/>
+    <workbookView xWindow="5200" yWindow="460" windowWidth="28200" windowHeight="16740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="126">
   <si>
     <t>必选</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -434,6 +434,9 @@
   </si>
   <si>
     <t>短信推送</t>
+  </si>
+  <si>
+    <t>jsonObject</t>
   </si>
 </sst>
 </file>
@@ -676,6 +679,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -683,12 +692,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1043,7 +1046,7 @@
   <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1144,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y147"/>
+  <dimension ref="A1:Y148"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L59" sqref="L59:Y59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="AF143" sqref="AF143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1226,19 +1229,19 @@
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
       <c r="N5" s="17"/>
-      <c r="O5" s="18" t="s">
+      <c r="O5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="22"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
@@ -1260,19 +1263,19 @@
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
       <c r="N6" s="17"/>
-      <c r="O6" s="18" t="s">
+      <c r="O6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="20"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="22"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
@@ -1294,19 +1297,19 @@
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
       <c r="N7" s="17"/>
-      <c r="O7" s="18" t="s">
+      <c r="O7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="20"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="22"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -1322,28 +1325,28 @@
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21" t="s">
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B11" s="15" t="s">
@@ -1360,22 +1363,22 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="17"/>
-      <c r="L11" s="22" t="s">
+      <c r="L11" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
@@ -1386,28 +1389,28 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22" t="s">
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
@@ -1418,28 +1421,28 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22" t="s">
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B14" s="15" t="s">
@@ -1450,28 +1453,28 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="17"/>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22" t="s">
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
@@ -1540,19 +1543,19 @@
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
       <c r="N20" s="17"/>
-      <c r="O20" s="18" t="s">
+      <c r="O20" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="20"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="22"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B21" s="15" t="s">
@@ -1574,19 +1577,19 @@
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
       <c r="N21" s="17"/>
-      <c r="O21" s="18" t="s">
+      <c r="O21" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="20"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="22"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B22" s="15" t="s">
@@ -1608,19 +1611,19 @@
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
       <c r="N22" s="17"/>
-      <c r="O22" s="18" t="s">
+      <c r="O22" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="20"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="22"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
@@ -1636,28 +1639,28 @@
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21" t="s">
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B26" s="15" t="s">
@@ -1674,22 +1677,22 @@
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
       <c r="K26" s="17"/>
-      <c r="L26" s="22" t="s">
+      <c r="L26" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B27" s="15" t="s">
@@ -1700,28 +1703,28 @@
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="17"/>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="22" t="s">
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B28" s="15" t="s">
@@ -1732,28 +1735,28 @@
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="21" t="s">
+      <c r="H28" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="22" t="s">
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B29" s="15" t="s">
@@ -1764,28 +1767,28 @@
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="22" t="s">
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B30" s="8"/>
@@ -1851,28 +1854,28 @@
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="21" t="s">
+      <c r="H32" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21" t="s">
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B33" s="15" t="s">
@@ -1883,28 +1886,28 @@
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="21" t="s">
+      <c r="H33" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="22" t="s">
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B34" s="15" t="s">
@@ -1915,28 +1918,28 @@
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="21" t="s">
+      <c r="H34" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="22" t="s">
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B35" s="15" t="s">
@@ -1947,28 +1950,28 @@
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="17"/>
-      <c r="H35" s="21" t="s">
+      <c r="H35" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="22" t="s">
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B36" s="15" t="s">
@@ -1979,28 +1982,28 @@
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="17"/>
-      <c r="H36" s="21" t="s">
+      <c r="H36" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="22" t="s">
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="19"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B37" s="15" t="s">
@@ -2011,28 +2014,28 @@
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="17"/>
-      <c r="H37" s="21" t="s">
+      <c r="H37" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="22" t="s">
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="22"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B38" s="15" t="s">
@@ -2043,28 +2046,28 @@
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
       <c r="G38" s="17"/>
-      <c r="H38" s="21" t="s">
+      <c r="H38" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="22" t="s">
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="22"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B39" s="15" t="s">
@@ -2075,28 +2078,28 @@
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="17"/>
-      <c r="H39" s="21" t="s">
+      <c r="H39" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="22" t="s">
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="22"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B40" s="15" t="s">
@@ -2107,28 +2110,28 @@
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="21" t="s">
+      <c r="H40" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="22" t="s">
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="22"/>
-      <c r="X40" s="22"/>
-      <c r="Y40" s="22"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B41" s="15" t="s">
@@ -2139,28 +2142,28 @@
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="21" t="s">
+      <c r="H41" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="22" t="s">
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="22"/>
-      <c r="T41" s="22"/>
-      <c r="U41" s="22"/>
-      <c r="V41" s="22"/>
-      <c r="W41" s="22"/>
-      <c r="X41" s="22"/>
-      <c r="Y41" s="22"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B42" s="23" t="s">
@@ -2171,28 +2174,28 @@
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
       <c r="G42" s="25"/>
-      <c r="H42" s="21" t="s">
+      <c r="H42" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="22" t="s">
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="22"/>
-      <c r="T42" s="22"/>
-      <c r="U42" s="22"/>
-      <c r="V42" s="22"/>
-      <c r="W42" s="22"/>
-      <c r="X42" s="22"/>
-      <c r="Y42" s="22"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B43" s="23" t="s">
@@ -2203,28 +2206,28 @@
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="21" t="s">
+      <c r="H43" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="22" t="s">
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="22"/>
-      <c r="U43" s="22"/>
-      <c r="V43" s="22"/>
-      <c r="W43" s="22"/>
-      <c r="X43" s="22"/>
-      <c r="Y43" s="22"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B44" s="8"/>
@@ -2319,19 +2322,19 @@
       <c r="L49" s="16"/>
       <c r="M49" s="16"/>
       <c r="N49" s="17"/>
-      <c r="O49" s="18" t="s">
+      <c r="O49" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19"/>
-      <c r="U49" s="19"/>
-      <c r="V49" s="19"/>
-      <c r="W49" s="19"/>
-      <c r="X49" s="19"/>
-      <c r="Y49" s="20"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="21"/>
+      <c r="X49" s="21"/>
+      <c r="Y49" s="22"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B50" s="15" t="s">
@@ -2353,19 +2356,19 @@
       <c r="L50" s="16"/>
       <c r="M50" s="16"/>
       <c r="N50" s="17"/>
-      <c r="O50" s="18" t="s">
+      <c r="O50" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
-      <c r="S50" s="19"/>
-      <c r="T50" s="19"/>
-      <c r="U50" s="19"/>
-      <c r="V50" s="19"/>
-      <c r="W50" s="19"/>
-      <c r="X50" s="19"/>
-      <c r="Y50" s="20"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="21"/>
+      <c r="W50" s="21"/>
+      <c r="X50" s="21"/>
+      <c r="Y50" s="22"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B51" s="15" t="s">
@@ -2387,247 +2390,252 @@
       <c r="L51" s="16"/>
       <c r="M51" s="16"/>
       <c r="N51" s="17"/>
-      <c r="O51" s="18" t="s">
+      <c r="O51" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19"/>
-      <c r="S51" s="19"/>
-      <c r="T51" s="19"/>
-      <c r="U51" s="19"/>
-      <c r="V51" s="19"/>
-      <c r="W51" s="19"/>
-      <c r="X51" s="19"/>
-      <c r="Y51" s="20"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="21"/>
+      <c r="W51" s="21"/>
+      <c r="X51" s="21"/>
+      <c r="Y51" s="22"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B52" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="16"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="21"/>
+      <c r="W52" s="21"/>
+      <c r="X52" s="21"/>
+      <c r="Y52" s="22"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B54" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="21"/>
-      <c r="T54" s="21"/>
-      <c r="U54" s="21"/>
-      <c r="V54" s="21"/>
-      <c r="W54" s="21"/>
-      <c r="X54" s="21"/>
-      <c r="Y54" s="21"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B55" s="15" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
       <c r="G55" s="17"/>
-      <c r="H55" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="22"/>
-      <c r="S55" s="22"/>
-      <c r="T55" s="22"/>
-      <c r="U55" s="22"/>
-      <c r="V55" s="22"/>
-      <c r="W55" s="22"/>
-      <c r="X55" s="22"/>
-      <c r="Y55" s="22"/>
+      <c r="H55" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="18"/>
+      <c r="W55" s="18"/>
+      <c r="X55" s="18"/>
+      <c r="Y55" s="18"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B56" s="15" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
       <c r="E56" s="16"/>
       <c r="F56" s="16"/>
       <c r="G56" s="17"/>
-      <c r="H56" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="22"/>
-      <c r="T56" s="22"/>
-      <c r="U56" s="22"/>
-      <c r="V56" s="22"/>
-      <c r="W56" s="22"/>
-      <c r="X56" s="22"/>
-      <c r="Y56" s="22"/>
+      <c r="H56" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19"/>
+      <c r="W56" s="19"/>
+      <c r="X56" s="19"/>
+      <c r="Y56" s="19"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B57" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C57" s="16"/>
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
       <c r="G57" s="17"/>
-      <c r="H57" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
-      <c r="O57" s="22"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="22"/>
-      <c r="R57" s="22"/>
-      <c r="S57" s="22"/>
-      <c r="T57" s="22"/>
-      <c r="U57" s="22"/>
-      <c r="V57" s="22"/>
-      <c r="W57" s="22"/>
-      <c r="X57" s="22"/>
-      <c r="Y57" s="22"/>
+      <c r="H57" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
+      <c r="W57" s="19"/>
+      <c r="X57" s="19"/>
+      <c r="Y57" s="19"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B58" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
       <c r="G58" s="17"/>
-      <c r="H58" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="22"/>
-      <c r="T58" s="22"/>
-      <c r="U58" s="22"/>
-      <c r="V58" s="22"/>
-      <c r="W58" s="22"/>
-      <c r="X58" s="22"/>
-      <c r="Y58" s="22"/>
+      <c r="H58" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="19"/>
+      <c r="V58" s="19"/>
+      <c r="W58" s="19"/>
+      <c r="X58" s="19"/>
+      <c r="Y58" s="19"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B59" s="15" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
       <c r="G59" s="17"/>
-      <c r="H59" s="21" t="s">
+      <c r="H59" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="19"/>
+      <c r="W59" s="19"/>
+      <c r="X59" s="19"/>
+      <c r="Y59" s="19"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B60" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="22" t="s">
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="22"/>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="22"/>
-      <c r="S59" s="22"/>
-      <c r="T59" s="22"/>
-      <c r="U59" s="22"/>
-      <c r="V59" s="22"/>
-      <c r="W59" s="22"/>
-      <c r="X59" s="22"/>
-      <c r="Y59" s="22"/>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="9"/>
-      <c r="R60" s="9"/>
-      <c r="S60" s="9"/>
-      <c r="T60" s="9"/>
-      <c r="U60" s="9"/>
-      <c r="V60" s="9"/>
-      <c r="W60" s="9"/>
-      <c r="X60" s="9"/>
-      <c r="Y60" s="9"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="19"/>
+      <c r="V60" s="19"/>
+      <c r="W60" s="19"/>
+      <c r="X60" s="19"/>
+      <c r="Y60" s="19"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -2654,183 +2662,178 @@
       <c r="Y61" s="9"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B62" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="21"/>
-      <c r="N62" s="21"/>
-      <c r="O62" s="21"/>
-      <c r="P62" s="21"/>
-      <c r="Q62" s="21"/>
-      <c r="R62" s="21"/>
-      <c r="S62" s="21"/>
-      <c r="T62" s="21"/>
-      <c r="U62" s="21"/>
-      <c r="V62" s="21"/>
-      <c r="W62" s="21"/>
-      <c r="X62" s="21"/>
-      <c r="Y62" s="21"/>
+      <c r="A62" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="9"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B63" s="15" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="C63" s="16"/>
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
       <c r="G63" s="17"/>
-      <c r="H63" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="M63" s="22"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="22"/>
-      <c r="P63" s="22"/>
-      <c r="Q63" s="22"/>
-      <c r="R63" s="22"/>
-      <c r="S63" s="22"/>
-      <c r="T63" s="22"/>
-      <c r="U63" s="22"/>
-      <c r="V63" s="22"/>
-      <c r="W63" s="22"/>
-      <c r="X63" s="22"/>
-      <c r="Y63" s="22"/>
+      <c r="H63" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="18"/>
+      <c r="T63" s="18"/>
+      <c r="U63" s="18"/>
+      <c r="V63" s="18"/>
+      <c r="W63" s="18"/>
+      <c r="X63" s="18"/>
+      <c r="Y63" s="18"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B64" s="15" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
       <c r="G64" s="17"/>
-      <c r="H64" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="22"/>
-      <c r="S64" s="22"/>
-      <c r="T64" s="22"/>
-      <c r="U64" s="22"/>
-      <c r="V64" s="22"/>
-      <c r="W64" s="22"/>
-      <c r="X64" s="22"/>
-      <c r="Y64" s="22"/>
+      <c r="H64" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
+      <c r="P64" s="19"/>
+      <c r="Q64" s="19"/>
+      <c r="R64" s="19"/>
+      <c r="S64" s="19"/>
+      <c r="T64" s="19"/>
+      <c r="U64" s="19"/>
+      <c r="V64" s="19"/>
+      <c r="W64" s="19"/>
+      <c r="X64" s="19"/>
+      <c r="Y64" s="19"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B65" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C65" s="16"/>
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
       <c r="G65" s="17"/>
-      <c r="H65" s="21" t="s">
+      <c r="H65" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="22" t="s">
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
+      <c r="P65" s="19"/>
+      <c r="Q65" s="19"/>
+      <c r="R65" s="19"/>
+      <c r="S65" s="19"/>
+      <c r="T65" s="19"/>
+      <c r="U65" s="19"/>
+      <c r="V65" s="19"/>
+      <c r="W65" s="19"/>
+      <c r="X65" s="19"/>
+      <c r="Y65" s="19"/>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B66" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="M65" s="22"/>
-      <c r="N65" s="22"/>
-      <c r="O65" s="22"/>
-      <c r="P65" s="22"/>
-      <c r="Q65" s="22"/>
-      <c r="R65" s="22"/>
-      <c r="S65" s="22"/>
-      <c r="T65" s="22"/>
-      <c r="U65" s="22"/>
-      <c r="V65" s="22"/>
-      <c r="W65" s="22"/>
-      <c r="X65" s="22"/>
-      <c r="Y65" s="22"/>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="19"/>
+      <c r="S66" s="19"/>
+      <c r="T66" s="19"/>
+      <c r="U66" s="19"/>
+      <c r="V66" s="19"/>
+      <c r="W66" s="19"/>
+      <c r="X66" s="19"/>
+      <c r="Y66" s="19"/>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A68" s="6"/>
-    </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="6"/>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B70" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I70" s="16"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-      <c r="R70" s="16"/>
-      <c r="S70" s="16"/>
-      <c r="T70" s="16"/>
-      <c r="U70" s="16"/>
-      <c r="V70" s="16"/>
-      <c r="W70" s="16"/>
-      <c r="X70" s="16"/>
-      <c r="Y70" s="17"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B71" s="15" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
@@ -2838,33 +2841,33 @@
       <c r="F71" s="16"/>
       <c r="G71" s="17"/>
       <c r="H71" s="15" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I71" s="16"/>
       <c r="J71" s="17"/>
       <c r="K71" s="15" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="L71" s="16"/>
       <c r="M71" s="16"/>
       <c r="N71" s="17"/>
-      <c r="O71" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="19"/>
-      <c r="R71" s="19"/>
-      <c r="S71" s="19"/>
-      <c r="T71" s="19"/>
-      <c r="U71" s="19"/>
-      <c r="V71" s="19"/>
-      <c r="W71" s="19"/>
-      <c r="X71" s="19"/>
-      <c r="Y71" s="20"/>
+      <c r="O71" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="16"/>
+      <c r="W71" s="16"/>
+      <c r="X71" s="16"/>
+      <c r="Y71" s="17"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B72" s="15" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
@@ -2877,28 +2880,28 @@
       <c r="I72" s="16"/>
       <c r="J72" s="17"/>
       <c r="K72" s="15" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="L72" s="16"/>
       <c r="M72" s="16"/>
       <c r="N72" s="17"/>
-      <c r="O72" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="19"/>
-      <c r="R72" s="19"/>
-      <c r="S72" s="19"/>
-      <c r="T72" s="19"/>
-      <c r="U72" s="19"/>
-      <c r="V72" s="19"/>
-      <c r="W72" s="19"/>
-      <c r="X72" s="19"/>
-      <c r="Y72" s="20"/>
+      <c r="O72" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="21"/>
+      <c r="R72" s="21"/>
+      <c r="S72" s="21"/>
+      <c r="T72" s="21"/>
+      <c r="U72" s="21"/>
+      <c r="V72" s="21"/>
+      <c r="W72" s="21"/>
+      <c r="X72" s="21"/>
+      <c r="Y72" s="22"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B73" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
@@ -2916,23 +2919,23 @@
       <c r="L73" s="16"/>
       <c r="M73" s="16"/>
       <c r="N73" s="17"/>
-      <c r="O73" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="P73" s="19"/>
-      <c r="Q73" s="19"/>
-      <c r="R73" s="19"/>
-      <c r="S73" s="19"/>
-      <c r="T73" s="19"/>
-      <c r="U73" s="19"/>
-      <c r="V73" s="19"/>
-      <c r="W73" s="19"/>
-      <c r="X73" s="19"/>
-      <c r="Y73" s="20"/>
+      <c r="O73" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="21"/>
+      <c r="R73" s="21"/>
+      <c r="S73" s="21"/>
+      <c r="T73" s="21"/>
+      <c r="U73" s="21"/>
+      <c r="V73" s="21"/>
+      <c r="W73" s="21"/>
+      <c r="X73" s="21"/>
+      <c r="Y73" s="22"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B74" s="15" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
@@ -2945,28 +2948,28 @@
       <c r="I74" s="16"/>
       <c r="J74" s="17"/>
       <c r="K74" s="15" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="L74" s="16"/>
       <c r="M74" s="16"/>
       <c r="N74" s="17"/>
-      <c r="O74" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="P74" s="19"/>
-      <c r="Q74" s="19"/>
-      <c r="R74" s="19"/>
-      <c r="S74" s="19"/>
-      <c r="T74" s="19"/>
-      <c r="U74" s="19"/>
-      <c r="V74" s="19"/>
-      <c r="W74" s="19"/>
-      <c r="X74" s="19"/>
-      <c r="Y74" s="20"/>
+      <c r="O74" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="21"/>
+      <c r="T74" s="21"/>
+      <c r="U74" s="21"/>
+      <c r="V74" s="21"/>
+      <c r="W74" s="21"/>
+      <c r="X74" s="21"/>
+      <c r="Y74" s="22"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B75" s="15" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
@@ -2979,28 +2982,28 @@
       <c r="I75" s="16"/>
       <c r="J75" s="17"/>
       <c r="K75" s="15" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="L75" s="16"/>
       <c r="M75" s="16"/>
       <c r="N75" s="17"/>
-      <c r="O75" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="P75" s="19"/>
-      <c r="Q75" s="19"/>
-      <c r="R75" s="19"/>
-      <c r="S75" s="19"/>
-      <c r="T75" s="19"/>
-      <c r="U75" s="19"/>
-      <c r="V75" s="19"/>
-      <c r="W75" s="19"/>
-      <c r="X75" s="19"/>
-      <c r="Y75" s="20"/>
+      <c r="O75" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="21"/>
+      <c r="U75" s="21"/>
+      <c r="V75" s="21"/>
+      <c r="W75" s="21"/>
+      <c r="X75" s="21"/>
+      <c r="Y75" s="22"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B76" s="15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
@@ -3018,215 +3021,220 @@
       <c r="L76" s="16"/>
       <c r="M76" s="16"/>
       <c r="N76" s="17"/>
-      <c r="O76" s="18" t="s">
+      <c r="O76" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="P76" s="21"/>
+      <c r="Q76" s="21"/>
+      <c r="R76" s="21"/>
+      <c r="S76" s="21"/>
+      <c r="T76" s="21"/>
+      <c r="U76" s="21"/>
+      <c r="V76" s="21"/>
+      <c r="W76" s="21"/>
+      <c r="X76" s="21"/>
+      <c r="Y76" s="22"/>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B77" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I77" s="16"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="P76" s="19"/>
-      <c r="Q76" s="19"/>
-      <c r="R76" s="19"/>
-      <c r="S76" s="19"/>
-      <c r="T76" s="19"/>
-      <c r="U76" s="19"/>
-      <c r="V76" s="19"/>
-      <c r="W76" s="19"/>
-      <c r="X76" s="19"/>
-      <c r="Y76" s="20"/>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A78" s="7" t="s">
+      <c r="P77" s="21"/>
+      <c r="Q77" s="21"/>
+      <c r="R77" s="21"/>
+      <c r="S77" s="21"/>
+      <c r="T77" s="21"/>
+      <c r="U77" s="21"/>
+      <c r="V77" s="21"/>
+      <c r="W77" s="21"/>
+      <c r="X77" s="21"/>
+      <c r="Y77" s="22"/>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B79" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I79" s="21"/>
-      <c r="J79" s="21"/>
-      <c r="K79" s="21"/>
-      <c r="L79" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M79" s="21"/>
-      <c r="N79" s="21"/>
-      <c r="O79" s="21"/>
-      <c r="P79" s="21"/>
-      <c r="Q79" s="21"/>
-      <c r="R79" s="21"/>
-      <c r="S79" s="21"/>
-      <c r="T79" s="21"/>
-      <c r="U79" s="21"/>
-      <c r="V79" s="21"/>
-      <c r="W79" s="21"/>
-      <c r="X79" s="21"/>
-      <c r="Y79" s="21"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B80" s="15" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
       <c r="F80" s="16"/>
       <c r="G80" s="17"/>
-      <c r="H80" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I80" s="16"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="M80" s="22"/>
-      <c r="N80" s="22"/>
-      <c r="O80" s="22"/>
-      <c r="P80" s="22"/>
-      <c r="Q80" s="22"/>
-      <c r="R80" s="22"/>
-      <c r="S80" s="22"/>
-      <c r="T80" s="22"/>
-      <c r="U80" s="22"/>
-      <c r="V80" s="22"/>
-      <c r="W80" s="22"/>
-      <c r="X80" s="22"/>
-      <c r="Y80" s="22"/>
+      <c r="H80" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="18"/>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="18"/>
+      <c r="R80" s="18"/>
+      <c r="S80" s="18"/>
+      <c r="T80" s="18"/>
+      <c r="U80" s="18"/>
+      <c r="V80" s="18"/>
+      <c r="W80" s="18"/>
+      <c r="X80" s="18"/>
+      <c r="Y80" s="18"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B81" s="15" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C81" s="16"/>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
       <c r="F81" s="16"/>
       <c r="G81" s="17"/>
-      <c r="H81" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I81" s="21"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="21"/>
-      <c r="L81" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M81" s="22"/>
-      <c r="N81" s="22"/>
-      <c r="O81" s="22"/>
-      <c r="P81" s="22"/>
-      <c r="Q81" s="22"/>
-      <c r="R81" s="22"/>
-      <c r="S81" s="22"/>
-      <c r="T81" s="22"/>
-      <c r="U81" s="22"/>
-      <c r="V81" s="22"/>
-      <c r="W81" s="22"/>
-      <c r="X81" s="22"/>
-      <c r="Y81" s="22"/>
+      <c r="H81" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="M81" s="19"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="19"/>
+      <c r="P81" s="19"/>
+      <c r="Q81" s="19"/>
+      <c r="R81" s="19"/>
+      <c r="S81" s="19"/>
+      <c r="T81" s="19"/>
+      <c r="U81" s="19"/>
+      <c r="V81" s="19"/>
+      <c r="W81" s="19"/>
+      <c r="X81" s="19"/>
+      <c r="Y81" s="19"/>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B82" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
       <c r="G82" s="17"/>
-      <c r="H82" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="I82" s="21"/>
-      <c r="J82" s="21"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M82" s="22"/>
-      <c r="N82" s="22"/>
-      <c r="O82" s="22"/>
-      <c r="P82" s="22"/>
-      <c r="Q82" s="22"/>
-      <c r="R82" s="22"/>
-      <c r="S82" s="22"/>
-      <c r="T82" s="22"/>
-      <c r="U82" s="22"/>
-      <c r="V82" s="22"/>
-      <c r="W82" s="22"/>
-      <c r="X82" s="22"/>
-      <c r="Y82" s="22"/>
+      <c r="H82" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M82" s="19"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="19"/>
+      <c r="P82" s="19"/>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="19"/>
+      <c r="S82" s="19"/>
+      <c r="T82" s="19"/>
+      <c r="U82" s="19"/>
+      <c r="V82" s="19"/>
+      <c r="W82" s="19"/>
+      <c r="X82" s="19"/>
+      <c r="Y82" s="19"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B83" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C83" s="16"/>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
       <c r="F83" s="16"/>
       <c r="G83" s="17"/>
-      <c r="H83" s="21" t="s">
+      <c r="H83" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M83" s="19"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="19"/>
+      <c r="P83" s="19"/>
+      <c r="Q83" s="19"/>
+      <c r="R83" s="19"/>
+      <c r="S83" s="19"/>
+      <c r="T83" s="19"/>
+      <c r="U83" s="19"/>
+      <c r="V83" s="19"/>
+      <c r="W83" s="19"/>
+      <c r="X83" s="19"/>
+      <c r="Y83" s="19"/>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B84" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="I83" s="21"/>
-      <c r="J83" s="21"/>
-      <c r="K83" s="21"/>
-      <c r="L83" s="22" t="s">
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="M83" s="22"/>
-      <c r="N83" s="22"/>
-      <c r="O83" s="22"/>
-      <c r="P83" s="22"/>
-      <c r="Q83" s="22"/>
-      <c r="R83" s="22"/>
-      <c r="S83" s="22"/>
-      <c r="T83" s="22"/>
-      <c r="U83" s="22"/>
-      <c r="V83" s="22"/>
-      <c r="W83" s="22"/>
-      <c r="X83" s="22"/>
-      <c r="Y83" s="22"/>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="9"/>
-      <c r="M84" s="9"/>
-      <c r="N84" s="9"/>
-      <c r="O84" s="9"/>
-      <c r="P84" s="9"/>
-      <c r="Q84" s="9"/>
-      <c r="R84" s="9"/>
-      <c r="S84" s="9"/>
-      <c r="T84" s="9"/>
-      <c r="U84" s="9"/>
-      <c r="V84" s="9"/>
-      <c r="W84" s="9"/>
-      <c r="X84" s="9"/>
-      <c r="Y84" s="9"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="19"/>
+      <c r="O84" s="19"/>
+      <c r="P84" s="19"/>
+      <c r="Q84" s="19"/>
+      <c r="R84" s="19"/>
+      <c r="S84" s="19"/>
+      <c r="T84" s="19"/>
+      <c r="U84" s="19"/>
+      <c r="V84" s="19"/>
+      <c r="W84" s="19"/>
+      <c r="X84" s="19"/>
+      <c r="Y84" s="19"/>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A85" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -3253,369 +3261,364 @@
       <c r="Y85" s="9"/>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B86" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I86" s="21"/>
-      <c r="J86" s="21"/>
-      <c r="K86" s="21"/>
-      <c r="L86" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M86" s="21"/>
-      <c r="N86" s="21"/>
-      <c r="O86" s="21"/>
-      <c r="P86" s="21"/>
-      <c r="Q86" s="21"/>
-      <c r="R86" s="21"/>
-      <c r="S86" s="21"/>
-      <c r="T86" s="21"/>
-      <c r="U86" s="21"/>
-      <c r="V86" s="21"/>
-      <c r="W86" s="21"/>
-      <c r="X86" s="21"/>
-      <c r="Y86" s="21"/>
+      <c r="A86" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="9"/>
+      <c r="S86" s="9"/>
+      <c r="T86" s="9"/>
+      <c r="U86" s="9"/>
+      <c r="V86" s="9"/>
+      <c r="W86" s="9"/>
+      <c r="X86" s="9"/>
+      <c r="Y86" s="9"/>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B87" s="15" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="C87" s="16"/>
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
       <c r="F87" s="16"/>
       <c r="G87" s="17"/>
-      <c r="H87" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I87" s="21"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="21"/>
-      <c r="L87" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="M87" s="22"/>
-      <c r="N87" s="22"/>
-      <c r="O87" s="22"/>
-      <c r="P87" s="22"/>
-      <c r="Q87" s="22"/>
-      <c r="R87" s="22"/>
-      <c r="S87" s="22"/>
-      <c r="T87" s="22"/>
-      <c r="U87" s="22"/>
-      <c r="V87" s="22"/>
-      <c r="W87" s="22"/>
-      <c r="X87" s="22"/>
-      <c r="Y87" s="22"/>
+      <c r="H87" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I87" s="18"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="M87" s="18"/>
+      <c r="N87" s="18"/>
+      <c r="O87" s="18"/>
+      <c r="P87" s="18"/>
+      <c r="Q87" s="18"/>
+      <c r="R87" s="18"/>
+      <c r="S87" s="18"/>
+      <c r="T87" s="18"/>
+      <c r="U87" s="18"/>
+      <c r="V87" s="18"/>
+      <c r="W87" s="18"/>
+      <c r="X87" s="18"/>
+      <c r="Y87" s="18"/>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B88" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C88" s="16"/>
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
       <c r="F88" s="16"/>
       <c r="G88" s="17"/>
-      <c r="H88" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="I88" s="21"/>
-      <c r="J88" s="21"/>
-      <c r="K88" s="21"/>
-      <c r="L88" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="M88" s="22"/>
-      <c r="N88" s="22"/>
-      <c r="O88" s="22"/>
-      <c r="P88" s="22"/>
-      <c r="Q88" s="22"/>
-      <c r="R88" s="22"/>
-      <c r="S88" s="22"/>
-      <c r="T88" s="22"/>
-      <c r="U88" s="22"/>
-      <c r="V88" s="22"/>
-      <c r="W88" s="22"/>
-      <c r="X88" s="22"/>
-      <c r="Y88" s="22"/>
+      <c r="H88" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="M88" s="19"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="19"/>
+      <c r="P88" s="19"/>
+      <c r="Q88" s="19"/>
+      <c r="R88" s="19"/>
+      <c r="S88" s="19"/>
+      <c r="T88" s="19"/>
+      <c r="U88" s="19"/>
+      <c r="V88" s="19"/>
+      <c r="W88" s="19"/>
+      <c r="X88" s="19"/>
+      <c r="Y88" s="19"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B89" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C89" s="16"/>
       <c r="D89" s="16"/>
       <c r="E89" s="16"/>
       <c r="F89" s="16"/>
       <c r="G89" s="17"/>
-      <c r="H89" s="21" t="s">
+      <c r="H89" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="I89" s="21"/>
-      <c r="J89" s="21"/>
-      <c r="K89" s="21"/>
-      <c r="L89" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="M89" s="22"/>
-      <c r="N89" s="22"/>
-      <c r="O89" s="22"/>
-      <c r="P89" s="22"/>
-      <c r="Q89" s="22"/>
-      <c r="R89" s="22"/>
-      <c r="S89" s="22"/>
-      <c r="T89" s="22"/>
-      <c r="U89" s="22"/>
-      <c r="V89" s="22"/>
-      <c r="W89" s="22"/>
-      <c r="X89" s="22"/>
-      <c r="Y89" s="22"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M89" s="19"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="19"/>
+      <c r="P89" s="19"/>
+      <c r="Q89" s="19"/>
+      <c r="R89" s="19"/>
+      <c r="S89" s="19"/>
+      <c r="T89" s="19"/>
+      <c r="U89" s="19"/>
+      <c r="V89" s="19"/>
+      <c r="W89" s="19"/>
+      <c r="X89" s="19"/>
+      <c r="Y89" s="19"/>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B90" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C90" s="16"/>
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
       <c r="F90" s="16"/>
       <c r="G90" s="17"/>
-      <c r="H90" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I90" s="21"/>
-      <c r="J90" s="21"/>
-      <c r="K90" s="21"/>
-      <c r="L90" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M90" s="22"/>
-      <c r="N90" s="22"/>
-      <c r="O90" s="22"/>
-      <c r="P90" s="22"/>
-      <c r="Q90" s="22"/>
-      <c r="R90" s="22"/>
-      <c r="S90" s="22"/>
-      <c r="T90" s="22"/>
-      <c r="U90" s="22"/>
-      <c r="V90" s="22"/>
-      <c r="W90" s="22"/>
-      <c r="X90" s="22"/>
-      <c r="Y90" s="22"/>
+      <c r="H90" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="M90" s="19"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19"/>
+      <c r="P90" s="19"/>
+      <c r="Q90" s="19"/>
+      <c r="R90" s="19"/>
+      <c r="S90" s="19"/>
+      <c r="T90" s="19"/>
+      <c r="U90" s="19"/>
+      <c r="V90" s="19"/>
+      <c r="W90" s="19"/>
+      <c r="X90" s="19"/>
+      <c r="Y90" s="19"/>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B91" s="15" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
       <c r="G91" s="17"/>
-      <c r="H91" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I91" s="21"/>
-      <c r="J91" s="21"/>
-      <c r="K91" s="21"/>
-      <c r="L91" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="M91" s="22"/>
-      <c r="N91" s="22"/>
-      <c r="O91" s="22"/>
-      <c r="P91" s="22"/>
-      <c r="Q91" s="22"/>
-      <c r="R91" s="22"/>
-      <c r="S91" s="22"/>
-      <c r="T91" s="22"/>
-      <c r="U91" s="22"/>
-      <c r="V91" s="22"/>
-      <c r="W91" s="22"/>
-      <c r="X91" s="22"/>
-      <c r="Y91" s="22"/>
+      <c r="H91" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I91" s="18"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="M91" s="19"/>
+      <c r="N91" s="19"/>
+      <c r="O91" s="19"/>
+      <c r="P91" s="19"/>
+      <c r="Q91" s="19"/>
+      <c r="R91" s="19"/>
+      <c r="S91" s="19"/>
+      <c r="T91" s="19"/>
+      <c r="U91" s="19"/>
+      <c r="V91" s="19"/>
+      <c r="W91" s="19"/>
+      <c r="X91" s="19"/>
+      <c r="Y91" s="19"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B92" s="15" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C92" s="16"/>
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
       <c r="F92" s="16"/>
       <c r="G92" s="17"/>
-      <c r="H92" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="I92" s="21"/>
-      <c r="J92" s="21"/>
-      <c r="K92" s="21"/>
-      <c r="L92" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="M92" s="22"/>
-      <c r="N92" s="22"/>
-      <c r="O92" s="22"/>
-      <c r="P92" s="22"/>
-      <c r="Q92" s="22"/>
-      <c r="R92" s="22"/>
-      <c r="S92" s="22"/>
-      <c r="T92" s="22"/>
-      <c r="U92" s="22"/>
-      <c r="V92" s="22"/>
-      <c r="W92" s="22"/>
-      <c r="X92" s="22"/>
-      <c r="Y92" s="22"/>
+      <c r="H92" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="M92" s="19"/>
+      <c r="N92" s="19"/>
+      <c r="O92" s="19"/>
+      <c r="P92" s="19"/>
+      <c r="Q92" s="19"/>
+      <c r="R92" s="19"/>
+      <c r="S92" s="19"/>
+      <c r="T92" s="19"/>
+      <c r="U92" s="19"/>
+      <c r="V92" s="19"/>
+      <c r="W92" s="19"/>
+      <c r="X92" s="19"/>
+      <c r="Y92" s="19"/>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B93" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C93" s="16"/>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
       <c r="F93" s="16"/>
       <c r="G93" s="17"/>
-      <c r="H93" s="21" t="s">
+      <c r="H93" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="I93" s="21"/>
-      <c r="J93" s="21"/>
-      <c r="K93" s="21"/>
-      <c r="L93" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="M93" s="22"/>
-      <c r="N93" s="22"/>
-      <c r="O93" s="22"/>
-      <c r="P93" s="22"/>
-      <c r="Q93" s="22"/>
-      <c r="R93" s="22"/>
-      <c r="S93" s="22"/>
-      <c r="T93" s="22"/>
-      <c r="U93" s="22"/>
-      <c r="V93" s="22"/>
-      <c r="W93" s="22"/>
-      <c r="X93" s="22"/>
-      <c r="Y93" s="22"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="18"/>
+      <c r="K93" s="18"/>
+      <c r="L93" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="M93" s="19"/>
+      <c r="N93" s="19"/>
+      <c r="O93" s="19"/>
+      <c r="P93" s="19"/>
+      <c r="Q93" s="19"/>
+      <c r="R93" s="19"/>
+      <c r="S93" s="19"/>
+      <c r="T93" s="19"/>
+      <c r="U93" s="19"/>
+      <c r="V93" s="19"/>
+      <c r="W93" s="19"/>
+      <c r="X93" s="19"/>
+      <c r="Y93" s="19"/>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B94" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
       <c r="F94" s="16"/>
       <c r="G94" s="17"/>
-      <c r="H94" s="21" t="s">
+      <c r="H94" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="I94" s="21"/>
-      <c r="J94" s="21"/>
-      <c r="K94" s="21"/>
-      <c r="L94" s="22" t="s">
+      <c r="I94" s="18"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="18"/>
+      <c r="L94" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="M94" s="19"/>
+      <c r="N94" s="19"/>
+      <c r="O94" s="19"/>
+      <c r="P94" s="19"/>
+      <c r="Q94" s="19"/>
+      <c r="R94" s="19"/>
+      <c r="S94" s="19"/>
+      <c r="T94" s="19"/>
+      <c r="U94" s="19"/>
+      <c r="V94" s="19"/>
+      <c r="W94" s="19"/>
+      <c r="X94" s="19"/>
+      <c r="Y94" s="19"/>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B95" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I95" s="18"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="18"/>
+      <c r="L95" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="M94" s="22"/>
-      <c r="N94" s="22"/>
-      <c r="O94" s="22"/>
-      <c r="P94" s="22"/>
-      <c r="Q94" s="22"/>
-      <c r="R94" s="22"/>
-      <c r="S94" s="22"/>
-      <c r="T94" s="22"/>
-      <c r="U94" s="22"/>
-      <c r="V94" s="22"/>
-      <c r="W94" s="22"/>
-      <c r="X94" s="22"/>
-      <c r="Y94" s="22"/>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="9"/>
-      <c r="M95" s="9"/>
-      <c r="N95" s="9"/>
-      <c r="O95" s="9"/>
-      <c r="P95" s="9"/>
-      <c r="Q95" s="9"/>
-      <c r="R95" s="9"/>
-      <c r="S95" s="9"/>
-      <c r="T95" s="9"/>
-      <c r="U95" s="9"/>
-      <c r="V95" s="9"/>
-      <c r="W95" s="9"/>
-      <c r="X95" s="9"/>
-      <c r="Y95" s="9"/>
+      <c r="M95" s="19"/>
+      <c r="N95" s="19"/>
+      <c r="O95" s="19"/>
+      <c r="P95" s="19"/>
+      <c r="Q95" s="19"/>
+      <c r="R95" s="19"/>
+      <c r="S95" s="19"/>
+      <c r="T95" s="19"/>
+      <c r="U95" s="19"/>
+      <c r="V95" s="19"/>
+      <c r="W95" s="19"/>
+      <c r="X95" s="19"/>
+      <c r="Y95" s="19"/>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A96" s="6" t="s">
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9"/>
+      <c r="R96" s="9"/>
+      <c r="S96" s="9"/>
+      <c r="T96" s="9"/>
+      <c r="U96" s="9"/>
+      <c r="V96" s="9"/>
+      <c r="W96" s="9"/>
+      <c r="X96" s="9"/>
+      <c r="Y96" s="9"/>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A97" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A97" s="6"/>
-    </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="6"/>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A99" s="7" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B99" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I99" s="16"/>
-      <c r="J99" s="17"/>
-      <c r="K99" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L99" s="16"/>
-      <c r="M99" s="16"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="P99" s="16"/>
-      <c r="Q99" s="16"/>
-      <c r="R99" s="16"/>
-      <c r="S99" s="16"/>
-      <c r="T99" s="16"/>
-      <c r="U99" s="16"/>
-      <c r="V99" s="16"/>
-      <c r="W99" s="16"/>
-      <c r="X99" s="16"/>
-      <c r="Y99" s="17"/>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B100" s="15" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
@@ -3623,33 +3626,33 @@
       <c r="F100" s="16"/>
       <c r="G100" s="17"/>
       <c r="H100" s="15" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I100" s="16"/>
       <c r="J100" s="17"/>
       <c r="K100" s="15" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="L100" s="16"/>
       <c r="M100" s="16"/>
       <c r="N100" s="17"/>
-      <c r="O100" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="P100" s="19"/>
-      <c r="Q100" s="19"/>
-      <c r="R100" s="19"/>
-      <c r="S100" s="19"/>
-      <c r="T100" s="19"/>
-      <c r="U100" s="19"/>
-      <c r="V100" s="19"/>
-      <c r="W100" s="19"/>
-      <c r="X100" s="19"/>
-      <c r="Y100" s="20"/>
+      <c r="O100" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P100" s="16"/>
+      <c r="Q100" s="16"/>
+      <c r="R100" s="16"/>
+      <c r="S100" s="16"/>
+      <c r="T100" s="16"/>
+      <c r="U100" s="16"/>
+      <c r="V100" s="16"/>
+      <c r="W100" s="16"/>
+      <c r="X100" s="16"/>
+      <c r="Y100" s="17"/>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B101" s="15" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
@@ -3662,28 +3665,28 @@
       <c r="I101" s="16"/>
       <c r="J101" s="17"/>
       <c r="K101" s="15" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="L101" s="16"/>
       <c r="M101" s="16"/>
       <c r="N101" s="17"/>
-      <c r="O101" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="P101" s="19"/>
-      <c r="Q101" s="19"/>
-      <c r="R101" s="19"/>
-      <c r="S101" s="19"/>
-      <c r="T101" s="19"/>
-      <c r="U101" s="19"/>
-      <c r="V101" s="19"/>
-      <c r="W101" s="19"/>
-      <c r="X101" s="19"/>
-      <c r="Y101" s="20"/>
+      <c r="O101" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="P101" s="21"/>
+      <c r="Q101" s="21"/>
+      <c r="R101" s="21"/>
+      <c r="S101" s="21"/>
+      <c r="T101" s="21"/>
+      <c r="U101" s="21"/>
+      <c r="V101" s="21"/>
+      <c r="W101" s="21"/>
+      <c r="X101" s="21"/>
+      <c r="Y101" s="22"/>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B102" s="15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
@@ -3701,23 +3704,23 @@
       <c r="L102" s="16"/>
       <c r="M102" s="16"/>
       <c r="N102" s="17"/>
-      <c r="O102" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="19"/>
-      <c r="Q102" s="19"/>
-      <c r="R102" s="19"/>
-      <c r="S102" s="19"/>
-      <c r="T102" s="19"/>
-      <c r="U102" s="19"/>
-      <c r="V102" s="19"/>
-      <c r="W102" s="19"/>
-      <c r="X102" s="19"/>
-      <c r="Y102" s="20"/>
+      <c r="O102" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="21"/>
+      <c r="Q102" s="21"/>
+      <c r="R102" s="21"/>
+      <c r="S102" s="21"/>
+      <c r="T102" s="21"/>
+      <c r="U102" s="21"/>
+      <c r="V102" s="21"/>
+      <c r="W102" s="21"/>
+      <c r="X102" s="21"/>
+      <c r="Y102" s="22"/>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B103" s="15" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
@@ -3730,558 +3733,566 @@
       <c r="I103" s="16"/>
       <c r="J103" s="17"/>
       <c r="K103" s="15" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="L103" s="16"/>
       <c r="M103" s="16"/>
       <c r="N103" s="17"/>
-      <c r="O103" s="18" t="s">
+      <c r="O103" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="P103" s="21"/>
+      <c r="Q103" s="21"/>
+      <c r="R103" s="21"/>
+      <c r="S103" s="21"/>
+      <c r="T103" s="21"/>
+      <c r="U103" s="21"/>
+      <c r="V103" s="21"/>
+      <c r="W103" s="21"/>
+      <c r="X103" s="21"/>
+      <c r="Y103" s="22"/>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B104" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I104" s="16"/>
+      <c r="J104" s="17"/>
+      <c r="K104" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L104" s="16"/>
+      <c r="M104" s="16"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="P103" s="19"/>
-      <c r="Q103" s="19"/>
-      <c r="R103" s="19"/>
-      <c r="S103" s="19"/>
-      <c r="T103" s="19"/>
-      <c r="U103" s="19"/>
-      <c r="V103" s="19"/>
-      <c r="W103" s="19"/>
-      <c r="X103" s="19"/>
-      <c r="Y103" s="20"/>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A105" s="7" t="s">
+      <c r="P104" s="21"/>
+      <c r="Q104" s="21"/>
+      <c r="R104" s="21"/>
+      <c r="S104" s="21"/>
+      <c r="T104" s="21"/>
+      <c r="U104" s="21"/>
+      <c r="V104" s="21"/>
+      <c r="W104" s="21"/>
+      <c r="X104" s="21"/>
+      <c r="Y104" s="22"/>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A106" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
-      <c r="J105" s="8"/>
-      <c r="K105" s="8"/>
-      <c r="L105" s="9"/>
-      <c r="M105" s="9"/>
-      <c r="N105" s="9"/>
-      <c r="O105" s="9"/>
-      <c r="P105" s="9"/>
-      <c r="Q105" s="9"/>
-      <c r="R105" s="9"/>
-      <c r="S105" s="9"/>
-      <c r="T105" s="9"/>
-      <c r="U105" s="9"/>
-      <c r="V105" s="9"/>
-      <c r="W105" s="9"/>
-      <c r="X105" s="9"/>
-      <c r="Y105" s="9"/>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B106" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I106" s="21"/>
-      <c r="J106" s="21"/>
-      <c r="K106" s="21"/>
-      <c r="L106" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M106" s="21"/>
-      <c r="N106" s="21"/>
-      <c r="O106" s="21"/>
-      <c r="P106" s="21"/>
-      <c r="Q106" s="21"/>
-      <c r="R106" s="21"/>
-      <c r="S106" s="21"/>
-      <c r="T106" s="21"/>
-      <c r="U106" s="21"/>
-      <c r="V106" s="21"/>
-      <c r="W106" s="21"/>
-      <c r="X106" s="21"/>
-      <c r="Y106" s="21"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="9"/>
+      <c r="Q106" s="9"/>
+      <c r="R106" s="9"/>
+      <c r="S106" s="9"/>
+      <c r="T106" s="9"/>
+      <c r="U106" s="9"/>
+      <c r="V106" s="9"/>
+      <c r="W106" s="9"/>
+      <c r="X106" s="9"/>
+      <c r="Y106" s="9"/>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B107" s="15" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="C107" s="16"/>
       <c r="D107" s="16"/>
       <c r="E107" s="16"/>
       <c r="F107" s="16"/>
       <c r="G107" s="17"/>
-      <c r="H107" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I107" s="21"/>
-      <c r="J107" s="21"/>
-      <c r="K107" s="21"/>
-      <c r="L107" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="M107" s="22"/>
-      <c r="N107" s="22"/>
-      <c r="O107" s="22"/>
-      <c r="P107" s="22"/>
-      <c r="Q107" s="22"/>
-      <c r="R107" s="22"/>
-      <c r="S107" s="22"/>
-      <c r="T107" s="22"/>
-      <c r="U107" s="22"/>
-      <c r="V107" s="22"/>
-      <c r="W107" s="22"/>
-      <c r="X107" s="22"/>
-      <c r="Y107" s="22"/>
+      <c r="H107" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I107" s="18"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="18"/>
+      <c r="L107" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="M107" s="18"/>
+      <c r="N107" s="18"/>
+      <c r="O107" s="18"/>
+      <c r="P107" s="18"/>
+      <c r="Q107" s="18"/>
+      <c r="R107" s="18"/>
+      <c r="S107" s="18"/>
+      <c r="T107" s="18"/>
+      <c r="U107" s="18"/>
+      <c r="V107" s="18"/>
+      <c r="W107" s="18"/>
+      <c r="X107" s="18"/>
+      <c r="Y107" s="18"/>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B108" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C108" s="16"/>
       <c r="D108" s="16"/>
       <c r="E108" s="16"/>
       <c r="F108" s="16"/>
       <c r="G108" s="17"/>
-      <c r="H108" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="I108" s="21"/>
-      <c r="J108" s="21"/>
-      <c r="K108" s="21"/>
-      <c r="L108" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="M108" s="22"/>
-      <c r="N108" s="22"/>
-      <c r="O108" s="22"/>
-      <c r="P108" s="22"/>
-      <c r="Q108" s="22"/>
-      <c r="R108" s="22"/>
-      <c r="S108" s="22"/>
-      <c r="T108" s="22"/>
-      <c r="U108" s="22"/>
-      <c r="V108" s="22"/>
-      <c r="W108" s="22"/>
-      <c r="X108" s="22"/>
-      <c r="Y108" s="22"/>
+      <c r="H108" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I108" s="18"/>
+      <c r="J108" s="18"/>
+      <c r="K108" s="18"/>
+      <c r="L108" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="M108" s="19"/>
+      <c r="N108" s="19"/>
+      <c r="O108" s="19"/>
+      <c r="P108" s="19"/>
+      <c r="Q108" s="19"/>
+      <c r="R108" s="19"/>
+      <c r="S108" s="19"/>
+      <c r="T108" s="19"/>
+      <c r="U108" s="19"/>
+      <c r="V108" s="19"/>
+      <c r="W108" s="19"/>
+      <c r="X108" s="19"/>
+      <c r="Y108" s="19"/>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B109" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C109" s="16"/>
       <c r="D109" s="16"/>
       <c r="E109" s="16"/>
       <c r="F109" s="16"/>
       <c r="G109" s="17"/>
-      <c r="H109" s="21" t="s">
+      <c r="H109" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="I109" s="21"/>
-      <c r="J109" s="21"/>
-      <c r="K109" s="21"/>
-      <c r="L109" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="M109" s="22"/>
-      <c r="N109" s="22"/>
-      <c r="O109" s="22"/>
-      <c r="P109" s="22"/>
-      <c r="Q109" s="22"/>
-      <c r="R109" s="22"/>
-      <c r="S109" s="22"/>
-      <c r="T109" s="22"/>
-      <c r="U109" s="22"/>
-      <c r="V109" s="22"/>
-      <c r="W109" s="22"/>
-      <c r="X109" s="22"/>
-      <c r="Y109" s="22"/>
+      <c r="I109" s="18"/>
+      <c r="J109" s="18"/>
+      <c r="K109" s="18"/>
+      <c r="L109" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M109" s="19"/>
+      <c r="N109" s="19"/>
+      <c r="O109" s="19"/>
+      <c r="P109" s="19"/>
+      <c r="Q109" s="19"/>
+      <c r="R109" s="19"/>
+      <c r="S109" s="19"/>
+      <c r="T109" s="19"/>
+      <c r="U109" s="19"/>
+      <c r="V109" s="19"/>
+      <c r="W109" s="19"/>
+      <c r="X109" s="19"/>
+      <c r="Y109" s="19"/>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B110" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
       <c r="E110" s="16"/>
       <c r="F110" s="16"/>
       <c r="G110" s="17"/>
-      <c r="H110" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I110" s="21"/>
-      <c r="J110" s="21"/>
-      <c r="K110" s="21"/>
-      <c r="L110" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M110" s="22"/>
-      <c r="N110" s="22"/>
-      <c r="O110" s="22"/>
-      <c r="P110" s="22"/>
-      <c r="Q110" s="22"/>
-      <c r="R110" s="22"/>
-      <c r="S110" s="22"/>
-      <c r="T110" s="22"/>
-      <c r="U110" s="22"/>
-      <c r="V110" s="22"/>
-      <c r="W110" s="22"/>
-      <c r="X110" s="22"/>
-      <c r="Y110" s="22"/>
+      <c r="H110" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I110" s="18"/>
+      <c r="J110" s="18"/>
+      <c r="K110" s="18"/>
+      <c r="L110" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="M110" s="19"/>
+      <c r="N110" s="19"/>
+      <c r="O110" s="19"/>
+      <c r="P110" s="19"/>
+      <c r="Q110" s="19"/>
+      <c r="R110" s="19"/>
+      <c r="S110" s="19"/>
+      <c r="T110" s="19"/>
+      <c r="U110" s="19"/>
+      <c r="V110" s="19"/>
+      <c r="W110" s="19"/>
+      <c r="X110" s="19"/>
+      <c r="Y110" s="19"/>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B111" s="15" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C111" s="16"/>
       <c r="D111" s="16"/>
       <c r="E111" s="16"/>
       <c r="F111" s="16"/>
       <c r="G111" s="17"/>
-      <c r="H111" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I111" s="21"/>
-      <c r="J111" s="21"/>
-      <c r="K111" s="21"/>
-      <c r="L111" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="M111" s="22"/>
-      <c r="N111" s="22"/>
-      <c r="O111" s="22"/>
-      <c r="P111" s="22"/>
-      <c r="Q111" s="22"/>
-      <c r="R111" s="22"/>
-      <c r="S111" s="22"/>
-      <c r="T111" s="22"/>
-      <c r="U111" s="22"/>
-      <c r="V111" s="22"/>
-      <c r="W111" s="22"/>
-      <c r="X111" s="22"/>
-      <c r="Y111" s="22"/>
+      <c r="H111" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I111" s="18"/>
+      <c r="J111" s="18"/>
+      <c r="K111" s="18"/>
+      <c r="L111" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="M111" s="19"/>
+      <c r="N111" s="19"/>
+      <c r="O111" s="19"/>
+      <c r="P111" s="19"/>
+      <c r="Q111" s="19"/>
+      <c r="R111" s="19"/>
+      <c r="S111" s="19"/>
+      <c r="T111" s="19"/>
+      <c r="U111" s="19"/>
+      <c r="V111" s="19"/>
+      <c r="W111" s="19"/>
+      <c r="X111" s="19"/>
+      <c r="Y111" s="19"/>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B112" s="15" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
       <c r="F112" s="16"/>
       <c r="G112" s="17"/>
-      <c r="H112" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="I112" s="21"/>
-      <c r="J112" s="21"/>
-      <c r="K112" s="21"/>
-      <c r="L112" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="M112" s="22"/>
-      <c r="N112" s="22"/>
-      <c r="O112" s="22"/>
-      <c r="P112" s="22"/>
-      <c r="Q112" s="22"/>
-      <c r="R112" s="22"/>
-      <c r="S112" s="22"/>
-      <c r="T112" s="22"/>
-      <c r="U112" s="22"/>
-      <c r="V112" s="22"/>
-      <c r="W112" s="22"/>
-      <c r="X112" s="22"/>
-      <c r="Y112" s="22"/>
+      <c r="H112" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I112" s="18"/>
+      <c r="J112" s="18"/>
+      <c r="K112" s="18"/>
+      <c r="L112" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="M112" s="19"/>
+      <c r="N112" s="19"/>
+      <c r="O112" s="19"/>
+      <c r="P112" s="19"/>
+      <c r="Q112" s="19"/>
+      <c r="R112" s="19"/>
+      <c r="S112" s="19"/>
+      <c r="T112" s="19"/>
+      <c r="U112" s="19"/>
+      <c r="V112" s="19"/>
+      <c r="W112" s="19"/>
+      <c r="X112" s="19"/>
+      <c r="Y112" s="19"/>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B113" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C113" s="16"/>
       <c r="D113" s="16"/>
       <c r="E113" s="16"/>
       <c r="F113" s="16"/>
       <c r="G113" s="17"/>
-      <c r="H113" s="21" t="s">
+      <c r="H113" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="I113" s="21"/>
-      <c r="J113" s="21"/>
-      <c r="K113" s="21"/>
-      <c r="L113" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="M113" s="22"/>
-      <c r="N113" s="22"/>
-      <c r="O113" s="22"/>
-      <c r="P113" s="22"/>
-      <c r="Q113" s="22"/>
-      <c r="R113" s="22"/>
-      <c r="S113" s="22"/>
-      <c r="T113" s="22"/>
-      <c r="U113" s="22"/>
-      <c r="V113" s="22"/>
-      <c r="W113" s="22"/>
-      <c r="X113" s="22"/>
-      <c r="Y113" s="22"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="18"/>
+      <c r="K113" s="18"/>
+      <c r="L113" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="M113" s="19"/>
+      <c r="N113" s="19"/>
+      <c r="O113" s="19"/>
+      <c r="P113" s="19"/>
+      <c r="Q113" s="19"/>
+      <c r="R113" s="19"/>
+      <c r="S113" s="19"/>
+      <c r="T113" s="19"/>
+      <c r="U113" s="19"/>
+      <c r="V113" s="19"/>
+      <c r="W113" s="19"/>
+      <c r="X113" s="19"/>
+      <c r="Y113" s="19"/>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B114" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
       <c r="F114" s="16"/>
       <c r="G114" s="17"/>
-      <c r="H114" s="21" t="s">
+      <c r="H114" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="I114" s="21"/>
-      <c r="J114" s="21"/>
-      <c r="K114" s="21"/>
-      <c r="L114" s="22" t="s">
+      <c r="I114" s="18"/>
+      <c r="J114" s="18"/>
+      <c r="K114" s="18"/>
+      <c r="L114" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="M114" s="19"/>
+      <c r="N114" s="19"/>
+      <c r="O114" s="19"/>
+      <c r="P114" s="19"/>
+      <c r="Q114" s="19"/>
+      <c r="R114" s="19"/>
+      <c r="S114" s="19"/>
+      <c r="T114" s="19"/>
+      <c r="U114" s="19"/>
+      <c r="V114" s="19"/>
+      <c r="W114" s="19"/>
+      <c r="X114" s="19"/>
+      <c r="Y114" s="19"/>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B115" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I115" s="18"/>
+      <c r="J115" s="18"/>
+      <c r="K115" s="18"/>
+      <c r="L115" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="M114" s="22"/>
-      <c r="N114" s="22"/>
-      <c r="O114" s="22"/>
-      <c r="P114" s="22"/>
-      <c r="Q114" s="22"/>
-      <c r="R114" s="22"/>
-      <c r="S114" s="22"/>
-      <c r="T114" s="22"/>
-      <c r="U114" s="22"/>
-      <c r="V114" s="22"/>
-      <c r="W114" s="22"/>
-      <c r="X114" s="22"/>
-      <c r="Y114" s="22"/>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8"/>
-      <c r="J115" s="8"/>
-      <c r="K115" s="8"/>
-      <c r="L115" s="9"/>
-      <c r="M115" s="9"/>
-      <c r="N115" s="9"/>
-      <c r="O115" s="9"/>
-      <c r="P115" s="9"/>
-      <c r="Q115" s="9"/>
-      <c r="R115" s="9"/>
-      <c r="S115" s="9"/>
-      <c r="T115" s="9"/>
-      <c r="U115" s="9"/>
-      <c r="V115" s="9"/>
-      <c r="W115" s="9"/>
-      <c r="X115" s="9"/>
-      <c r="Y115" s="9"/>
+      <c r="M115" s="19"/>
+      <c r="N115" s="19"/>
+      <c r="O115" s="19"/>
+      <c r="P115" s="19"/>
+      <c r="Q115" s="19"/>
+      <c r="R115" s="19"/>
+      <c r="S115" s="19"/>
+      <c r="T115" s="19"/>
+      <c r="U115" s="19"/>
+      <c r="V115" s="19"/>
+      <c r="W115" s="19"/>
+      <c r="X115" s="19"/>
+      <c r="Y115" s="19"/>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A116" s="7" t="s">
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="9"/>
+      <c r="O116" s="9"/>
+      <c r="P116" s="9"/>
+      <c r="Q116" s="9"/>
+      <c r="R116" s="9"/>
+      <c r="S116" s="9"/>
+      <c r="T116" s="9"/>
+      <c r="U116" s="9"/>
+      <c r="V116" s="9"/>
+      <c r="W116" s="9"/>
+      <c r="X116" s="9"/>
+      <c r="Y116" s="9"/>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A117" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B117" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="16"/>
-      <c r="F117" s="16"/>
-      <c r="G117" s="17"/>
-      <c r="H117" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I117" s="21"/>
-      <c r="J117" s="21"/>
-      <c r="K117" s="21"/>
-      <c r="L117" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M117" s="21"/>
-      <c r="N117" s="21"/>
-      <c r="O117" s="21"/>
-      <c r="P117" s="21"/>
-      <c r="Q117" s="21"/>
-      <c r="R117" s="21"/>
-      <c r="S117" s="21"/>
-      <c r="T117" s="21"/>
-      <c r="U117" s="21"/>
-      <c r="V117" s="21"/>
-      <c r="W117" s="21"/>
-      <c r="X117" s="21"/>
-      <c r="Y117" s="21"/>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B118" s="15" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
       <c r="E118" s="16"/>
       <c r="F118" s="16"/>
       <c r="G118" s="17"/>
-      <c r="H118" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I118" s="16"/>
-      <c r="J118" s="16"/>
-      <c r="K118" s="17"/>
-      <c r="L118" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="M118" s="22"/>
-      <c r="N118" s="22"/>
-      <c r="O118" s="22"/>
-      <c r="P118" s="22"/>
-      <c r="Q118" s="22"/>
-      <c r="R118" s="22"/>
-      <c r="S118" s="22"/>
-      <c r="T118" s="22"/>
-      <c r="U118" s="22"/>
-      <c r="V118" s="22"/>
-      <c r="W118" s="22"/>
-      <c r="X118" s="22"/>
-      <c r="Y118" s="22"/>
+      <c r="H118" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I118" s="18"/>
+      <c r="J118" s="18"/>
+      <c r="K118" s="18"/>
+      <c r="L118" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="M118" s="18"/>
+      <c r="N118" s="18"/>
+      <c r="O118" s="18"/>
+      <c r="P118" s="18"/>
+      <c r="Q118" s="18"/>
+      <c r="R118" s="18"/>
+      <c r="S118" s="18"/>
+      <c r="T118" s="18"/>
+      <c r="U118" s="18"/>
+      <c r="V118" s="18"/>
+      <c r="W118" s="18"/>
+      <c r="X118" s="18"/>
+      <c r="Y118" s="18"/>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B119" s="15" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C119" s="16"/>
       <c r="D119" s="16"/>
       <c r="E119" s="16"/>
       <c r="F119" s="16"/>
       <c r="G119" s="17"/>
-      <c r="H119" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I119" s="21"/>
-      <c r="J119" s="21"/>
-      <c r="K119" s="21"/>
-      <c r="L119" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M119" s="22"/>
-      <c r="N119" s="22"/>
-      <c r="O119" s="22"/>
-      <c r="P119" s="22"/>
-      <c r="Q119" s="22"/>
-      <c r="R119" s="22"/>
-      <c r="S119" s="22"/>
-      <c r="T119" s="22"/>
-      <c r="U119" s="22"/>
-      <c r="V119" s="22"/>
-      <c r="W119" s="22"/>
-      <c r="X119" s="22"/>
-      <c r="Y119" s="22"/>
+      <c r="H119" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I119" s="16"/>
+      <c r="J119" s="16"/>
+      <c r="K119" s="17"/>
+      <c r="L119" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="M119" s="19"/>
+      <c r="N119" s="19"/>
+      <c r="O119" s="19"/>
+      <c r="P119" s="19"/>
+      <c r="Q119" s="19"/>
+      <c r="R119" s="19"/>
+      <c r="S119" s="19"/>
+      <c r="T119" s="19"/>
+      <c r="U119" s="19"/>
+      <c r="V119" s="19"/>
+      <c r="W119" s="19"/>
+      <c r="X119" s="19"/>
+      <c r="Y119" s="19"/>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B120" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C120" s="16"/>
       <c r="D120" s="16"/>
       <c r="E120" s="16"/>
       <c r="F120" s="16"/>
       <c r="G120" s="17"/>
-      <c r="H120" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="I120" s="21"/>
-      <c r="J120" s="21"/>
-      <c r="K120" s="21"/>
-      <c r="L120" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M120" s="22"/>
-      <c r="N120" s="22"/>
-      <c r="O120" s="22"/>
-      <c r="P120" s="22"/>
-      <c r="Q120" s="22"/>
-      <c r="R120" s="22"/>
-      <c r="S120" s="22"/>
-      <c r="T120" s="22"/>
-      <c r="U120" s="22"/>
-      <c r="V120" s="22"/>
-      <c r="W120" s="22"/>
-      <c r="X120" s="22"/>
-      <c r="Y120" s="22"/>
+      <c r="H120" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I120" s="18"/>
+      <c r="J120" s="18"/>
+      <c r="K120" s="18"/>
+      <c r="L120" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M120" s="19"/>
+      <c r="N120" s="19"/>
+      <c r="O120" s="19"/>
+      <c r="P120" s="19"/>
+      <c r="Q120" s="19"/>
+      <c r="R120" s="19"/>
+      <c r="S120" s="19"/>
+      <c r="T120" s="19"/>
+      <c r="U120" s="19"/>
+      <c r="V120" s="19"/>
+      <c r="W120" s="19"/>
+      <c r="X120" s="19"/>
+      <c r="Y120" s="19"/>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B121" s="15" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="C121" s="16"/>
       <c r="D121" s="16"/>
       <c r="E121" s="16"/>
       <c r="F121" s="16"/>
       <c r="G121" s="17"/>
-      <c r="H121" s="21" t="s">
+      <c r="H121" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I121" s="18"/>
+      <c r="J121" s="18"/>
+      <c r="K121" s="18"/>
+      <c r="L121" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M121" s="19"/>
+      <c r="N121" s="19"/>
+      <c r="O121" s="19"/>
+      <c r="P121" s="19"/>
+      <c r="Q121" s="19"/>
+      <c r="R121" s="19"/>
+      <c r="S121" s="19"/>
+      <c r="T121" s="19"/>
+      <c r="U121" s="19"/>
+      <c r="V121" s="19"/>
+      <c r="W121" s="19"/>
+      <c r="X121" s="19"/>
+      <c r="Y121" s="19"/>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B122" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="I121" s="21"/>
-      <c r="J121" s="21"/>
-      <c r="K121" s="21"/>
-      <c r="L121" s="22" t="s">
+      <c r="I122" s="18"/>
+      <c r="J122" s="18"/>
+      <c r="K122" s="18"/>
+      <c r="L122" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="M121" s="22"/>
-      <c r="N121" s="22"/>
-      <c r="O121" s="22"/>
-      <c r="P121" s="22"/>
-      <c r="Q121" s="22"/>
-      <c r="R121" s="22"/>
-      <c r="S121" s="22"/>
-      <c r="T121" s="22"/>
-      <c r="U121" s="22"/>
-      <c r="V121" s="22"/>
-      <c r="W121" s="22"/>
-      <c r="X121" s="22"/>
-      <c r="Y121" s="22"/>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B122" s="8"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="8"/>
-      <c r="J122" s="8"/>
-      <c r="K122" s="8"/>
-      <c r="L122" s="9"/>
-      <c r="M122" s="9"/>
-      <c r="N122" s="9"/>
-      <c r="O122" s="9"/>
-      <c r="P122" s="9"/>
-      <c r="Q122" s="9"/>
-      <c r="R122" s="9"/>
-      <c r="S122" s="9"/>
-      <c r="T122" s="9"/>
-      <c r="U122" s="9"/>
-      <c r="V122" s="9"/>
-      <c r="W122" s="9"/>
-      <c r="X122" s="9"/>
-      <c r="Y122" s="9"/>
+      <c r="M122" s="19"/>
+      <c r="N122" s="19"/>
+      <c r="O122" s="19"/>
+      <c r="P122" s="19"/>
+      <c r="Q122" s="19"/>
+      <c r="R122" s="19"/>
+      <c r="S122" s="19"/>
+      <c r="T122" s="19"/>
+      <c r="U122" s="19"/>
+      <c r="V122" s="19"/>
+      <c r="W122" s="19"/>
+      <c r="X122" s="19"/>
+      <c r="Y122" s="19"/>
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B123" s="8"/>
@@ -4310,55 +4321,47 @@
       <c r="Y123" s="9"/>
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A124" s="6" t="s">
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="9"/>
+      <c r="N124" s="9"/>
+      <c r="O124" s="9"/>
+      <c r="P124" s="9"/>
+      <c r="Q124" s="9"/>
+      <c r="R124" s="9"/>
+      <c r="S124" s="9"/>
+      <c r="T124" s="9"/>
+      <c r="U124" s="9"/>
+      <c r="V124" s="9"/>
+      <c r="W124" s="9"/>
+      <c r="X124" s="9"/>
+      <c r="Y124" s="9"/>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A125" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A125" s="6"/>
-    </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A126" s="7" t="s">
+      <c r="A126" s="6"/>
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A127" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B127" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C127" s="16"/>
-      <c r="D127" s="16"/>
-      <c r="E127" s="16"/>
-      <c r="F127" s="16"/>
-      <c r="G127" s="17"/>
-      <c r="H127" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I127" s="16"/>
-      <c r="J127" s="17"/>
-      <c r="K127" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L127" s="16"/>
-      <c r="M127" s="16"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="P127" s="16"/>
-      <c r="Q127" s="16"/>
-      <c r="R127" s="16"/>
-      <c r="S127" s="16"/>
-      <c r="T127" s="16"/>
-      <c r="U127" s="16"/>
-      <c r="V127" s="16"/>
-      <c r="W127" s="16"/>
-      <c r="X127" s="16"/>
-      <c r="Y127" s="17"/>
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B128" s="15" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C128" s="16"/>
       <c r="D128" s="16"/>
@@ -4366,33 +4369,33 @@
       <c r="F128" s="16"/>
       <c r="G128" s="17"/>
       <c r="H128" s="15" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I128" s="16"/>
       <c r="J128" s="17"/>
       <c r="K128" s="15" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="L128" s="16"/>
       <c r="M128" s="16"/>
       <c r="N128" s="17"/>
-      <c r="O128" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="P128" s="19"/>
-      <c r="Q128" s="19"/>
-      <c r="R128" s="19"/>
-      <c r="S128" s="19"/>
-      <c r="T128" s="19"/>
-      <c r="U128" s="19"/>
-      <c r="V128" s="19"/>
-      <c r="W128" s="19"/>
-      <c r="X128" s="19"/>
-      <c r="Y128" s="20"/>
+      <c r="O128" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P128" s="16"/>
+      <c r="Q128" s="16"/>
+      <c r="R128" s="16"/>
+      <c r="S128" s="16"/>
+      <c r="T128" s="16"/>
+      <c r="U128" s="16"/>
+      <c r="V128" s="16"/>
+      <c r="W128" s="16"/>
+      <c r="X128" s="16"/>
+      <c r="Y128" s="17"/>
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B129" s="15" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C129" s="16"/>
       <c r="D129" s="16"/>
@@ -4405,28 +4408,28 @@
       <c r="I129" s="16"/>
       <c r="J129" s="17"/>
       <c r="K129" s="15" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="L129" s="16"/>
       <c r="M129" s="16"/>
       <c r="N129" s="17"/>
-      <c r="O129" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="P129" s="19"/>
-      <c r="Q129" s="19"/>
-      <c r="R129" s="19"/>
-      <c r="S129" s="19"/>
-      <c r="T129" s="19"/>
-      <c r="U129" s="19"/>
-      <c r="V129" s="19"/>
-      <c r="W129" s="19"/>
-      <c r="X129" s="19"/>
-      <c r="Y129" s="20"/>
+      <c r="O129" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="P129" s="21"/>
+      <c r="Q129" s="21"/>
+      <c r="R129" s="21"/>
+      <c r="S129" s="21"/>
+      <c r="T129" s="21"/>
+      <c r="U129" s="21"/>
+      <c r="V129" s="21"/>
+      <c r="W129" s="21"/>
+      <c r="X129" s="21"/>
+      <c r="Y129" s="22"/>
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B130" s="15" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="C130" s="16"/>
       <c r="D130" s="16"/>
@@ -4439,619 +4442,732 @@
       <c r="I130" s="16"/>
       <c r="J130" s="17"/>
       <c r="K130" s="15" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="L130" s="16"/>
       <c r="M130" s="16"/>
       <c r="N130" s="17"/>
-      <c r="O130" s="18" t="s">
+      <c r="O130" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="P130" s="21"/>
+      <c r="Q130" s="21"/>
+      <c r="R130" s="21"/>
+      <c r="S130" s="21"/>
+      <c r="T130" s="21"/>
+      <c r="U130" s="21"/>
+      <c r="V130" s="21"/>
+      <c r="W130" s="21"/>
+      <c r="X130" s="21"/>
+      <c r="Y130" s="22"/>
+    </row>
+    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B131" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C131" s="16"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="17"/>
+      <c r="H131" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I131" s="16"/>
+      <c r="J131" s="17"/>
+      <c r="K131" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="L131" s="16"/>
+      <c r="M131" s="16"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="P130" s="19"/>
-      <c r="Q130" s="19"/>
-      <c r="R130" s="19"/>
-      <c r="S130" s="19"/>
-      <c r="T130" s="19"/>
-      <c r="U130" s="19"/>
-      <c r="V130" s="19"/>
-      <c r="W130" s="19"/>
-      <c r="X130" s="19"/>
-      <c r="Y130" s="20"/>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A132" s="7" t="s">
+      <c r="P131" s="21"/>
+      <c r="Q131" s="21"/>
+      <c r="R131" s="21"/>
+      <c r="S131" s="21"/>
+      <c r="T131" s="21"/>
+      <c r="U131" s="21"/>
+      <c r="V131" s="21"/>
+      <c r="W131" s="21"/>
+      <c r="X131" s="21"/>
+      <c r="Y131" s="22"/>
+    </row>
+    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A133" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B132" s="8"/>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="8"/>
-      <c r="I132" s="8"/>
-      <c r="J132" s="8"/>
-      <c r="K132" s="8"/>
-      <c r="L132" s="9"/>
-      <c r="M132" s="9"/>
-      <c r="N132" s="9"/>
-      <c r="O132" s="9"/>
-      <c r="P132" s="9"/>
-      <c r="Q132" s="9"/>
-      <c r="R132" s="9"/>
-      <c r="S132" s="9"/>
-      <c r="T132" s="9"/>
-      <c r="U132" s="9"/>
-      <c r="V132" s="9"/>
-      <c r="W132" s="9"/>
-      <c r="X132" s="9"/>
-      <c r="Y132" s="9"/>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B133" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C133" s="16"/>
-      <c r="D133" s="16"/>
-      <c r="E133" s="16"/>
-      <c r="F133" s="16"/>
-      <c r="G133" s="17"/>
-      <c r="H133" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I133" s="21"/>
-      <c r="J133" s="21"/>
-      <c r="K133" s="21"/>
-      <c r="L133" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M133" s="21"/>
-      <c r="N133" s="21"/>
-      <c r="O133" s="21"/>
-      <c r="P133" s="21"/>
-      <c r="Q133" s="21"/>
-      <c r="R133" s="21"/>
-      <c r="S133" s="21"/>
-      <c r="T133" s="21"/>
-      <c r="U133" s="21"/>
-      <c r="V133" s="21"/>
-      <c r="W133" s="21"/>
-      <c r="X133" s="21"/>
-      <c r="Y133" s="21"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
+      <c r="K133" s="8"/>
+      <c r="L133" s="9"/>
+      <c r="M133" s="9"/>
+      <c r="N133" s="9"/>
+      <c r="O133" s="9"/>
+      <c r="P133" s="9"/>
+      <c r="Q133" s="9"/>
+      <c r="R133" s="9"/>
+      <c r="S133" s="9"/>
+      <c r="T133" s="9"/>
+      <c r="U133" s="9"/>
+      <c r="V133" s="9"/>
+      <c r="W133" s="9"/>
+      <c r="X133" s="9"/>
+      <c r="Y133" s="9"/>
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B134" s="15" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="C134" s="16"/>
       <c r="D134" s="16"/>
       <c r="E134" s="16"/>
       <c r="F134" s="16"/>
       <c r="G134" s="17"/>
-      <c r="H134" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I134" s="21"/>
-      <c r="J134" s="21"/>
-      <c r="K134" s="21"/>
-      <c r="L134" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="M134" s="22"/>
-      <c r="N134" s="22"/>
-      <c r="O134" s="22"/>
-      <c r="P134" s="22"/>
-      <c r="Q134" s="22"/>
-      <c r="R134" s="22"/>
-      <c r="S134" s="22"/>
-      <c r="T134" s="22"/>
-      <c r="U134" s="22"/>
-      <c r="V134" s="22"/>
-      <c r="W134" s="22"/>
-      <c r="X134" s="22"/>
-      <c r="Y134" s="22"/>
+      <c r="H134" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I134" s="18"/>
+      <c r="J134" s="18"/>
+      <c r="K134" s="18"/>
+      <c r="L134" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="M134" s="18"/>
+      <c r="N134" s="18"/>
+      <c r="O134" s="18"/>
+      <c r="P134" s="18"/>
+      <c r="Q134" s="18"/>
+      <c r="R134" s="18"/>
+      <c r="S134" s="18"/>
+      <c r="T134" s="18"/>
+      <c r="U134" s="18"/>
+      <c r="V134" s="18"/>
+      <c r="W134" s="18"/>
+      <c r="X134" s="18"/>
+      <c r="Y134" s="18"/>
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B135" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C135" s="16"/>
       <c r="D135" s="16"/>
       <c r="E135" s="16"/>
       <c r="F135" s="16"/>
       <c r="G135" s="17"/>
-      <c r="H135" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="I135" s="21"/>
-      <c r="J135" s="21"/>
-      <c r="K135" s="21"/>
-      <c r="L135" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="M135" s="22"/>
-      <c r="N135" s="22"/>
-      <c r="O135" s="22"/>
-      <c r="P135" s="22"/>
-      <c r="Q135" s="22"/>
-      <c r="R135" s="22"/>
-      <c r="S135" s="22"/>
-      <c r="T135" s="22"/>
-      <c r="U135" s="22"/>
-      <c r="V135" s="22"/>
-      <c r="W135" s="22"/>
-      <c r="X135" s="22"/>
-      <c r="Y135" s="22"/>
+      <c r="H135" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I135" s="18"/>
+      <c r="J135" s="18"/>
+      <c r="K135" s="18"/>
+      <c r="L135" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="M135" s="19"/>
+      <c r="N135" s="19"/>
+      <c r="O135" s="19"/>
+      <c r="P135" s="19"/>
+      <c r="Q135" s="19"/>
+      <c r="R135" s="19"/>
+      <c r="S135" s="19"/>
+      <c r="T135" s="19"/>
+      <c r="U135" s="19"/>
+      <c r="V135" s="19"/>
+      <c r="W135" s="19"/>
+      <c r="X135" s="19"/>
+      <c r="Y135" s="19"/>
     </row>
     <row r="136" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B136" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C136" s="16"/>
       <c r="D136" s="16"/>
       <c r="E136" s="16"/>
       <c r="F136" s="16"/>
       <c r="G136" s="17"/>
-      <c r="H136" s="21" t="s">
+      <c r="H136" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="I136" s="21"/>
-      <c r="J136" s="21"/>
-      <c r="K136" s="21"/>
-      <c r="L136" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="M136" s="22"/>
-      <c r="N136" s="22"/>
-      <c r="O136" s="22"/>
-      <c r="P136" s="22"/>
-      <c r="Q136" s="22"/>
-      <c r="R136" s="22"/>
-      <c r="S136" s="22"/>
-      <c r="T136" s="22"/>
-      <c r="U136" s="22"/>
-      <c r="V136" s="22"/>
-      <c r="W136" s="22"/>
-      <c r="X136" s="22"/>
-      <c r="Y136" s="22"/>
+      <c r="I136" s="18"/>
+      <c r="J136" s="18"/>
+      <c r="K136" s="18"/>
+      <c r="L136" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M136" s="19"/>
+      <c r="N136" s="19"/>
+      <c r="O136" s="19"/>
+      <c r="P136" s="19"/>
+      <c r="Q136" s="19"/>
+      <c r="R136" s="19"/>
+      <c r="S136" s="19"/>
+      <c r="T136" s="19"/>
+      <c r="U136" s="19"/>
+      <c r="V136" s="19"/>
+      <c r="W136" s="19"/>
+      <c r="X136" s="19"/>
+      <c r="Y136" s="19"/>
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B137" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C137" s="16"/>
       <c r="D137" s="16"/>
       <c r="E137" s="16"/>
       <c r="F137" s="16"/>
       <c r="G137" s="17"/>
-      <c r="H137" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I137" s="21"/>
-      <c r="J137" s="21"/>
-      <c r="K137" s="21"/>
-      <c r="L137" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M137" s="22"/>
-      <c r="N137" s="22"/>
-      <c r="O137" s="22"/>
-      <c r="P137" s="22"/>
-      <c r="Q137" s="22"/>
-      <c r="R137" s="22"/>
-      <c r="S137" s="22"/>
-      <c r="T137" s="22"/>
-      <c r="U137" s="22"/>
-      <c r="V137" s="22"/>
-      <c r="W137" s="22"/>
-      <c r="X137" s="22"/>
-      <c r="Y137" s="22"/>
+      <c r="H137" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I137" s="18"/>
+      <c r="J137" s="18"/>
+      <c r="K137" s="18"/>
+      <c r="L137" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="M137" s="19"/>
+      <c r="N137" s="19"/>
+      <c r="O137" s="19"/>
+      <c r="P137" s="19"/>
+      <c r="Q137" s="19"/>
+      <c r="R137" s="19"/>
+      <c r="S137" s="19"/>
+      <c r="T137" s="19"/>
+      <c r="U137" s="19"/>
+      <c r="V137" s="19"/>
+      <c r="W137" s="19"/>
+      <c r="X137" s="19"/>
+      <c r="Y137" s="19"/>
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B138" s="15" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C138" s="16"/>
       <c r="D138" s="16"/>
       <c r="E138" s="16"/>
       <c r="F138" s="16"/>
       <c r="G138" s="17"/>
-      <c r="H138" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I138" s="21"/>
-      <c r="J138" s="21"/>
-      <c r="K138" s="21"/>
-      <c r="L138" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="M138" s="22"/>
-      <c r="N138" s="22"/>
-      <c r="O138" s="22"/>
-      <c r="P138" s="22"/>
-      <c r="Q138" s="22"/>
-      <c r="R138" s="22"/>
-      <c r="S138" s="22"/>
-      <c r="T138" s="22"/>
-      <c r="U138" s="22"/>
-      <c r="V138" s="22"/>
-      <c r="W138" s="22"/>
-      <c r="X138" s="22"/>
-      <c r="Y138" s="22"/>
+      <c r="H138" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I138" s="18"/>
+      <c r="J138" s="18"/>
+      <c r="K138" s="18"/>
+      <c r="L138" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="M138" s="19"/>
+      <c r="N138" s="19"/>
+      <c r="O138" s="19"/>
+      <c r="P138" s="19"/>
+      <c r="Q138" s="19"/>
+      <c r="R138" s="19"/>
+      <c r="S138" s="19"/>
+      <c r="T138" s="19"/>
+      <c r="U138" s="19"/>
+      <c r="V138" s="19"/>
+      <c r="W138" s="19"/>
+      <c r="X138" s="19"/>
+      <c r="Y138" s="19"/>
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B139" s="15" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C139" s="16"/>
       <c r="D139" s="16"/>
       <c r="E139" s="16"/>
       <c r="F139" s="16"/>
       <c r="G139" s="17"/>
-      <c r="H139" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="I139" s="21"/>
-      <c r="J139" s="21"/>
-      <c r="K139" s="21"/>
-      <c r="L139" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="M139" s="22"/>
-      <c r="N139" s="22"/>
-      <c r="O139" s="22"/>
-      <c r="P139" s="22"/>
-      <c r="Q139" s="22"/>
-      <c r="R139" s="22"/>
-      <c r="S139" s="22"/>
-      <c r="T139" s="22"/>
-      <c r="U139" s="22"/>
-      <c r="V139" s="22"/>
-      <c r="W139" s="22"/>
-      <c r="X139" s="22"/>
-      <c r="Y139" s="22"/>
+      <c r="H139" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I139" s="18"/>
+      <c r="J139" s="18"/>
+      <c r="K139" s="18"/>
+      <c r="L139" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="M139" s="19"/>
+      <c r="N139" s="19"/>
+      <c r="O139" s="19"/>
+      <c r="P139" s="19"/>
+      <c r="Q139" s="19"/>
+      <c r="R139" s="19"/>
+      <c r="S139" s="19"/>
+      <c r="T139" s="19"/>
+      <c r="U139" s="19"/>
+      <c r="V139" s="19"/>
+      <c r="W139" s="19"/>
+      <c r="X139" s="19"/>
+      <c r="Y139" s="19"/>
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B140" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C140" s="16"/>
       <c r="D140" s="16"/>
       <c r="E140" s="16"/>
       <c r="F140" s="16"/>
       <c r="G140" s="17"/>
-      <c r="H140" s="21" t="s">
+      <c r="H140" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="I140" s="21"/>
-      <c r="J140" s="21"/>
-      <c r="K140" s="21"/>
-      <c r="L140" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="M140" s="22"/>
-      <c r="N140" s="22"/>
-      <c r="O140" s="22"/>
-      <c r="P140" s="22"/>
-      <c r="Q140" s="22"/>
-      <c r="R140" s="22"/>
-      <c r="S140" s="22"/>
-      <c r="T140" s="22"/>
-      <c r="U140" s="22"/>
-      <c r="V140" s="22"/>
-      <c r="W140" s="22"/>
-      <c r="X140" s="22"/>
-      <c r="Y140" s="22"/>
+      <c r="I140" s="18"/>
+      <c r="J140" s="18"/>
+      <c r="K140" s="18"/>
+      <c r="L140" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="M140" s="19"/>
+      <c r="N140" s="19"/>
+      <c r="O140" s="19"/>
+      <c r="P140" s="19"/>
+      <c r="Q140" s="19"/>
+      <c r="R140" s="19"/>
+      <c r="S140" s="19"/>
+      <c r="T140" s="19"/>
+      <c r="U140" s="19"/>
+      <c r="V140" s="19"/>
+      <c r="W140" s="19"/>
+      <c r="X140" s="19"/>
+      <c r="Y140" s="19"/>
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B141" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C141" s="16"/>
       <c r="D141" s="16"/>
       <c r="E141" s="16"/>
       <c r="F141" s="16"/>
       <c r="G141" s="17"/>
-      <c r="H141" s="21" t="s">
+      <c r="H141" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="I141" s="21"/>
-      <c r="J141" s="21"/>
-      <c r="K141" s="21"/>
-      <c r="L141" s="22" t="s">
+      <c r="I141" s="18"/>
+      <c r="J141" s="18"/>
+      <c r="K141" s="18"/>
+      <c r="L141" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="M141" s="19"/>
+      <c r="N141" s="19"/>
+      <c r="O141" s="19"/>
+      <c r="P141" s="19"/>
+      <c r="Q141" s="19"/>
+      <c r="R141" s="19"/>
+      <c r="S141" s="19"/>
+      <c r="T141" s="19"/>
+      <c r="U141" s="19"/>
+      <c r="V141" s="19"/>
+      <c r="W141" s="19"/>
+      <c r="X141" s="19"/>
+      <c r="Y141" s="19"/>
+    </row>
+    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B142" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C142" s="16"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="16"/>
+      <c r="F142" s="16"/>
+      <c r="G142" s="17"/>
+      <c r="H142" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I142" s="18"/>
+      <c r="J142" s="18"/>
+      <c r="K142" s="18"/>
+      <c r="L142" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="M141" s="22"/>
-      <c r="N141" s="22"/>
-      <c r="O141" s="22"/>
-      <c r="P141" s="22"/>
-      <c r="Q141" s="22"/>
-      <c r="R141" s="22"/>
-      <c r="S141" s="22"/>
-      <c r="T141" s="22"/>
-      <c r="U141" s="22"/>
-      <c r="V141" s="22"/>
-      <c r="W141" s="22"/>
-      <c r="X141" s="22"/>
-      <c r="Y141" s="22"/>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="8"/>
-      <c r="J142" s="8"/>
-      <c r="K142" s="8"/>
-      <c r="L142" s="9"/>
-      <c r="M142" s="9"/>
-      <c r="N142" s="9"/>
-      <c r="O142" s="9"/>
-      <c r="P142" s="9"/>
-      <c r="Q142" s="9"/>
-      <c r="R142" s="9"/>
-      <c r="S142" s="9"/>
-      <c r="T142" s="9"/>
-      <c r="U142" s="9"/>
-      <c r="V142" s="9"/>
-      <c r="W142" s="9"/>
-      <c r="X142" s="9"/>
-      <c r="Y142" s="9"/>
+      <c r="M142" s="19"/>
+      <c r="N142" s="19"/>
+      <c r="O142" s="19"/>
+      <c r="P142" s="19"/>
+      <c r="Q142" s="19"/>
+      <c r="R142" s="19"/>
+      <c r="S142" s="19"/>
+      <c r="T142" s="19"/>
+      <c r="U142" s="19"/>
+      <c r="V142" s="19"/>
+      <c r="W142" s="19"/>
+      <c r="X142" s="19"/>
+      <c r="Y142" s="19"/>
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A143" s="7" t="s">
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="K143" s="8"/>
+      <c r="L143" s="9"/>
+      <c r="M143" s="9"/>
+      <c r="N143" s="9"/>
+      <c r="O143" s="9"/>
+      <c r="P143" s="9"/>
+      <c r="Q143" s="9"/>
+      <c r="R143" s="9"/>
+      <c r="S143" s="9"/>
+      <c r="T143" s="9"/>
+      <c r="U143" s="9"/>
+      <c r="V143" s="9"/>
+      <c r="W143" s="9"/>
+      <c r="X143" s="9"/>
+      <c r="Y143" s="9"/>
+    </row>
+    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A144" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B144" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C144" s="16"/>
-      <c r="D144" s="16"/>
-      <c r="E144" s="16"/>
-      <c r="F144" s="16"/>
-      <c r="G144" s="17"/>
-      <c r="H144" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I144" s="21"/>
-      <c r="J144" s="21"/>
-      <c r="K144" s="21"/>
-      <c r="L144" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M144" s="21"/>
-      <c r="N144" s="21"/>
-      <c r="O144" s="21"/>
-      <c r="P144" s="21"/>
-      <c r="Q144" s="21"/>
-      <c r="R144" s="21"/>
-      <c r="S144" s="21"/>
-      <c r="T144" s="21"/>
-      <c r="U144" s="21"/>
-      <c r="V144" s="21"/>
-      <c r="W144" s="21"/>
-      <c r="X144" s="21"/>
-      <c r="Y144" s="21"/>
     </row>
     <row r="145" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B145" s="15" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C145" s="16"/>
       <c r="D145" s="16"/>
       <c r="E145" s="16"/>
       <c r="F145" s="16"/>
       <c r="G145" s="17"/>
-      <c r="H145" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I145" s="16"/>
-      <c r="J145" s="16"/>
-      <c r="K145" s="17"/>
-      <c r="L145" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="M145" s="22"/>
-      <c r="N145" s="22"/>
-      <c r="O145" s="22"/>
-      <c r="P145" s="22"/>
-      <c r="Q145" s="22"/>
-      <c r="R145" s="22"/>
-      <c r="S145" s="22"/>
-      <c r="T145" s="22"/>
-      <c r="U145" s="22"/>
-      <c r="V145" s="22"/>
-      <c r="W145" s="22"/>
-      <c r="X145" s="22"/>
-      <c r="Y145" s="22"/>
+      <c r="H145" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I145" s="18"/>
+      <c r="J145" s="18"/>
+      <c r="K145" s="18"/>
+      <c r="L145" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="M145" s="18"/>
+      <c r="N145" s="18"/>
+      <c r="O145" s="18"/>
+      <c r="P145" s="18"/>
+      <c r="Q145" s="18"/>
+      <c r="R145" s="18"/>
+      <c r="S145" s="18"/>
+      <c r="T145" s="18"/>
+      <c r="U145" s="18"/>
+      <c r="V145" s="18"/>
+      <c r="W145" s="18"/>
+      <c r="X145" s="18"/>
+      <c r="Y145" s="18"/>
     </row>
     <row r="146" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B146" s="15" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C146" s="16"/>
       <c r="D146" s="16"/>
       <c r="E146" s="16"/>
       <c r="F146" s="16"/>
       <c r="G146" s="17"/>
-      <c r="H146" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I146" s="21"/>
-      <c r="J146" s="21"/>
-      <c r="K146" s="21"/>
-      <c r="L146" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M146" s="22"/>
-      <c r="N146" s="22"/>
-      <c r="O146" s="22"/>
-      <c r="P146" s="22"/>
-      <c r="Q146" s="22"/>
-      <c r="R146" s="22"/>
-      <c r="S146" s="22"/>
-      <c r="T146" s="22"/>
-      <c r="U146" s="22"/>
-      <c r="V146" s="22"/>
-      <c r="W146" s="22"/>
-      <c r="X146" s="22"/>
-      <c r="Y146" s="22"/>
+      <c r="H146" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I146" s="16"/>
+      <c r="J146" s="16"/>
+      <c r="K146" s="17"/>
+      <c r="L146" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="M146" s="19"/>
+      <c r="N146" s="19"/>
+      <c r="O146" s="19"/>
+      <c r="P146" s="19"/>
+      <c r="Q146" s="19"/>
+      <c r="R146" s="19"/>
+      <c r="S146" s="19"/>
+      <c r="T146" s="19"/>
+      <c r="U146" s="19"/>
+      <c r="V146" s="19"/>
+      <c r="W146" s="19"/>
+      <c r="X146" s="19"/>
+      <c r="Y146" s="19"/>
     </row>
     <row r="147" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B147" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C147" s="16"/>
       <c r="D147" s="16"/>
       <c r="E147" s="16"/>
       <c r="F147" s="16"/>
       <c r="G147" s="17"/>
-      <c r="H147" s="21" t="s">
+      <c r="H147" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I147" s="18"/>
+      <c r="J147" s="18"/>
+      <c r="K147" s="18"/>
+      <c r="L147" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M147" s="19"/>
+      <c r="N147" s="19"/>
+      <c r="O147" s="19"/>
+      <c r="P147" s="19"/>
+      <c r="Q147" s="19"/>
+      <c r="R147" s="19"/>
+      <c r="S147" s="19"/>
+      <c r="T147" s="19"/>
+      <c r="U147" s="19"/>
+      <c r="V147" s="19"/>
+      <c r="W147" s="19"/>
+      <c r="X147" s="19"/>
+      <c r="Y147" s="19"/>
+    </row>
+    <row r="148" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B148" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" s="16"/>
+      <c r="D148" s="16"/>
+      <c r="E148" s="16"/>
+      <c r="F148" s="16"/>
+      <c r="G148" s="17"/>
+      <c r="H148" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I147" s="21"/>
-      <c r="J147" s="21"/>
-      <c r="K147" s="21"/>
-      <c r="L147" s="22" t="s">
+      <c r="I148" s="18"/>
+      <c r="J148" s="18"/>
+      <c r="K148" s="18"/>
+      <c r="L148" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="M147" s="22"/>
-      <c r="N147" s="22"/>
-      <c r="O147" s="22"/>
-      <c r="P147" s="22"/>
-      <c r="Q147" s="22"/>
-      <c r="R147" s="22"/>
-      <c r="S147" s="22"/>
-      <c r="T147" s="22"/>
-      <c r="U147" s="22"/>
-      <c r="V147" s="22"/>
-      <c r="W147" s="22"/>
-      <c r="X147" s="22"/>
-      <c r="Y147" s="22"/>
+      <c r="M148" s="19"/>
+      <c r="N148" s="19"/>
+      <c r="O148" s="19"/>
+      <c r="P148" s="19"/>
+      <c r="Q148" s="19"/>
+      <c r="R148" s="19"/>
+      <c r="S148" s="19"/>
+      <c r="T148" s="19"/>
+      <c r="U148" s="19"/>
+      <c r="V148" s="19"/>
+      <c r="W148" s="19"/>
+      <c r="X148" s="19"/>
+      <c r="Y148" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="331">
+  <mergeCells count="335">
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="O51:Y51"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:Y4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="O6:Y6"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:Y10"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:Y5"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:Y12"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="O7:Y7"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="O22:Y22"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:Y25"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="O19:Y19"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="O21:Y21"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:Y29"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:Y32"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:Y27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:Y28"/>
+    <mergeCell ref="L37:Y37"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:Y34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:Y35"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:Y33"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:Y58"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:Y60"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:Y42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:Y43"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="O50:Y50"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:Y56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:Y57"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:Y80"/>
+    <mergeCell ref="O71:Y71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="O72:Y72"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="O76:Y76"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:Y81"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="O77:Y77"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="K100:N100"/>
+    <mergeCell ref="O100:Y100"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="K101:N101"/>
+    <mergeCell ref="O101:Y101"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:Y87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:Y88"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:Y95"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:Y91"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:Y92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="H128:J128"/>
+    <mergeCell ref="K128:N128"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:Y113"/>
+    <mergeCell ref="L114:Y114"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:Y120"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:Y121"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:Y119"/>
+    <mergeCell ref="O128:Y128"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:Y135"/>
     <mergeCell ref="B136:G136"/>
     <mergeCell ref="H136:K136"/>
     <mergeCell ref="L136:Y136"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="H137:K137"/>
-    <mergeCell ref="L137:Y137"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="L58:Y58"/>
-    <mergeCell ref="H128:J128"/>
-    <mergeCell ref="K128:N128"/>
-    <mergeCell ref="O128:Y128"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:N129"/>
-    <mergeCell ref="O129:Y129"/>
-    <mergeCell ref="H114:K114"/>
-    <mergeCell ref="L114:Y114"/>
-    <mergeCell ref="H121:K121"/>
-    <mergeCell ref="L121:Y121"/>
-    <mergeCell ref="H117:K117"/>
-    <mergeCell ref="L117:Y117"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="H110:K110"/>
-    <mergeCell ref="L110:Y110"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="H111:K111"/>
-    <mergeCell ref="L111:Y111"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="H108:K108"/>
-    <mergeCell ref="L108:Y108"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="H109:K109"/>
-    <mergeCell ref="L109:Y109"/>
-    <mergeCell ref="B106:G106"/>
-    <mergeCell ref="H106:K106"/>
-    <mergeCell ref="L106:Y106"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="H107:K107"/>
-    <mergeCell ref="L107:Y107"/>
-    <mergeCell ref="K101:N101"/>
-    <mergeCell ref="O101:Y101"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="K103:N103"/>
-    <mergeCell ref="O103:Y103"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="K102:N102"/>
-    <mergeCell ref="O102:Y102"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B101:G101"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="L93:Y93"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="O74:Y74"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="H88:K88"/>
-    <mergeCell ref="L88:Y88"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="H89:K89"/>
-    <mergeCell ref="L89:Y89"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="L82:Y82"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="L92:Y92"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="O72:Y72"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="O73:Y73"/>
-    <mergeCell ref="O51:Y51"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="L54:Y54"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:Y64"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="L65:Y65"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="L62:Y62"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="L63:Y63"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="L26:Y26"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="O48:Y48"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:Y40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:Y41"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:Y38"/>
-    <mergeCell ref="B138:G138"/>
-    <mergeCell ref="H138:K138"/>
-    <mergeCell ref="L138:Y138"/>
+    <mergeCell ref="B131:G131"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:Y134"/>
+    <mergeCell ref="H131:J131"/>
+    <mergeCell ref="K131:N131"/>
+    <mergeCell ref="O131:Y131"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="L147:Y147"/>
+    <mergeCell ref="B148:G148"/>
+    <mergeCell ref="H148:K148"/>
+    <mergeCell ref="L148:Y148"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:Y141"/>
+    <mergeCell ref="B142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:Y142"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="L145:Y145"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="L146:Y146"/>
     <mergeCell ref="B139:G139"/>
     <mergeCell ref="H139:K139"/>
     <mergeCell ref="L139:Y139"/>
-    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:Y140"/>
+    <mergeCell ref="B135:G135"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:Y11"/>
     <mergeCell ref="B14:G14"/>
@@ -5069,136 +5185,22 @@
     <mergeCell ref="K49:N49"/>
     <mergeCell ref="O49:Y49"/>
     <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="H146:K146"/>
-    <mergeCell ref="L146:Y146"/>
-    <mergeCell ref="B147:G147"/>
-    <mergeCell ref="H147:K147"/>
-    <mergeCell ref="L147:Y147"/>
-    <mergeCell ref="B140:G140"/>
-    <mergeCell ref="H140:K140"/>
-    <mergeCell ref="L140:Y140"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="H141:K141"/>
-    <mergeCell ref="L141:Y141"/>
-    <mergeCell ref="B144:G144"/>
-    <mergeCell ref="H144:K144"/>
-    <mergeCell ref="L144:Y144"/>
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="H145:K145"/>
-    <mergeCell ref="L145:Y145"/>
-    <mergeCell ref="H134:K134"/>
-    <mergeCell ref="L134:Y134"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="H135:K135"/>
-    <mergeCell ref="L135:Y135"/>
-    <mergeCell ref="B130:G130"/>
-    <mergeCell ref="B133:G133"/>
-    <mergeCell ref="H133:K133"/>
-    <mergeCell ref="L133:Y133"/>
-    <mergeCell ref="H130:J130"/>
-    <mergeCell ref="K130:N130"/>
-    <mergeCell ref="O130:Y130"/>
-    <mergeCell ref="B129:G129"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="B127:G127"/>
-    <mergeCell ref="H127:J127"/>
-    <mergeCell ref="K127:N127"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="H113:K113"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="H112:K112"/>
-    <mergeCell ref="L112:Y112"/>
-    <mergeCell ref="L113:Y113"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="H119:K119"/>
-    <mergeCell ref="L119:Y119"/>
-    <mergeCell ref="H120:K120"/>
-    <mergeCell ref="L120:Y120"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="H118:K118"/>
-    <mergeCell ref="L118:Y118"/>
-    <mergeCell ref="O127:Y127"/>
-    <mergeCell ref="B99:G99"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="K99:N99"/>
-    <mergeCell ref="O99:Y99"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="K100:N100"/>
-    <mergeCell ref="O100:Y100"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="H86:K86"/>
-    <mergeCell ref="L86:Y86"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="H87:K87"/>
-    <mergeCell ref="L87:Y87"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="L94:Y94"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="L90:Y90"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="H91:K91"/>
-    <mergeCell ref="L91:Y91"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="L83:Y83"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="L81:Y81"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="L80:Y80"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="O76:Y76"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="L79:Y79"/>
-    <mergeCell ref="O70:Y70"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="O71:Y71"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="O75:Y75"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:Y57"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="L59:Y59"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="L42:Y42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="L43:Y43"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="O50:Y50"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="L55:Y55"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="L56:Y56"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:Y26"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="O48:Y48"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:Y40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:Y41"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:Y38"/>
     <mergeCell ref="B39:G39"/>
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:Y39"/>
@@ -5207,66 +5209,105 @@
     <mergeCell ref="L36:Y36"/>
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="H37:K37"/>
-    <mergeCell ref="L37:Y37"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="L34:Y34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="L35:Y35"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="L33:Y33"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="L29:Y29"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="L32:Y32"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="L27:Y27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="L28:Y28"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="L25:Y25"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="O19:Y19"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="O21:Y21"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:Y12"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="O7:Y7"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="O22:Y22"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:Y4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="O6:Y6"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:Y10"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:Y5"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="O73:Y73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="O74:Y74"/>
+    <mergeCell ref="O52:Y52"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:Y55"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:Y65"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:Y66"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:Y63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:Y64"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:Y94"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="O75:Y75"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:Y89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:Y90"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:Y83"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:Y93"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:Y84"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:Y82"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:Y107"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:Y108"/>
+    <mergeCell ref="K102:N102"/>
+    <mergeCell ref="O102:Y102"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="K104:N104"/>
+    <mergeCell ref="O104:Y104"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="K103:N103"/>
+    <mergeCell ref="O103:Y103"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:Y112"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:Y109"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:Y110"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:Y137"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:Y138"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:Y59"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="K129:N129"/>
+    <mergeCell ref="O129:Y129"/>
+    <mergeCell ref="H130:J130"/>
+    <mergeCell ref="K130:N130"/>
+    <mergeCell ref="O130:Y130"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:Y115"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:Y122"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:Y118"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:Y111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/document/API接口文档.xlsx
+++ b/document/API接口文档.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27417"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiuhong/Desktop/code/xkClient/document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiuhong/Documents/work/2-SoftwareDevelop/2017DK07-渔船监管大数据平台/source/xkClient/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="125">
   <si>
     <t>必选</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,9 +428,6 @@
   </si>
   <si>
     <t>6.1.1 短信明细</t>
-  </si>
-  <si>
-    <t>6.2 发送参数</t>
   </si>
   <si>
     <t>短信推送</t>
@@ -679,12 +676,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -692,6 +683,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1116,7 +1113,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
@@ -1147,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y148"/>
+  <dimension ref="A1:Y143"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="AF143" sqref="AF143"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="AS47" sqref="AS47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1229,19 +1226,19 @@
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
       <c r="N5" s="17"/>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="22"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="20"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
@@ -1263,19 +1260,19 @@
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
       <c r="N6" s="17"/>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="22"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="20"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
@@ -1297,19 +1294,19 @@
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
       <c r="N7" s="17"/>
-      <c r="O7" s="20" t="s">
+      <c r="O7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="22"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="20"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -1325,28 +1322,28 @@
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18" t="s">
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B11" s="15" t="s">
@@ -1363,22 +1360,22 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="17"/>
-      <c r="L11" s="19" t="s">
+      <c r="L11" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
@@ -1389,28 +1386,28 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="19" t="s">
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
@@ -1421,28 +1418,28 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="19" t="s">
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B14" s="15" t="s">
@@ -1453,28 +1450,28 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="17"/>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="19" t="s">
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
@@ -1543,19 +1540,19 @@
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
       <c r="N20" s="17"/>
-      <c r="O20" s="20" t="s">
+      <c r="O20" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="22"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="20"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B21" s="15" t="s">
@@ -1577,19 +1574,19 @@
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
       <c r="N21" s="17"/>
-      <c r="O21" s="20" t="s">
+      <c r="O21" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="22"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="20"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B22" s="15" t="s">
@@ -1611,19 +1608,19 @@
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
       <c r="N22" s="17"/>
-      <c r="O22" s="20" t="s">
+      <c r="O22" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="22"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="20"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
@@ -1639,28 +1636,28 @@
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18" t="s">
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="18"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B26" s="15" t="s">
@@ -1677,22 +1674,22 @@
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
       <c r="K26" s="17"/>
-      <c r="L26" s="19" t="s">
+      <c r="L26" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B27" s="15" t="s">
@@ -1703,28 +1700,28 @@
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="17"/>
-      <c r="H27" s="18" t="s">
+      <c r="H27" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="19" t="s">
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B28" s="15" t="s">
@@ -1735,28 +1732,28 @@
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="18" t="s">
+      <c r="H28" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="19" t="s">
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B29" s="15" t="s">
@@ -1767,28 +1764,28 @@
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="18" t="s">
+      <c r="H29" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="19" t="s">
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B30" s="8"/>
@@ -1854,28 +1851,28 @@
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="18" t="s">
+      <c r="H32" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18" t="s">
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="18"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B33" s="15" t="s">
@@ -1886,28 +1883,28 @@
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="18" t="s">
+      <c r="H33" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="19" t="s">
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B34" s="15" t="s">
@@ -1918,28 +1915,28 @@
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="18" t="s">
+      <c r="H34" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="19" t="s">
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="19"/>
-      <c r="X34" s="19"/>
-      <c r="Y34" s="19"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B35" s="15" t="s">
@@ -1950,28 +1947,28 @@
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="17"/>
-      <c r="H35" s="18" t="s">
+      <c r="H35" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="19" t="s">
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="19"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B36" s="15" t="s">
@@ -1982,28 +1979,28 @@
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="17"/>
-      <c r="H36" s="18" t="s">
+      <c r="H36" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="19" t="s">
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="19"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B37" s="15" t="s">
@@ -2014,28 +2011,28 @@
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="17"/>
-      <c r="H37" s="18" t="s">
+      <c r="H37" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="19" t="s">
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="19"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B38" s="15" t="s">
@@ -2046,28 +2043,28 @@
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
       <c r="G38" s="17"/>
-      <c r="H38" s="18" t="s">
+      <c r="H38" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="19" t="s">
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B39" s="15" t="s">
@@ -2078,28 +2075,28 @@
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="17"/>
-      <c r="H39" s="18" t="s">
+      <c r="H39" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="19" t="s">
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B40" s="15" t="s">
@@ -2110,28 +2107,28 @@
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="18" t="s">
+      <c r="H40" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="19" t="s">
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="19"/>
-      <c r="V40" s="19"/>
-      <c r="W40" s="19"/>
-      <c r="X40" s="19"/>
-      <c r="Y40" s="19"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B41" s="15" t="s">
@@ -2142,28 +2139,28 @@
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="18" t="s">
+      <c r="H41" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="19" t="s">
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="19"/>
-      <c r="W41" s="19"/>
-      <c r="X41" s="19"/>
-      <c r="Y41" s="19"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="22"/>
+      <c r="W41" s="22"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B42" s="23" t="s">
@@ -2174,28 +2171,28 @@
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
       <c r="G42" s="25"/>
-      <c r="H42" s="18" t="s">
+      <c r="H42" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="19" t="s">
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="19"/>
-      <c r="W42" s="19"/>
-      <c r="X42" s="19"/>
-      <c r="Y42" s="19"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B43" s="23" t="s">
@@ -2206,28 +2203,28 @@
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="18" t="s">
+      <c r="H43" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="19" t="s">
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="19"/>
-      <c r="V43" s="19"/>
-      <c r="W43" s="19"/>
-      <c r="X43" s="19"/>
-      <c r="Y43" s="19"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B44" s="8"/>
@@ -2322,19 +2319,19 @@
       <c r="L49" s="16"/>
       <c r="M49" s="16"/>
       <c r="N49" s="17"/>
-      <c r="O49" s="20" t="s">
+      <c r="O49" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="21"/>
-      <c r="T49" s="21"/>
-      <c r="U49" s="21"/>
-      <c r="V49" s="21"/>
-      <c r="W49" s="21"/>
-      <c r="X49" s="21"/>
-      <c r="Y49" s="22"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="20"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B50" s="15" t="s">
@@ -2356,19 +2353,19 @@
       <c r="L50" s="16"/>
       <c r="M50" s="16"/>
       <c r="N50" s="17"/>
-      <c r="O50" s="20" t="s">
+      <c r="O50" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="21"/>
-      <c r="V50" s="21"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="21"/>
-      <c r="Y50" s="22"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="20"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B51" s="15" t="s">
@@ -2390,23 +2387,23 @@
       <c r="L51" s="16"/>
       <c r="M51" s="16"/>
       <c r="N51" s="17"/>
-      <c r="O51" s="20" t="s">
+      <c r="O51" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="21"/>
-      <c r="W51" s="21"/>
-      <c r="X51" s="21"/>
-      <c r="Y51" s="22"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="20"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B52" s="15" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
@@ -2424,19 +2421,19 @@
       <c r="L52" s="16"/>
       <c r="M52" s="16"/>
       <c r="N52" s="17"/>
-      <c r="O52" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="21"/>
-      <c r="S52" s="21"/>
-      <c r="T52" s="21"/>
-      <c r="U52" s="21"/>
-      <c r="V52" s="21"/>
-      <c r="W52" s="21"/>
-      <c r="X52" s="21"/>
-      <c r="Y52" s="22"/>
+      <c r="O52" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="20"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
@@ -2452,28 +2449,28 @@
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
       <c r="G55" s="17"/>
-      <c r="H55" s="18" t="s">
+      <c r="H55" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18" t="s">
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="18"/>
-      <c r="U55" s="18"/>
-      <c r="V55" s="18"/>
-      <c r="W55" s="18"/>
-      <c r="X55" s="18"/>
-      <c r="Y55" s="18"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="21"/>
+      <c r="V55" s="21"/>
+      <c r="W55" s="21"/>
+      <c r="X55" s="21"/>
+      <c r="Y55" s="21"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B56" s="15" t="s">
@@ -2490,22 +2487,22 @@
       <c r="I56" s="16"/>
       <c r="J56" s="16"/>
       <c r="K56" s="17"/>
-      <c r="L56" s="19" t="s">
+      <c r="L56" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="19"/>
-      <c r="P56" s="19"/>
-      <c r="Q56" s="19"/>
-      <c r="R56" s="19"/>
-      <c r="S56" s="19"/>
-      <c r="T56" s="19"/>
-      <c r="U56" s="19"/>
-      <c r="V56" s="19"/>
-      <c r="W56" s="19"/>
-      <c r="X56" s="19"/>
-      <c r="Y56" s="19"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="22"/>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="22"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B57" s="15" t="s">
@@ -2516,28 +2513,28 @@
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
       <c r="G57" s="17"/>
-      <c r="H57" s="18" t="s">
+      <c r="H57" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="19" t="s">
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="19"/>
-      <c r="S57" s="19"/>
-      <c r="T57" s="19"/>
-      <c r="U57" s="19"/>
-      <c r="V57" s="19"/>
-      <c r="W57" s="19"/>
-      <c r="X57" s="19"/>
-      <c r="Y57" s="19"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="22"/>
+      <c r="T57" s="22"/>
+      <c r="U57" s="22"/>
+      <c r="V57" s="22"/>
+      <c r="W57" s="22"/>
+      <c r="X57" s="22"/>
+      <c r="Y57" s="22"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B58" s="15" t="s">
@@ -2548,28 +2545,28 @@
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
       <c r="G58" s="17"/>
-      <c r="H58" s="18" t="s">
+      <c r="H58" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="19" t="s">
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="19"/>
-      <c r="S58" s="19"/>
-      <c r="T58" s="19"/>
-      <c r="U58" s="19"/>
-      <c r="V58" s="19"/>
-      <c r="W58" s="19"/>
-      <c r="X58" s="19"/>
-      <c r="Y58" s="19"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="22"/>
+      <c r="T58" s="22"/>
+      <c r="U58" s="22"/>
+      <c r="V58" s="22"/>
+      <c r="W58" s="22"/>
+      <c r="X58" s="22"/>
+      <c r="Y58" s="22"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B59" s="15" t="s">
@@ -2580,28 +2577,28 @@
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
       <c r="G59" s="17"/>
-      <c r="H59" s="18" t="s">
+      <c r="H59" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="19" t="s">
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
-      <c r="S59" s="19"/>
-      <c r="T59" s="19"/>
-      <c r="U59" s="19"/>
-      <c r="V59" s="19"/>
-      <c r="W59" s="19"/>
-      <c r="X59" s="19"/>
-      <c r="Y59" s="19"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
+      <c r="S59" s="22"/>
+      <c r="T59" s="22"/>
+      <c r="U59" s="22"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="22"/>
+      <c r="X59" s="22"/>
+      <c r="Y59" s="22"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B60" s="15" t="s">
@@ -2612,28 +2609,28 @@
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
       <c r="G60" s="17"/>
-      <c r="H60" s="18" t="s">
+      <c r="H60" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="19" t="s">
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="19"/>
-      <c r="S60" s="19"/>
-      <c r="T60" s="19"/>
-      <c r="U60" s="19"/>
-      <c r="V60" s="19"/>
-      <c r="W60" s="19"/>
-      <c r="X60" s="19"/>
-      <c r="Y60" s="19"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="22"/>
+      <c r="Q60" s="22"/>
+      <c r="R60" s="22"/>
+      <c r="S60" s="22"/>
+      <c r="T60" s="22"/>
+      <c r="U60" s="22"/>
+      <c r="V60" s="22"/>
+      <c r="W60" s="22"/>
+      <c r="X60" s="22"/>
+      <c r="Y60" s="22"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B61" s="8"/>
@@ -2699,28 +2696,28 @@
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
       <c r="G63" s="17"/>
-      <c r="H63" s="18" t="s">
+      <c r="H63" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18" t="s">
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M63" s="18"/>
-      <c r="N63" s="18"/>
-      <c r="O63" s="18"/>
-      <c r="P63" s="18"/>
-      <c r="Q63" s="18"/>
-      <c r="R63" s="18"/>
-      <c r="S63" s="18"/>
-      <c r="T63" s="18"/>
-      <c r="U63" s="18"/>
-      <c r="V63" s="18"/>
-      <c r="W63" s="18"/>
-      <c r="X63" s="18"/>
-      <c r="Y63" s="18"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21"/>
+      <c r="R63" s="21"/>
+      <c r="S63" s="21"/>
+      <c r="T63" s="21"/>
+      <c r="U63" s="21"/>
+      <c r="V63" s="21"/>
+      <c r="W63" s="21"/>
+      <c r="X63" s="21"/>
+      <c r="Y63" s="21"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B64" s="15" t="s">
@@ -2731,28 +2728,28 @@
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
       <c r="G64" s="17"/>
-      <c r="H64" s="18" t="s">
+      <c r="H64" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="19" t="s">
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="19"/>
-      <c r="P64" s="19"/>
-      <c r="Q64" s="19"/>
-      <c r="R64" s="19"/>
-      <c r="S64" s="19"/>
-      <c r="T64" s="19"/>
-      <c r="U64" s="19"/>
-      <c r="V64" s="19"/>
-      <c r="W64" s="19"/>
-      <c r="X64" s="19"/>
-      <c r="Y64" s="19"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="22"/>
+      <c r="Q64" s="22"/>
+      <c r="R64" s="22"/>
+      <c r="S64" s="22"/>
+      <c r="T64" s="22"/>
+      <c r="U64" s="22"/>
+      <c r="V64" s="22"/>
+      <c r="W64" s="22"/>
+      <c r="X64" s="22"/>
+      <c r="Y64" s="22"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B65" s="15" t="s">
@@ -2763,28 +2760,28 @@
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
       <c r="G65" s="17"/>
-      <c r="H65" s="18" t="s">
+      <c r="H65" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="19" t="s">
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="19"/>
-      <c r="P65" s="19"/>
-      <c r="Q65" s="19"/>
-      <c r="R65" s="19"/>
-      <c r="S65" s="19"/>
-      <c r="T65" s="19"/>
-      <c r="U65" s="19"/>
-      <c r="V65" s="19"/>
-      <c r="W65" s="19"/>
-      <c r="X65" s="19"/>
-      <c r="Y65" s="19"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="22"/>
+      <c r="P65" s="22"/>
+      <c r="Q65" s="22"/>
+      <c r="R65" s="22"/>
+      <c r="S65" s="22"/>
+      <c r="T65" s="22"/>
+      <c r="U65" s="22"/>
+      <c r="V65" s="22"/>
+      <c r="W65" s="22"/>
+      <c r="X65" s="22"/>
+      <c r="Y65" s="22"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B66" s="15" t="s">
@@ -2795,28 +2792,28 @@
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
       <c r="G66" s="17"/>
-      <c r="H66" s="18" t="s">
+      <c r="H66" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="19" t="s">
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="M66" s="19"/>
-      <c r="N66" s="19"/>
-      <c r="O66" s="19"/>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="19"/>
-      <c r="R66" s="19"/>
-      <c r="S66" s="19"/>
-      <c r="T66" s="19"/>
-      <c r="U66" s="19"/>
-      <c r="V66" s="19"/>
-      <c r="W66" s="19"/>
-      <c r="X66" s="19"/>
-      <c r="Y66" s="19"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="22"/>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="22"/>
+      <c r="R66" s="22"/>
+      <c r="S66" s="22"/>
+      <c r="T66" s="22"/>
+      <c r="U66" s="22"/>
+      <c r="V66" s="22"/>
+      <c r="W66" s="22"/>
+      <c r="X66" s="22"/>
+      <c r="Y66" s="22"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
@@ -2885,19 +2882,19 @@
       <c r="L72" s="16"/>
       <c r="M72" s="16"/>
       <c r="N72" s="17"/>
-      <c r="O72" s="20" t="s">
+      <c r="O72" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="P72" s="21"/>
-      <c r="Q72" s="21"/>
-      <c r="R72" s="21"/>
-      <c r="S72" s="21"/>
-      <c r="T72" s="21"/>
-      <c r="U72" s="21"/>
-      <c r="V72" s="21"/>
-      <c r="W72" s="21"/>
-      <c r="X72" s="21"/>
-      <c r="Y72" s="22"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="19"/>
+      <c r="S72" s="19"/>
+      <c r="T72" s="19"/>
+      <c r="U72" s="19"/>
+      <c r="V72" s="19"/>
+      <c r="W72" s="19"/>
+      <c r="X72" s="19"/>
+      <c r="Y72" s="20"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B73" s="15" t="s">
@@ -2919,19 +2916,19 @@
       <c r="L73" s="16"/>
       <c r="M73" s="16"/>
       <c r="N73" s="17"/>
-      <c r="O73" s="20" t="s">
+      <c r="O73" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="P73" s="21"/>
-      <c r="Q73" s="21"/>
-      <c r="R73" s="21"/>
-      <c r="S73" s="21"/>
-      <c r="T73" s="21"/>
-      <c r="U73" s="21"/>
-      <c r="V73" s="21"/>
-      <c r="W73" s="21"/>
-      <c r="X73" s="21"/>
-      <c r="Y73" s="22"/>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="19"/>
+      <c r="S73" s="19"/>
+      <c r="T73" s="19"/>
+      <c r="U73" s="19"/>
+      <c r="V73" s="19"/>
+      <c r="W73" s="19"/>
+      <c r="X73" s="19"/>
+      <c r="Y73" s="20"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B74" s="15" t="s">
@@ -2953,19 +2950,19 @@
       <c r="L74" s="16"/>
       <c r="M74" s="16"/>
       <c r="N74" s="17"/>
-      <c r="O74" s="20" t="s">
+      <c r="O74" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="P74" s="21"/>
-      <c r="Q74" s="21"/>
-      <c r="R74" s="21"/>
-      <c r="S74" s="21"/>
-      <c r="T74" s="21"/>
-      <c r="U74" s="21"/>
-      <c r="V74" s="21"/>
-      <c r="W74" s="21"/>
-      <c r="X74" s="21"/>
-      <c r="Y74" s="22"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="19"/>
+      <c r="S74" s="19"/>
+      <c r="T74" s="19"/>
+      <c r="U74" s="19"/>
+      <c r="V74" s="19"/>
+      <c r="W74" s="19"/>
+      <c r="X74" s="19"/>
+      <c r="Y74" s="20"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B75" s="15" t="s">
@@ -2987,19 +2984,19 @@
       <c r="L75" s="16"/>
       <c r="M75" s="16"/>
       <c r="N75" s="17"/>
-      <c r="O75" s="20" t="s">
+      <c r="O75" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P75" s="21"/>
-      <c r="Q75" s="21"/>
-      <c r="R75" s="21"/>
-      <c r="S75" s="21"/>
-      <c r="T75" s="21"/>
-      <c r="U75" s="21"/>
-      <c r="V75" s="21"/>
-      <c r="W75" s="21"/>
-      <c r="X75" s="21"/>
-      <c r="Y75" s="22"/>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="19"/>
+      <c r="S75" s="19"/>
+      <c r="T75" s="19"/>
+      <c r="U75" s="19"/>
+      <c r="V75" s="19"/>
+      <c r="W75" s="19"/>
+      <c r="X75" s="19"/>
+      <c r="Y75" s="20"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B76" s="15" t="s">
@@ -3021,19 +3018,19 @@
       <c r="L76" s="16"/>
       <c r="M76" s="16"/>
       <c r="N76" s="17"/>
-      <c r="O76" s="20" t="s">
+      <c r="O76" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="P76" s="21"/>
-      <c r="Q76" s="21"/>
-      <c r="R76" s="21"/>
-      <c r="S76" s="21"/>
-      <c r="T76" s="21"/>
-      <c r="U76" s="21"/>
-      <c r="V76" s="21"/>
-      <c r="W76" s="21"/>
-      <c r="X76" s="21"/>
-      <c r="Y76" s="22"/>
+      <c r="P76" s="19"/>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="19"/>
+      <c r="S76" s="19"/>
+      <c r="T76" s="19"/>
+      <c r="U76" s="19"/>
+      <c r="V76" s="19"/>
+      <c r="W76" s="19"/>
+      <c r="X76" s="19"/>
+      <c r="Y76" s="20"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B77" s="15" t="s">
@@ -3055,19 +3052,19 @@
       <c r="L77" s="16"/>
       <c r="M77" s="16"/>
       <c r="N77" s="17"/>
-      <c r="O77" s="20" t="s">
+      <c r="O77" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="P77" s="21"/>
-      <c r="Q77" s="21"/>
-      <c r="R77" s="21"/>
-      <c r="S77" s="21"/>
-      <c r="T77" s="21"/>
-      <c r="U77" s="21"/>
-      <c r="V77" s="21"/>
-      <c r="W77" s="21"/>
-      <c r="X77" s="21"/>
-      <c r="Y77" s="22"/>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="19"/>
+      <c r="S77" s="19"/>
+      <c r="T77" s="19"/>
+      <c r="U77" s="19"/>
+      <c r="V77" s="19"/>
+      <c r="W77" s="19"/>
+      <c r="X77" s="19"/>
+      <c r="Y77" s="20"/>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
@@ -3083,28 +3080,28 @@
       <c r="E80" s="16"/>
       <c r="F80" s="16"/>
       <c r="G80" s="17"/>
-      <c r="H80" s="18" t="s">
+      <c r="H80" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18" t="s">
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="18"/>
-      <c r="P80" s="18"/>
-      <c r="Q80" s="18"/>
-      <c r="R80" s="18"/>
-      <c r="S80" s="18"/>
-      <c r="T80" s="18"/>
-      <c r="U80" s="18"/>
-      <c r="V80" s="18"/>
-      <c r="W80" s="18"/>
-      <c r="X80" s="18"/>
-      <c r="Y80" s="18"/>
+      <c r="M80" s="21"/>
+      <c r="N80" s="21"/>
+      <c r="O80" s="21"/>
+      <c r="P80" s="21"/>
+      <c r="Q80" s="21"/>
+      <c r="R80" s="21"/>
+      <c r="S80" s="21"/>
+      <c r="T80" s="21"/>
+      <c r="U80" s="21"/>
+      <c r="V80" s="21"/>
+      <c r="W80" s="21"/>
+      <c r="X80" s="21"/>
+      <c r="Y80" s="21"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B81" s="15" t="s">
@@ -3121,22 +3118,22 @@
       <c r="I81" s="16"/>
       <c r="J81" s="16"/>
       <c r="K81" s="17"/>
-      <c r="L81" s="19" t="s">
+      <c r="L81" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="M81" s="19"/>
-      <c r="N81" s="19"/>
-      <c r="O81" s="19"/>
-      <c r="P81" s="19"/>
-      <c r="Q81" s="19"/>
-      <c r="R81" s="19"/>
-      <c r="S81" s="19"/>
-      <c r="T81" s="19"/>
-      <c r="U81" s="19"/>
-      <c r="V81" s="19"/>
-      <c r="W81" s="19"/>
-      <c r="X81" s="19"/>
-      <c r="Y81" s="19"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="22"/>
+      <c r="O81" s="22"/>
+      <c r="P81" s="22"/>
+      <c r="Q81" s="22"/>
+      <c r="R81" s="22"/>
+      <c r="S81" s="22"/>
+      <c r="T81" s="22"/>
+      <c r="U81" s="22"/>
+      <c r="V81" s="22"/>
+      <c r="W81" s="22"/>
+      <c r="X81" s="22"/>
+      <c r="Y81" s="22"/>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B82" s="15" t="s">
@@ -3147,28 +3144,28 @@
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
       <c r="G82" s="17"/>
-      <c r="H82" s="18" t="s">
+      <c r="H82" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="19" t="s">
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="M82" s="19"/>
-      <c r="N82" s="19"/>
-      <c r="O82" s="19"/>
-      <c r="P82" s="19"/>
-      <c r="Q82" s="19"/>
-      <c r="R82" s="19"/>
-      <c r="S82" s="19"/>
-      <c r="T82" s="19"/>
-      <c r="U82" s="19"/>
-      <c r="V82" s="19"/>
-      <c r="W82" s="19"/>
-      <c r="X82" s="19"/>
-      <c r="Y82" s="19"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="22"/>
+      <c r="O82" s="22"/>
+      <c r="P82" s="22"/>
+      <c r="Q82" s="22"/>
+      <c r="R82" s="22"/>
+      <c r="S82" s="22"/>
+      <c r="T82" s="22"/>
+      <c r="U82" s="22"/>
+      <c r="V82" s="22"/>
+      <c r="W82" s="22"/>
+      <c r="X82" s="22"/>
+      <c r="Y82" s="22"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B83" s="15" t="s">
@@ -3179,28 +3176,28 @@
       <c r="E83" s="16"/>
       <c r="F83" s="16"/>
       <c r="G83" s="17"/>
-      <c r="H83" s="18" t="s">
+      <c r="H83" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="19" t="s">
+      <c r="I83" s="21"/>
+      <c r="J83" s="21"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="M83" s="19"/>
-      <c r="N83" s="19"/>
-      <c r="O83" s="19"/>
-      <c r="P83" s="19"/>
-      <c r="Q83" s="19"/>
-      <c r="R83" s="19"/>
-      <c r="S83" s="19"/>
-      <c r="T83" s="19"/>
-      <c r="U83" s="19"/>
-      <c r="V83" s="19"/>
-      <c r="W83" s="19"/>
-      <c r="X83" s="19"/>
-      <c r="Y83" s="19"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="22"/>
+      <c r="O83" s="22"/>
+      <c r="P83" s="22"/>
+      <c r="Q83" s="22"/>
+      <c r="R83" s="22"/>
+      <c r="S83" s="22"/>
+      <c r="T83" s="22"/>
+      <c r="U83" s="22"/>
+      <c r="V83" s="22"/>
+      <c r="W83" s="22"/>
+      <c r="X83" s="22"/>
+      <c r="Y83" s="22"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B84" s="15" t="s">
@@ -3211,28 +3208,28 @@
       <c r="E84" s="16"/>
       <c r="F84" s="16"/>
       <c r="G84" s="17"/>
-      <c r="H84" s="18" t="s">
+      <c r="H84" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="18"/>
-      <c r="L84" s="19" t="s">
+      <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="M84" s="19"/>
-      <c r="N84" s="19"/>
-      <c r="O84" s="19"/>
-      <c r="P84" s="19"/>
-      <c r="Q84" s="19"/>
-      <c r="R84" s="19"/>
-      <c r="S84" s="19"/>
-      <c r="T84" s="19"/>
-      <c r="U84" s="19"/>
-      <c r="V84" s="19"/>
-      <c r="W84" s="19"/>
-      <c r="X84" s="19"/>
-      <c r="Y84" s="19"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="22"/>
+      <c r="O84" s="22"/>
+      <c r="P84" s="22"/>
+      <c r="Q84" s="22"/>
+      <c r="R84" s="22"/>
+      <c r="S84" s="22"/>
+      <c r="T84" s="22"/>
+      <c r="U84" s="22"/>
+      <c r="V84" s="22"/>
+      <c r="W84" s="22"/>
+      <c r="X84" s="22"/>
+      <c r="Y84" s="22"/>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B85" s="8"/>
@@ -3298,28 +3295,28 @@
       <c r="E87" s="16"/>
       <c r="F87" s="16"/>
       <c r="G87" s="17"/>
-      <c r="H87" s="18" t="s">
+      <c r="H87" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="18" t="s">
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M87" s="18"/>
-      <c r="N87" s="18"/>
-      <c r="O87" s="18"/>
-      <c r="P87" s="18"/>
-      <c r="Q87" s="18"/>
-      <c r="R87" s="18"/>
-      <c r="S87" s="18"/>
-      <c r="T87" s="18"/>
-      <c r="U87" s="18"/>
-      <c r="V87" s="18"/>
-      <c r="W87" s="18"/>
-      <c r="X87" s="18"/>
-      <c r="Y87" s="18"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="21"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="21"/>
+      <c r="Q87" s="21"/>
+      <c r="R87" s="21"/>
+      <c r="S87" s="21"/>
+      <c r="T87" s="21"/>
+      <c r="U87" s="21"/>
+      <c r="V87" s="21"/>
+      <c r="W87" s="21"/>
+      <c r="X87" s="21"/>
+      <c r="Y87" s="21"/>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B88" s="15" t="s">
@@ -3330,28 +3327,28 @@
       <c r="E88" s="16"/>
       <c r="F88" s="16"/>
       <c r="G88" s="17"/>
-      <c r="H88" s="18" t="s">
+      <c r="H88" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="19" t="s">
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="M88" s="19"/>
-      <c r="N88" s="19"/>
-      <c r="O88" s="19"/>
-      <c r="P88" s="19"/>
-      <c r="Q88" s="19"/>
-      <c r="R88" s="19"/>
-      <c r="S88" s="19"/>
-      <c r="T88" s="19"/>
-      <c r="U88" s="19"/>
-      <c r="V88" s="19"/>
-      <c r="W88" s="19"/>
-      <c r="X88" s="19"/>
-      <c r="Y88" s="19"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="22"/>
+      <c r="O88" s="22"/>
+      <c r="P88" s="22"/>
+      <c r="Q88" s="22"/>
+      <c r="R88" s="22"/>
+      <c r="S88" s="22"/>
+      <c r="T88" s="22"/>
+      <c r="U88" s="22"/>
+      <c r="V88" s="22"/>
+      <c r="W88" s="22"/>
+      <c r="X88" s="22"/>
+      <c r="Y88" s="22"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B89" s="15" t="s">
@@ -3362,28 +3359,28 @@
       <c r="E89" s="16"/>
       <c r="F89" s="16"/>
       <c r="G89" s="17"/>
-      <c r="H89" s="18" t="s">
+      <c r="H89" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="19" t="s">
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="M89" s="19"/>
-      <c r="N89" s="19"/>
-      <c r="O89" s="19"/>
-      <c r="P89" s="19"/>
-      <c r="Q89" s="19"/>
-      <c r="R89" s="19"/>
-      <c r="S89" s="19"/>
-      <c r="T89" s="19"/>
-      <c r="U89" s="19"/>
-      <c r="V89" s="19"/>
-      <c r="W89" s="19"/>
-      <c r="X89" s="19"/>
-      <c r="Y89" s="19"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="22"/>
+      <c r="O89" s="22"/>
+      <c r="P89" s="22"/>
+      <c r="Q89" s="22"/>
+      <c r="R89" s="22"/>
+      <c r="S89" s="22"/>
+      <c r="T89" s="22"/>
+      <c r="U89" s="22"/>
+      <c r="V89" s="22"/>
+      <c r="W89" s="22"/>
+      <c r="X89" s="22"/>
+      <c r="Y89" s="22"/>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B90" s="15" t="s">
@@ -3394,28 +3391,28 @@
       <c r="E90" s="16"/>
       <c r="F90" s="16"/>
       <c r="G90" s="17"/>
-      <c r="H90" s="18" t="s">
+      <c r="H90" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="19" t="s">
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="M90" s="19"/>
-      <c r="N90" s="19"/>
-      <c r="O90" s="19"/>
-      <c r="P90" s="19"/>
-      <c r="Q90" s="19"/>
-      <c r="R90" s="19"/>
-      <c r="S90" s="19"/>
-      <c r="T90" s="19"/>
-      <c r="U90" s="19"/>
-      <c r="V90" s="19"/>
-      <c r="W90" s="19"/>
-      <c r="X90" s="19"/>
-      <c r="Y90" s="19"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="22"/>
+      <c r="O90" s="22"/>
+      <c r="P90" s="22"/>
+      <c r="Q90" s="22"/>
+      <c r="R90" s="22"/>
+      <c r="S90" s="22"/>
+      <c r="T90" s="22"/>
+      <c r="U90" s="22"/>
+      <c r="V90" s="22"/>
+      <c r="W90" s="22"/>
+      <c r="X90" s="22"/>
+      <c r="Y90" s="22"/>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B91" s="15" t="s">
@@ -3426,28 +3423,28 @@
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
       <c r="G91" s="17"/>
-      <c r="H91" s="18" t="s">
+      <c r="H91" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I91" s="18"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="18"/>
-      <c r="L91" s="19" t="s">
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="M91" s="19"/>
-      <c r="N91" s="19"/>
-      <c r="O91" s="19"/>
-      <c r="P91" s="19"/>
-      <c r="Q91" s="19"/>
-      <c r="R91" s="19"/>
-      <c r="S91" s="19"/>
-      <c r="T91" s="19"/>
-      <c r="U91" s="19"/>
-      <c r="V91" s="19"/>
-      <c r="W91" s="19"/>
-      <c r="X91" s="19"/>
-      <c r="Y91" s="19"/>
+      <c r="M91" s="22"/>
+      <c r="N91" s="22"/>
+      <c r="O91" s="22"/>
+      <c r="P91" s="22"/>
+      <c r="Q91" s="22"/>
+      <c r="R91" s="22"/>
+      <c r="S91" s="22"/>
+      <c r="T91" s="22"/>
+      <c r="U91" s="22"/>
+      <c r="V91" s="22"/>
+      <c r="W91" s="22"/>
+      <c r="X91" s="22"/>
+      <c r="Y91" s="22"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B92" s="15" t="s">
@@ -3458,28 +3455,28 @@
       <c r="E92" s="16"/>
       <c r="F92" s="16"/>
       <c r="G92" s="17"/>
-      <c r="H92" s="18" t="s">
+      <c r="H92" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="19" t="s">
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="M92" s="19"/>
-      <c r="N92" s="19"/>
-      <c r="O92" s="19"/>
-      <c r="P92" s="19"/>
-      <c r="Q92" s="19"/>
-      <c r="R92" s="19"/>
-      <c r="S92" s="19"/>
-      <c r="T92" s="19"/>
-      <c r="U92" s="19"/>
-      <c r="V92" s="19"/>
-      <c r="W92" s="19"/>
-      <c r="X92" s="19"/>
-      <c r="Y92" s="19"/>
+      <c r="M92" s="22"/>
+      <c r="N92" s="22"/>
+      <c r="O92" s="22"/>
+      <c r="P92" s="22"/>
+      <c r="Q92" s="22"/>
+      <c r="R92" s="22"/>
+      <c r="S92" s="22"/>
+      <c r="T92" s="22"/>
+      <c r="U92" s="22"/>
+      <c r="V92" s="22"/>
+      <c r="W92" s="22"/>
+      <c r="X92" s="22"/>
+      <c r="Y92" s="22"/>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B93" s="15" t="s">
@@ -3490,28 +3487,28 @@
       <c r="E93" s="16"/>
       <c r="F93" s="16"/>
       <c r="G93" s="17"/>
-      <c r="H93" s="18" t="s">
+      <c r="H93" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="I93" s="18"/>
-      <c r="J93" s="18"/>
-      <c r="K93" s="18"/>
-      <c r="L93" s="19" t="s">
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="M93" s="19"/>
-      <c r="N93" s="19"/>
-      <c r="O93" s="19"/>
-      <c r="P93" s="19"/>
-      <c r="Q93" s="19"/>
-      <c r="R93" s="19"/>
-      <c r="S93" s="19"/>
-      <c r="T93" s="19"/>
-      <c r="U93" s="19"/>
-      <c r="V93" s="19"/>
-      <c r="W93" s="19"/>
-      <c r="X93" s="19"/>
-      <c r="Y93" s="19"/>
+      <c r="M93" s="22"/>
+      <c r="N93" s="22"/>
+      <c r="O93" s="22"/>
+      <c r="P93" s="22"/>
+      <c r="Q93" s="22"/>
+      <c r="R93" s="22"/>
+      <c r="S93" s="22"/>
+      <c r="T93" s="22"/>
+      <c r="U93" s="22"/>
+      <c r="V93" s="22"/>
+      <c r="W93" s="22"/>
+      <c r="X93" s="22"/>
+      <c r="Y93" s="22"/>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B94" s="15" t="s">
@@ -3522,28 +3519,28 @@
       <c r="E94" s="16"/>
       <c r="F94" s="16"/>
       <c r="G94" s="17"/>
-      <c r="H94" s="18" t="s">
+      <c r="H94" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="I94" s="18"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="18"/>
-      <c r="L94" s="19" t="s">
+      <c r="I94" s="21"/>
+      <c r="J94" s="21"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="M94" s="19"/>
-      <c r="N94" s="19"/>
-      <c r="O94" s="19"/>
-      <c r="P94" s="19"/>
-      <c r="Q94" s="19"/>
-      <c r="R94" s="19"/>
-      <c r="S94" s="19"/>
-      <c r="T94" s="19"/>
-      <c r="U94" s="19"/>
-      <c r="V94" s="19"/>
-      <c r="W94" s="19"/>
-      <c r="X94" s="19"/>
-      <c r="Y94" s="19"/>
+      <c r="M94" s="22"/>
+      <c r="N94" s="22"/>
+      <c r="O94" s="22"/>
+      <c r="P94" s="22"/>
+      <c r="Q94" s="22"/>
+      <c r="R94" s="22"/>
+      <c r="S94" s="22"/>
+      <c r="T94" s="22"/>
+      <c r="U94" s="22"/>
+      <c r="V94" s="22"/>
+      <c r="W94" s="22"/>
+      <c r="X94" s="22"/>
+      <c r="Y94" s="22"/>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B95" s="15" t="s">
@@ -3554,28 +3551,28 @@
       <c r="E95" s="16"/>
       <c r="F95" s="16"/>
       <c r="G95" s="17"/>
-      <c r="H95" s="18" t="s">
+      <c r="H95" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="I95" s="18"/>
-      <c r="J95" s="18"/>
-      <c r="K95" s="18"/>
-      <c r="L95" s="19" t="s">
+      <c r="I95" s="21"/>
+      <c r="J95" s="21"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="M95" s="19"/>
-      <c r="N95" s="19"/>
-      <c r="O95" s="19"/>
-      <c r="P95" s="19"/>
-      <c r="Q95" s="19"/>
-      <c r="R95" s="19"/>
-      <c r="S95" s="19"/>
-      <c r="T95" s="19"/>
-      <c r="U95" s="19"/>
-      <c r="V95" s="19"/>
-      <c r="W95" s="19"/>
-      <c r="X95" s="19"/>
-      <c r="Y95" s="19"/>
+      <c r="M95" s="22"/>
+      <c r="N95" s="22"/>
+      <c r="O95" s="22"/>
+      <c r="P95" s="22"/>
+      <c r="Q95" s="22"/>
+      <c r="R95" s="22"/>
+      <c r="S95" s="22"/>
+      <c r="T95" s="22"/>
+      <c r="U95" s="22"/>
+      <c r="V95" s="22"/>
+      <c r="W95" s="22"/>
+      <c r="X95" s="22"/>
+      <c r="Y95" s="22"/>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B96" s="8"/>
@@ -3670,19 +3667,19 @@
       <c r="L101" s="16"/>
       <c r="M101" s="16"/>
       <c r="N101" s="17"/>
-      <c r="O101" s="20" t="s">
+      <c r="O101" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="P101" s="21"/>
-      <c r="Q101" s="21"/>
-      <c r="R101" s="21"/>
-      <c r="S101" s="21"/>
-      <c r="T101" s="21"/>
-      <c r="U101" s="21"/>
-      <c r="V101" s="21"/>
-      <c r="W101" s="21"/>
-      <c r="X101" s="21"/>
-      <c r="Y101" s="22"/>
+      <c r="P101" s="19"/>
+      <c r="Q101" s="19"/>
+      <c r="R101" s="19"/>
+      <c r="S101" s="19"/>
+      <c r="T101" s="19"/>
+      <c r="U101" s="19"/>
+      <c r="V101" s="19"/>
+      <c r="W101" s="19"/>
+      <c r="X101" s="19"/>
+      <c r="Y101" s="20"/>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B102" s="15" t="s">
@@ -3704,19 +3701,19 @@
       <c r="L102" s="16"/>
       <c r="M102" s="16"/>
       <c r="N102" s="17"/>
-      <c r="O102" s="20" t="s">
+      <c r="O102" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="P102" s="21"/>
-      <c r="Q102" s="21"/>
-      <c r="R102" s="21"/>
-      <c r="S102" s="21"/>
-      <c r="T102" s="21"/>
-      <c r="U102" s="21"/>
-      <c r="V102" s="21"/>
-      <c r="W102" s="21"/>
-      <c r="X102" s="21"/>
-      <c r="Y102" s="22"/>
+      <c r="P102" s="19"/>
+      <c r="Q102" s="19"/>
+      <c r="R102" s="19"/>
+      <c r="S102" s="19"/>
+      <c r="T102" s="19"/>
+      <c r="U102" s="19"/>
+      <c r="V102" s="19"/>
+      <c r="W102" s="19"/>
+      <c r="X102" s="19"/>
+      <c r="Y102" s="20"/>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B103" s="15" t="s">
@@ -3738,19 +3735,19 @@
       <c r="L103" s="16"/>
       <c r="M103" s="16"/>
       <c r="N103" s="17"/>
-      <c r="O103" s="20" t="s">
+      <c r="O103" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="P103" s="21"/>
-      <c r="Q103" s="21"/>
-      <c r="R103" s="21"/>
-      <c r="S103" s="21"/>
-      <c r="T103" s="21"/>
-      <c r="U103" s="21"/>
-      <c r="V103" s="21"/>
-      <c r="W103" s="21"/>
-      <c r="X103" s="21"/>
-      <c r="Y103" s="22"/>
+      <c r="P103" s="19"/>
+      <c r="Q103" s="19"/>
+      <c r="R103" s="19"/>
+      <c r="S103" s="19"/>
+      <c r="T103" s="19"/>
+      <c r="U103" s="19"/>
+      <c r="V103" s="19"/>
+      <c r="W103" s="19"/>
+      <c r="X103" s="19"/>
+      <c r="Y103" s="20"/>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B104" s="15" t="s">
@@ -3772,19 +3769,19 @@
       <c r="L104" s="16"/>
       <c r="M104" s="16"/>
       <c r="N104" s="17"/>
-      <c r="O104" s="20" t="s">
+      <c r="O104" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="P104" s="21"/>
-      <c r="Q104" s="21"/>
-      <c r="R104" s="21"/>
-      <c r="S104" s="21"/>
-      <c r="T104" s="21"/>
-      <c r="U104" s="21"/>
-      <c r="V104" s="21"/>
-      <c r="W104" s="21"/>
-      <c r="X104" s="21"/>
-      <c r="Y104" s="22"/>
+      <c r="P104" s="19"/>
+      <c r="Q104" s="19"/>
+      <c r="R104" s="19"/>
+      <c r="S104" s="19"/>
+      <c r="T104" s="19"/>
+      <c r="U104" s="19"/>
+      <c r="V104" s="19"/>
+      <c r="W104" s="19"/>
+      <c r="X104" s="19"/>
+      <c r="Y104" s="20"/>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
@@ -3824,28 +3821,28 @@
       <c r="E107" s="16"/>
       <c r="F107" s="16"/>
       <c r="G107" s="17"/>
-      <c r="H107" s="18" t="s">
+      <c r="H107" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I107" s="18"/>
-      <c r="J107" s="18"/>
-      <c r="K107" s="18"/>
-      <c r="L107" s="18" t="s">
+      <c r="I107" s="21"/>
+      <c r="J107" s="21"/>
+      <c r="K107" s="21"/>
+      <c r="L107" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M107" s="18"/>
-      <c r="N107" s="18"/>
-      <c r="O107" s="18"/>
-      <c r="P107" s="18"/>
-      <c r="Q107" s="18"/>
-      <c r="R107" s="18"/>
-      <c r="S107" s="18"/>
-      <c r="T107" s="18"/>
-      <c r="U107" s="18"/>
-      <c r="V107" s="18"/>
-      <c r="W107" s="18"/>
-      <c r="X107" s="18"/>
-      <c r="Y107" s="18"/>
+      <c r="M107" s="21"/>
+      <c r="N107" s="21"/>
+      <c r="O107" s="21"/>
+      <c r="P107" s="21"/>
+      <c r="Q107" s="21"/>
+      <c r="R107" s="21"/>
+      <c r="S107" s="21"/>
+      <c r="T107" s="21"/>
+      <c r="U107" s="21"/>
+      <c r="V107" s="21"/>
+      <c r="W107" s="21"/>
+      <c r="X107" s="21"/>
+      <c r="Y107" s="21"/>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B108" s="15" t="s">
@@ -3856,28 +3853,28 @@
       <c r="E108" s="16"/>
       <c r="F108" s="16"/>
       <c r="G108" s="17"/>
-      <c r="H108" s="18" t="s">
+      <c r="H108" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I108" s="18"/>
-      <c r="J108" s="18"/>
-      <c r="K108" s="18"/>
-      <c r="L108" s="19" t="s">
+      <c r="I108" s="21"/>
+      <c r="J108" s="21"/>
+      <c r="K108" s="21"/>
+      <c r="L108" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="M108" s="19"/>
-      <c r="N108" s="19"/>
-      <c r="O108" s="19"/>
-      <c r="P108" s="19"/>
-      <c r="Q108" s="19"/>
-      <c r="R108" s="19"/>
-      <c r="S108" s="19"/>
-      <c r="T108" s="19"/>
-      <c r="U108" s="19"/>
-      <c r="V108" s="19"/>
-      <c r="W108" s="19"/>
-      <c r="X108" s="19"/>
-      <c r="Y108" s="19"/>
+      <c r="M108" s="22"/>
+      <c r="N108" s="22"/>
+      <c r="O108" s="22"/>
+      <c r="P108" s="22"/>
+      <c r="Q108" s="22"/>
+      <c r="R108" s="22"/>
+      <c r="S108" s="22"/>
+      <c r="T108" s="22"/>
+      <c r="U108" s="22"/>
+      <c r="V108" s="22"/>
+      <c r="W108" s="22"/>
+      <c r="X108" s="22"/>
+      <c r="Y108" s="22"/>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B109" s="15" t="s">
@@ -3888,28 +3885,28 @@
       <c r="E109" s="16"/>
       <c r="F109" s="16"/>
       <c r="G109" s="17"/>
-      <c r="H109" s="18" t="s">
+      <c r="H109" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I109" s="18"/>
-      <c r="J109" s="18"/>
-      <c r="K109" s="18"/>
-      <c r="L109" s="19" t="s">
+      <c r="I109" s="21"/>
+      <c r="J109" s="21"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="M109" s="19"/>
-      <c r="N109" s="19"/>
-      <c r="O109" s="19"/>
-      <c r="P109" s="19"/>
-      <c r="Q109" s="19"/>
-      <c r="R109" s="19"/>
-      <c r="S109" s="19"/>
-      <c r="T109" s="19"/>
-      <c r="U109" s="19"/>
-      <c r="V109" s="19"/>
-      <c r="W109" s="19"/>
-      <c r="X109" s="19"/>
-      <c r="Y109" s="19"/>
+      <c r="M109" s="22"/>
+      <c r="N109" s="22"/>
+      <c r="O109" s="22"/>
+      <c r="P109" s="22"/>
+      <c r="Q109" s="22"/>
+      <c r="R109" s="22"/>
+      <c r="S109" s="22"/>
+      <c r="T109" s="22"/>
+      <c r="U109" s="22"/>
+      <c r="V109" s="22"/>
+      <c r="W109" s="22"/>
+      <c r="X109" s="22"/>
+      <c r="Y109" s="22"/>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B110" s="15" t="s">
@@ -3920,28 +3917,28 @@
       <c r="E110" s="16"/>
       <c r="F110" s="16"/>
       <c r="G110" s="17"/>
-      <c r="H110" s="18" t="s">
+      <c r="H110" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I110" s="18"/>
-      <c r="J110" s="18"/>
-      <c r="K110" s="18"/>
-      <c r="L110" s="19" t="s">
+      <c r="I110" s="21"/>
+      <c r="J110" s="21"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="M110" s="19"/>
-      <c r="N110" s="19"/>
-      <c r="O110" s="19"/>
-      <c r="P110" s="19"/>
-      <c r="Q110" s="19"/>
-      <c r="R110" s="19"/>
-      <c r="S110" s="19"/>
-      <c r="T110" s="19"/>
-      <c r="U110" s="19"/>
-      <c r="V110" s="19"/>
-      <c r="W110" s="19"/>
-      <c r="X110" s="19"/>
-      <c r="Y110" s="19"/>
+      <c r="M110" s="22"/>
+      <c r="N110" s="22"/>
+      <c r="O110" s="22"/>
+      <c r="P110" s="22"/>
+      <c r="Q110" s="22"/>
+      <c r="R110" s="22"/>
+      <c r="S110" s="22"/>
+      <c r="T110" s="22"/>
+      <c r="U110" s="22"/>
+      <c r="V110" s="22"/>
+      <c r="W110" s="22"/>
+      <c r="X110" s="22"/>
+      <c r="Y110" s="22"/>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B111" s="15" t="s">
@@ -3952,28 +3949,28 @@
       <c r="E111" s="16"/>
       <c r="F111" s="16"/>
       <c r="G111" s="17"/>
-      <c r="H111" s="18" t="s">
+      <c r="H111" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I111" s="18"/>
-      <c r="J111" s="18"/>
-      <c r="K111" s="18"/>
-      <c r="L111" s="19" t="s">
+      <c r="I111" s="21"/>
+      <c r="J111" s="21"/>
+      <c r="K111" s="21"/>
+      <c r="L111" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="M111" s="19"/>
-      <c r="N111" s="19"/>
-      <c r="O111" s="19"/>
-      <c r="P111" s="19"/>
-      <c r="Q111" s="19"/>
-      <c r="R111" s="19"/>
-      <c r="S111" s="19"/>
-      <c r="T111" s="19"/>
-      <c r="U111" s="19"/>
-      <c r="V111" s="19"/>
-      <c r="W111" s="19"/>
-      <c r="X111" s="19"/>
-      <c r="Y111" s="19"/>
+      <c r="M111" s="22"/>
+      <c r="N111" s="22"/>
+      <c r="O111" s="22"/>
+      <c r="P111" s="22"/>
+      <c r="Q111" s="22"/>
+      <c r="R111" s="22"/>
+      <c r="S111" s="22"/>
+      <c r="T111" s="22"/>
+      <c r="U111" s="22"/>
+      <c r="V111" s="22"/>
+      <c r="W111" s="22"/>
+      <c r="X111" s="22"/>
+      <c r="Y111" s="22"/>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B112" s="15" t="s">
@@ -3984,28 +3981,28 @@
       <c r="E112" s="16"/>
       <c r="F112" s="16"/>
       <c r="G112" s="17"/>
-      <c r="H112" s="18" t="s">
+      <c r="H112" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I112" s="18"/>
-      <c r="J112" s="18"/>
-      <c r="K112" s="18"/>
-      <c r="L112" s="19" t="s">
+      <c r="I112" s="21"/>
+      <c r="J112" s="21"/>
+      <c r="K112" s="21"/>
+      <c r="L112" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="M112" s="19"/>
-      <c r="N112" s="19"/>
-      <c r="O112" s="19"/>
-      <c r="P112" s="19"/>
-      <c r="Q112" s="19"/>
-      <c r="R112" s="19"/>
-      <c r="S112" s="19"/>
-      <c r="T112" s="19"/>
-      <c r="U112" s="19"/>
-      <c r="V112" s="19"/>
-      <c r="W112" s="19"/>
-      <c r="X112" s="19"/>
-      <c r="Y112" s="19"/>
+      <c r="M112" s="22"/>
+      <c r="N112" s="22"/>
+      <c r="O112" s="22"/>
+      <c r="P112" s="22"/>
+      <c r="Q112" s="22"/>
+      <c r="R112" s="22"/>
+      <c r="S112" s="22"/>
+      <c r="T112" s="22"/>
+      <c r="U112" s="22"/>
+      <c r="V112" s="22"/>
+      <c r="W112" s="22"/>
+      <c r="X112" s="22"/>
+      <c r="Y112" s="22"/>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B113" s="15" t="s">
@@ -4016,28 +4013,28 @@
       <c r="E113" s="16"/>
       <c r="F113" s="16"/>
       <c r="G113" s="17"/>
-      <c r="H113" s="18" t="s">
+      <c r="H113" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="I113" s="18"/>
-      <c r="J113" s="18"/>
-      <c r="K113" s="18"/>
-      <c r="L113" s="19" t="s">
+      <c r="I113" s="21"/>
+      <c r="J113" s="21"/>
+      <c r="K113" s="21"/>
+      <c r="L113" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="M113" s="19"/>
-      <c r="N113" s="19"/>
-      <c r="O113" s="19"/>
-      <c r="P113" s="19"/>
-      <c r="Q113" s="19"/>
-      <c r="R113" s="19"/>
-      <c r="S113" s="19"/>
-      <c r="T113" s="19"/>
-      <c r="U113" s="19"/>
-      <c r="V113" s="19"/>
-      <c r="W113" s="19"/>
-      <c r="X113" s="19"/>
-      <c r="Y113" s="19"/>
+      <c r="M113" s="22"/>
+      <c r="N113" s="22"/>
+      <c r="O113" s="22"/>
+      <c r="P113" s="22"/>
+      <c r="Q113" s="22"/>
+      <c r="R113" s="22"/>
+      <c r="S113" s="22"/>
+      <c r="T113" s="22"/>
+      <c r="U113" s="22"/>
+      <c r="V113" s="22"/>
+      <c r="W113" s="22"/>
+      <c r="X113" s="22"/>
+      <c r="Y113" s="22"/>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B114" s="15" t="s">
@@ -4048,28 +4045,28 @@
       <c r="E114" s="16"/>
       <c r="F114" s="16"/>
       <c r="G114" s="17"/>
-      <c r="H114" s="18" t="s">
+      <c r="H114" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="I114" s="18"/>
-      <c r="J114" s="18"/>
-      <c r="K114" s="18"/>
-      <c r="L114" s="19" t="s">
+      <c r="I114" s="21"/>
+      <c r="J114" s="21"/>
+      <c r="K114" s="21"/>
+      <c r="L114" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="M114" s="19"/>
-      <c r="N114" s="19"/>
-      <c r="O114" s="19"/>
-      <c r="P114" s="19"/>
-      <c r="Q114" s="19"/>
-      <c r="R114" s="19"/>
-      <c r="S114" s="19"/>
-      <c r="T114" s="19"/>
-      <c r="U114" s="19"/>
-      <c r="V114" s="19"/>
-      <c r="W114" s="19"/>
-      <c r="X114" s="19"/>
-      <c r="Y114" s="19"/>
+      <c r="M114" s="22"/>
+      <c r="N114" s="22"/>
+      <c r="O114" s="22"/>
+      <c r="P114" s="22"/>
+      <c r="Q114" s="22"/>
+      <c r="R114" s="22"/>
+      <c r="S114" s="22"/>
+      <c r="T114" s="22"/>
+      <c r="U114" s="22"/>
+      <c r="V114" s="22"/>
+      <c r="W114" s="22"/>
+      <c r="X114" s="22"/>
+      <c r="Y114" s="22"/>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B115" s="15" t="s">
@@ -4080,28 +4077,28 @@
       <c r="E115" s="16"/>
       <c r="F115" s="16"/>
       <c r="G115" s="17"/>
-      <c r="H115" s="18" t="s">
+      <c r="H115" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="I115" s="18"/>
-      <c r="J115" s="18"/>
-      <c r="K115" s="18"/>
-      <c r="L115" s="19" t="s">
+      <c r="I115" s="21"/>
+      <c r="J115" s="21"/>
+      <c r="K115" s="21"/>
+      <c r="L115" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="M115" s="19"/>
-      <c r="N115" s="19"/>
-      <c r="O115" s="19"/>
-      <c r="P115" s="19"/>
-      <c r="Q115" s="19"/>
-      <c r="R115" s="19"/>
-      <c r="S115" s="19"/>
-      <c r="T115" s="19"/>
-      <c r="U115" s="19"/>
-      <c r="V115" s="19"/>
-      <c r="W115" s="19"/>
-      <c r="X115" s="19"/>
-      <c r="Y115" s="19"/>
+      <c r="M115" s="22"/>
+      <c r="N115" s="22"/>
+      <c r="O115" s="22"/>
+      <c r="P115" s="22"/>
+      <c r="Q115" s="22"/>
+      <c r="R115" s="22"/>
+      <c r="S115" s="22"/>
+      <c r="T115" s="22"/>
+      <c r="U115" s="22"/>
+      <c r="V115" s="22"/>
+      <c r="W115" s="22"/>
+      <c r="X115" s="22"/>
+      <c r="Y115" s="22"/>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B116" s="8"/>
@@ -4143,28 +4140,28 @@
       <c r="E118" s="16"/>
       <c r="F118" s="16"/>
       <c r="G118" s="17"/>
-      <c r="H118" s="18" t="s">
+      <c r="H118" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I118" s="18"/>
-      <c r="J118" s="18"/>
-      <c r="K118" s="18"/>
-      <c r="L118" s="18" t="s">
+      <c r="I118" s="21"/>
+      <c r="J118" s="21"/>
+      <c r="K118" s="21"/>
+      <c r="L118" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M118" s="18"/>
-      <c r="N118" s="18"/>
-      <c r="O118" s="18"/>
-      <c r="P118" s="18"/>
-      <c r="Q118" s="18"/>
-      <c r="R118" s="18"/>
-      <c r="S118" s="18"/>
-      <c r="T118" s="18"/>
-      <c r="U118" s="18"/>
-      <c r="V118" s="18"/>
-      <c r="W118" s="18"/>
-      <c r="X118" s="18"/>
-      <c r="Y118" s="18"/>
+      <c r="M118" s="21"/>
+      <c r="N118" s="21"/>
+      <c r="O118" s="21"/>
+      <c r="P118" s="21"/>
+      <c r="Q118" s="21"/>
+      <c r="R118" s="21"/>
+      <c r="S118" s="21"/>
+      <c r="T118" s="21"/>
+      <c r="U118" s="21"/>
+      <c r="V118" s="21"/>
+      <c r="W118" s="21"/>
+      <c r="X118" s="21"/>
+      <c r="Y118" s="21"/>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B119" s="15" t="s">
@@ -4181,22 +4178,22 @@
       <c r="I119" s="16"/>
       <c r="J119" s="16"/>
       <c r="K119" s="17"/>
-      <c r="L119" s="19" t="s">
+      <c r="L119" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="M119" s="19"/>
-      <c r="N119" s="19"/>
-      <c r="O119" s="19"/>
-      <c r="P119" s="19"/>
-      <c r="Q119" s="19"/>
-      <c r="R119" s="19"/>
-      <c r="S119" s="19"/>
-      <c r="T119" s="19"/>
-      <c r="U119" s="19"/>
-      <c r="V119" s="19"/>
-      <c r="W119" s="19"/>
-      <c r="X119" s="19"/>
-      <c r="Y119" s="19"/>
+      <c r="M119" s="22"/>
+      <c r="N119" s="22"/>
+      <c r="O119" s="22"/>
+      <c r="P119" s="22"/>
+      <c r="Q119" s="22"/>
+      <c r="R119" s="22"/>
+      <c r="S119" s="22"/>
+      <c r="T119" s="22"/>
+      <c r="U119" s="22"/>
+      <c r="V119" s="22"/>
+      <c r="W119" s="22"/>
+      <c r="X119" s="22"/>
+      <c r="Y119" s="22"/>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B120" s="15" t="s">
@@ -4207,28 +4204,28 @@
       <c r="E120" s="16"/>
       <c r="F120" s="16"/>
       <c r="G120" s="17"/>
-      <c r="H120" s="18" t="s">
+      <c r="H120" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I120" s="18"/>
-      <c r="J120" s="18"/>
-      <c r="K120" s="18"/>
-      <c r="L120" s="19" t="s">
+      <c r="I120" s="21"/>
+      <c r="J120" s="21"/>
+      <c r="K120" s="21"/>
+      <c r="L120" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="M120" s="19"/>
-      <c r="N120" s="19"/>
-      <c r="O120" s="19"/>
-      <c r="P120" s="19"/>
-      <c r="Q120" s="19"/>
-      <c r="R120" s="19"/>
-      <c r="S120" s="19"/>
-      <c r="T120" s="19"/>
-      <c r="U120" s="19"/>
-      <c r="V120" s="19"/>
-      <c r="W120" s="19"/>
-      <c r="X120" s="19"/>
-      <c r="Y120" s="19"/>
+      <c r="M120" s="22"/>
+      <c r="N120" s="22"/>
+      <c r="O120" s="22"/>
+      <c r="P120" s="22"/>
+      <c r="Q120" s="22"/>
+      <c r="R120" s="22"/>
+      <c r="S120" s="22"/>
+      <c r="T120" s="22"/>
+      <c r="U120" s="22"/>
+      <c r="V120" s="22"/>
+      <c r="W120" s="22"/>
+      <c r="X120" s="22"/>
+      <c r="Y120" s="22"/>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B121" s="15" t="s">
@@ -4239,28 +4236,28 @@
       <c r="E121" s="16"/>
       <c r="F121" s="16"/>
       <c r="G121" s="17"/>
-      <c r="H121" s="18" t="s">
+      <c r="H121" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I121" s="18"/>
-      <c r="J121" s="18"/>
-      <c r="K121" s="18"/>
-      <c r="L121" s="19" t="s">
+      <c r="I121" s="21"/>
+      <c r="J121" s="21"/>
+      <c r="K121" s="21"/>
+      <c r="L121" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="M121" s="19"/>
-      <c r="N121" s="19"/>
-      <c r="O121" s="19"/>
-      <c r="P121" s="19"/>
-      <c r="Q121" s="19"/>
-      <c r="R121" s="19"/>
-      <c r="S121" s="19"/>
-      <c r="T121" s="19"/>
-      <c r="U121" s="19"/>
-      <c r="V121" s="19"/>
-      <c r="W121" s="19"/>
-      <c r="X121" s="19"/>
-      <c r="Y121" s="19"/>
+      <c r="M121" s="22"/>
+      <c r="N121" s="22"/>
+      <c r="O121" s="22"/>
+      <c r="P121" s="22"/>
+      <c r="Q121" s="22"/>
+      <c r="R121" s="22"/>
+      <c r="S121" s="22"/>
+      <c r="T121" s="22"/>
+      <c r="U121" s="22"/>
+      <c r="V121" s="22"/>
+      <c r="W121" s="22"/>
+      <c r="X121" s="22"/>
+      <c r="Y121" s="22"/>
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B122" s="15" t="s">
@@ -4271,28 +4268,28 @@
       <c r="E122" s="16"/>
       <c r="F122" s="16"/>
       <c r="G122" s="17"/>
-      <c r="H122" s="18" t="s">
+      <c r="H122" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="I122" s="18"/>
-      <c r="J122" s="18"/>
-      <c r="K122" s="18"/>
-      <c r="L122" s="19" t="s">
+      <c r="I122" s="21"/>
+      <c r="J122" s="21"/>
+      <c r="K122" s="21"/>
+      <c r="L122" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="M122" s="19"/>
-      <c r="N122" s="19"/>
-      <c r="O122" s="19"/>
-      <c r="P122" s="19"/>
-      <c r="Q122" s="19"/>
-      <c r="R122" s="19"/>
-      <c r="S122" s="19"/>
-      <c r="T122" s="19"/>
-      <c r="U122" s="19"/>
-      <c r="V122" s="19"/>
-      <c r="W122" s="19"/>
-      <c r="X122" s="19"/>
-      <c r="Y122" s="19"/>
+      <c r="M122" s="22"/>
+      <c r="N122" s="22"/>
+      <c r="O122" s="22"/>
+      <c r="P122" s="22"/>
+      <c r="Q122" s="22"/>
+      <c r="R122" s="22"/>
+      <c r="S122" s="22"/>
+      <c r="T122" s="22"/>
+      <c r="U122" s="22"/>
+      <c r="V122" s="22"/>
+      <c r="W122" s="22"/>
+      <c r="X122" s="22"/>
+      <c r="Y122" s="22"/>
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B123" s="8"/>
@@ -4413,19 +4410,19 @@
       <c r="L129" s="16"/>
       <c r="M129" s="16"/>
       <c r="N129" s="17"/>
-      <c r="O129" s="20" t="s">
+      <c r="O129" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="P129" s="21"/>
-      <c r="Q129" s="21"/>
-      <c r="R129" s="21"/>
-      <c r="S129" s="21"/>
-      <c r="T129" s="21"/>
-      <c r="U129" s="21"/>
-      <c r="V129" s="21"/>
-      <c r="W129" s="21"/>
-      <c r="X129" s="21"/>
-      <c r="Y129" s="22"/>
+      <c r="P129" s="19"/>
+      <c r="Q129" s="19"/>
+      <c r="R129" s="19"/>
+      <c r="S129" s="19"/>
+      <c r="T129" s="19"/>
+      <c r="U129" s="19"/>
+      <c r="V129" s="19"/>
+      <c r="W129" s="19"/>
+      <c r="X129" s="19"/>
+      <c r="Y129" s="20"/>
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B130" s="15" t="s">
@@ -4447,19 +4444,19 @@
       <c r="L130" s="16"/>
       <c r="M130" s="16"/>
       <c r="N130" s="17"/>
-      <c r="O130" s="20" t="s">
+      <c r="O130" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="P130" s="21"/>
-      <c r="Q130" s="21"/>
-      <c r="R130" s="21"/>
-      <c r="S130" s="21"/>
-      <c r="T130" s="21"/>
-      <c r="U130" s="21"/>
-      <c r="V130" s="21"/>
-      <c r="W130" s="21"/>
-      <c r="X130" s="21"/>
-      <c r="Y130" s="22"/>
+      <c r="P130" s="19"/>
+      <c r="Q130" s="19"/>
+      <c r="R130" s="19"/>
+      <c r="S130" s="19"/>
+      <c r="T130" s="19"/>
+      <c r="U130" s="19"/>
+      <c r="V130" s="19"/>
+      <c r="W130" s="19"/>
+      <c r="X130" s="19"/>
+      <c r="Y130" s="20"/>
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B131" s="15" t="s">
@@ -4476,24 +4473,24 @@
       <c r="I131" s="16"/>
       <c r="J131" s="17"/>
       <c r="K131" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L131" s="16"/>
       <c r="M131" s="16"/>
       <c r="N131" s="17"/>
-      <c r="O131" s="20" t="s">
+      <c r="O131" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="P131" s="21"/>
-      <c r="Q131" s="21"/>
-      <c r="R131" s="21"/>
-      <c r="S131" s="21"/>
-      <c r="T131" s="21"/>
-      <c r="U131" s="21"/>
-      <c r="V131" s="21"/>
-      <c r="W131" s="21"/>
-      <c r="X131" s="21"/>
-      <c r="Y131" s="22"/>
+      <c r="P131" s="19"/>
+      <c r="Q131" s="19"/>
+      <c r="R131" s="19"/>
+      <c r="S131" s="19"/>
+      <c r="T131" s="19"/>
+      <c r="U131" s="19"/>
+      <c r="V131" s="19"/>
+      <c r="W131" s="19"/>
+      <c r="X131" s="19"/>
+      <c r="Y131" s="20"/>
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
@@ -4533,28 +4530,28 @@
       <c r="E134" s="16"/>
       <c r="F134" s="16"/>
       <c r="G134" s="17"/>
-      <c r="H134" s="18" t="s">
+      <c r="H134" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I134" s="18"/>
-      <c r="J134" s="18"/>
-      <c r="K134" s="18"/>
-      <c r="L134" s="18" t="s">
+      <c r="I134" s="21"/>
+      <c r="J134" s="21"/>
+      <c r="K134" s="21"/>
+      <c r="L134" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M134" s="18"/>
-      <c r="N134" s="18"/>
-      <c r="O134" s="18"/>
-      <c r="P134" s="18"/>
-      <c r="Q134" s="18"/>
-      <c r="R134" s="18"/>
-      <c r="S134" s="18"/>
-      <c r="T134" s="18"/>
-      <c r="U134" s="18"/>
-      <c r="V134" s="18"/>
-      <c r="W134" s="18"/>
-      <c r="X134" s="18"/>
-      <c r="Y134" s="18"/>
+      <c r="M134" s="21"/>
+      <c r="N134" s="21"/>
+      <c r="O134" s="21"/>
+      <c r="P134" s="21"/>
+      <c r="Q134" s="21"/>
+      <c r="R134" s="21"/>
+      <c r="S134" s="21"/>
+      <c r="T134" s="21"/>
+      <c r="U134" s="21"/>
+      <c r="V134" s="21"/>
+      <c r="W134" s="21"/>
+      <c r="X134" s="21"/>
+      <c r="Y134" s="21"/>
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B135" s="15" t="s">
@@ -4565,28 +4562,28 @@
       <c r="E135" s="16"/>
       <c r="F135" s="16"/>
       <c r="G135" s="17"/>
-      <c r="H135" s="18" t="s">
+      <c r="H135" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I135" s="18"/>
-      <c r="J135" s="18"/>
-      <c r="K135" s="18"/>
-      <c r="L135" s="19" t="s">
+      <c r="I135" s="21"/>
+      <c r="J135" s="21"/>
+      <c r="K135" s="21"/>
+      <c r="L135" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="M135" s="19"/>
-      <c r="N135" s="19"/>
-      <c r="O135" s="19"/>
-      <c r="P135" s="19"/>
-      <c r="Q135" s="19"/>
-      <c r="R135" s="19"/>
-      <c r="S135" s="19"/>
-      <c r="T135" s="19"/>
-      <c r="U135" s="19"/>
-      <c r="V135" s="19"/>
-      <c r="W135" s="19"/>
-      <c r="X135" s="19"/>
-      <c r="Y135" s="19"/>
+      <c r="M135" s="22"/>
+      <c r="N135" s="22"/>
+      <c r="O135" s="22"/>
+      <c r="P135" s="22"/>
+      <c r="Q135" s="22"/>
+      <c r="R135" s="22"/>
+      <c r="S135" s="22"/>
+      <c r="T135" s="22"/>
+      <c r="U135" s="22"/>
+      <c r="V135" s="22"/>
+      <c r="W135" s="22"/>
+      <c r="X135" s="22"/>
+      <c r="Y135" s="22"/>
     </row>
     <row r="136" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B136" s="15" t="s">
@@ -4597,28 +4594,28 @@
       <c r="E136" s="16"/>
       <c r="F136" s="16"/>
       <c r="G136" s="17"/>
-      <c r="H136" s="18" t="s">
+      <c r="H136" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I136" s="18"/>
-      <c r="J136" s="18"/>
-      <c r="K136" s="18"/>
-      <c r="L136" s="19" t="s">
+      <c r="I136" s="21"/>
+      <c r="J136" s="21"/>
+      <c r="K136" s="21"/>
+      <c r="L136" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="M136" s="19"/>
-      <c r="N136" s="19"/>
-      <c r="O136" s="19"/>
-      <c r="P136" s="19"/>
-      <c r="Q136" s="19"/>
-      <c r="R136" s="19"/>
-      <c r="S136" s="19"/>
-      <c r="T136" s="19"/>
-      <c r="U136" s="19"/>
-      <c r="V136" s="19"/>
-      <c r="W136" s="19"/>
-      <c r="X136" s="19"/>
-      <c r="Y136" s="19"/>
+      <c r="M136" s="22"/>
+      <c r="N136" s="22"/>
+      <c r="O136" s="22"/>
+      <c r="P136" s="22"/>
+      <c r="Q136" s="22"/>
+      <c r="R136" s="22"/>
+      <c r="S136" s="22"/>
+      <c r="T136" s="22"/>
+      <c r="U136" s="22"/>
+      <c r="V136" s="22"/>
+      <c r="W136" s="22"/>
+      <c r="X136" s="22"/>
+      <c r="Y136" s="22"/>
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B137" s="15" t="s">
@@ -4629,28 +4626,28 @@
       <c r="E137" s="16"/>
       <c r="F137" s="16"/>
       <c r="G137" s="17"/>
-      <c r="H137" s="18" t="s">
+      <c r="H137" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I137" s="18"/>
-      <c r="J137" s="18"/>
-      <c r="K137" s="18"/>
-      <c r="L137" s="19" t="s">
+      <c r="I137" s="21"/>
+      <c r="J137" s="21"/>
+      <c r="K137" s="21"/>
+      <c r="L137" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="M137" s="19"/>
-      <c r="N137" s="19"/>
-      <c r="O137" s="19"/>
-      <c r="P137" s="19"/>
-      <c r="Q137" s="19"/>
-      <c r="R137" s="19"/>
-      <c r="S137" s="19"/>
-      <c r="T137" s="19"/>
-      <c r="U137" s="19"/>
-      <c r="V137" s="19"/>
-      <c r="W137" s="19"/>
-      <c r="X137" s="19"/>
-      <c r="Y137" s="19"/>
+      <c r="M137" s="22"/>
+      <c r="N137" s="22"/>
+      <c r="O137" s="22"/>
+      <c r="P137" s="22"/>
+      <c r="Q137" s="22"/>
+      <c r="R137" s="22"/>
+      <c r="S137" s="22"/>
+      <c r="T137" s="22"/>
+      <c r="U137" s="22"/>
+      <c r="V137" s="22"/>
+      <c r="W137" s="22"/>
+      <c r="X137" s="22"/>
+      <c r="Y137" s="22"/>
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B138" s="15" t="s">
@@ -4661,28 +4658,28 @@
       <c r="E138" s="16"/>
       <c r="F138" s="16"/>
       <c r="G138" s="17"/>
-      <c r="H138" s="18" t="s">
+      <c r="H138" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I138" s="18"/>
-      <c r="J138" s="18"/>
-      <c r="K138" s="18"/>
-      <c r="L138" s="19" t="s">
+      <c r="I138" s="21"/>
+      <c r="J138" s="21"/>
+      <c r="K138" s="21"/>
+      <c r="L138" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="M138" s="19"/>
-      <c r="N138" s="19"/>
-      <c r="O138" s="19"/>
-      <c r="P138" s="19"/>
-      <c r="Q138" s="19"/>
-      <c r="R138" s="19"/>
-      <c r="S138" s="19"/>
-      <c r="T138" s="19"/>
-      <c r="U138" s="19"/>
-      <c r="V138" s="19"/>
-      <c r="W138" s="19"/>
-      <c r="X138" s="19"/>
-      <c r="Y138" s="19"/>
+      <c r="M138" s="22"/>
+      <c r="N138" s="22"/>
+      <c r="O138" s="22"/>
+      <c r="P138" s="22"/>
+      <c r="Q138" s="22"/>
+      <c r="R138" s="22"/>
+      <c r="S138" s="22"/>
+      <c r="T138" s="22"/>
+      <c r="U138" s="22"/>
+      <c r="V138" s="22"/>
+      <c r="W138" s="22"/>
+      <c r="X138" s="22"/>
+      <c r="Y138" s="22"/>
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B139" s="15" t="s">
@@ -4693,28 +4690,28 @@
       <c r="E139" s="16"/>
       <c r="F139" s="16"/>
       <c r="G139" s="17"/>
-      <c r="H139" s="18" t="s">
+      <c r="H139" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I139" s="18"/>
-      <c r="J139" s="18"/>
-      <c r="K139" s="18"/>
-      <c r="L139" s="19" t="s">
+      <c r="I139" s="21"/>
+      <c r="J139" s="21"/>
+      <c r="K139" s="21"/>
+      <c r="L139" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="M139" s="19"/>
-      <c r="N139" s="19"/>
-      <c r="O139" s="19"/>
-      <c r="P139" s="19"/>
-      <c r="Q139" s="19"/>
-      <c r="R139" s="19"/>
-      <c r="S139" s="19"/>
-      <c r="T139" s="19"/>
-      <c r="U139" s="19"/>
-      <c r="V139" s="19"/>
-      <c r="W139" s="19"/>
-      <c r="X139" s="19"/>
-      <c r="Y139" s="19"/>
+      <c r="M139" s="22"/>
+      <c r="N139" s="22"/>
+      <c r="O139" s="22"/>
+      <c r="P139" s="22"/>
+      <c r="Q139" s="22"/>
+      <c r="R139" s="22"/>
+      <c r="S139" s="22"/>
+      <c r="T139" s="22"/>
+      <c r="U139" s="22"/>
+      <c r="V139" s="22"/>
+      <c r="W139" s="22"/>
+      <c r="X139" s="22"/>
+      <c r="Y139" s="22"/>
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B140" s="15" t="s">
@@ -4725,28 +4722,28 @@
       <c r="E140" s="16"/>
       <c r="F140" s="16"/>
       <c r="G140" s="17"/>
-      <c r="H140" s="18" t="s">
+      <c r="H140" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="I140" s="18"/>
-      <c r="J140" s="18"/>
-      <c r="K140" s="18"/>
-      <c r="L140" s="19" t="s">
+      <c r="I140" s="21"/>
+      <c r="J140" s="21"/>
+      <c r="K140" s="21"/>
+      <c r="L140" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="M140" s="19"/>
-      <c r="N140" s="19"/>
-      <c r="O140" s="19"/>
-      <c r="P140" s="19"/>
-      <c r="Q140" s="19"/>
-      <c r="R140" s="19"/>
-      <c r="S140" s="19"/>
-      <c r="T140" s="19"/>
-      <c r="U140" s="19"/>
-      <c r="V140" s="19"/>
-      <c r="W140" s="19"/>
-      <c r="X140" s="19"/>
-      <c r="Y140" s="19"/>
+      <c r="M140" s="22"/>
+      <c r="N140" s="22"/>
+      <c r="O140" s="22"/>
+      <c r="P140" s="22"/>
+      <c r="Q140" s="22"/>
+      <c r="R140" s="22"/>
+      <c r="S140" s="22"/>
+      <c r="T140" s="22"/>
+      <c r="U140" s="22"/>
+      <c r="V140" s="22"/>
+      <c r="W140" s="22"/>
+      <c r="X140" s="22"/>
+      <c r="Y140" s="22"/>
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B141" s="15" t="s">
@@ -4757,28 +4754,28 @@
       <c r="E141" s="16"/>
       <c r="F141" s="16"/>
       <c r="G141" s="17"/>
-      <c r="H141" s="18" t="s">
+      <c r="H141" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="I141" s="18"/>
-      <c r="J141" s="18"/>
-      <c r="K141" s="18"/>
-      <c r="L141" s="19" t="s">
+      <c r="I141" s="21"/>
+      <c r="J141" s="21"/>
+      <c r="K141" s="21"/>
+      <c r="L141" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="M141" s="19"/>
-      <c r="N141" s="19"/>
-      <c r="O141" s="19"/>
-      <c r="P141" s="19"/>
-      <c r="Q141" s="19"/>
-      <c r="R141" s="19"/>
-      <c r="S141" s="19"/>
-      <c r="T141" s="19"/>
-      <c r="U141" s="19"/>
-      <c r="V141" s="19"/>
-      <c r="W141" s="19"/>
-      <c r="X141" s="19"/>
-      <c r="Y141" s="19"/>
+      <c r="M141" s="22"/>
+      <c r="N141" s="22"/>
+      <c r="O141" s="22"/>
+      <c r="P141" s="22"/>
+      <c r="Q141" s="22"/>
+      <c r="R141" s="22"/>
+      <c r="S141" s="22"/>
+      <c r="T141" s="22"/>
+      <c r="U141" s="22"/>
+      <c r="V141" s="22"/>
+      <c r="W141" s="22"/>
+      <c r="X141" s="22"/>
+      <c r="Y141" s="22"/>
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B142" s="15" t="s">
@@ -4789,28 +4786,28 @@
       <c r="E142" s="16"/>
       <c r="F142" s="16"/>
       <c r="G142" s="17"/>
-      <c r="H142" s="18" t="s">
+      <c r="H142" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="I142" s="18"/>
-      <c r="J142" s="18"/>
-      <c r="K142" s="18"/>
-      <c r="L142" s="19" t="s">
+      <c r="I142" s="21"/>
+      <c r="J142" s="21"/>
+      <c r="K142" s="21"/>
+      <c r="L142" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="M142" s="19"/>
-      <c r="N142" s="19"/>
-      <c r="O142" s="19"/>
-      <c r="P142" s="19"/>
-      <c r="Q142" s="19"/>
-      <c r="R142" s="19"/>
-      <c r="S142" s="19"/>
-      <c r="T142" s="19"/>
-      <c r="U142" s="19"/>
-      <c r="V142" s="19"/>
-      <c r="W142" s="19"/>
-      <c r="X142" s="19"/>
-      <c r="Y142" s="19"/>
+      <c r="M142" s="22"/>
+      <c r="N142" s="22"/>
+      <c r="O142" s="22"/>
+      <c r="P142" s="22"/>
+      <c r="Q142" s="22"/>
+      <c r="R142" s="22"/>
+      <c r="S142" s="22"/>
+      <c r="T142" s="22"/>
+      <c r="U142" s="22"/>
+      <c r="V142" s="22"/>
+      <c r="W142" s="22"/>
+      <c r="X142" s="22"/>
+      <c r="Y142" s="22"/>
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B143" s="8"/>
@@ -4838,251 +4835,192 @@
       <c r="X143" s="9"/>
       <c r="Y143" s="9"/>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A144" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="145" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B145" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C145" s="16"/>
-      <c r="D145" s="16"/>
-      <c r="E145" s="16"/>
-      <c r="F145" s="16"/>
-      <c r="G145" s="17"/>
-      <c r="H145" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="I145" s="18"/>
-      <c r="J145" s="18"/>
-      <c r="K145" s="18"/>
-      <c r="L145" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="M145" s="18"/>
-      <c r="N145" s="18"/>
-      <c r="O145" s="18"/>
-      <c r="P145" s="18"/>
-      <c r="Q145" s="18"/>
-      <c r="R145" s="18"/>
-      <c r="S145" s="18"/>
-      <c r="T145" s="18"/>
-      <c r="U145" s="18"/>
-      <c r="V145" s="18"/>
-      <c r="W145" s="18"/>
-      <c r="X145" s="18"/>
-      <c r="Y145" s="18"/>
-    </row>
-    <row r="146" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B146" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C146" s="16"/>
-      <c r="D146" s="16"/>
-      <c r="E146" s="16"/>
-      <c r="F146" s="16"/>
-      <c r="G146" s="17"/>
-      <c r="H146" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I146" s="16"/>
-      <c r="J146" s="16"/>
-      <c r="K146" s="17"/>
-      <c r="L146" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="M146" s="19"/>
-      <c r="N146" s="19"/>
-      <c r="O146" s="19"/>
-      <c r="P146" s="19"/>
-      <c r="Q146" s="19"/>
-      <c r="R146" s="19"/>
-      <c r="S146" s="19"/>
-      <c r="T146" s="19"/>
-      <c r="U146" s="19"/>
-      <c r="V146" s="19"/>
-      <c r="W146" s="19"/>
-      <c r="X146" s="19"/>
-      <c r="Y146" s="19"/>
-    </row>
-    <row r="147" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B147" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C147" s="16"/>
-      <c r="D147" s="16"/>
-      <c r="E147" s="16"/>
-      <c r="F147" s="16"/>
-      <c r="G147" s="17"/>
-      <c r="H147" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I147" s="18"/>
-      <c r="J147" s="18"/>
-      <c r="K147" s="18"/>
-      <c r="L147" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="M147" s="19"/>
-      <c r="N147" s="19"/>
-      <c r="O147" s="19"/>
-      <c r="P147" s="19"/>
-      <c r="Q147" s="19"/>
-      <c r="R147" s="19"/>
-      <c r="S147" s="19"/>
-      <c r="T147" s="19"/>
-      <c r="U147" s="19"/>
-      <c r="V147" s="19"/>
-      <c r="W147" s="19"/>
-      <c r="X147" s="19"/>
-      <c r="Y147" s="19"/>
-    </row>
-    <row r="148" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B148" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C148" s="16"/>
-      <c r="D148" s="16"/>
-      <c r="E148" s="16"/>
-      <c r="F148" s="16"/>
-      <c r="G148" s="17"/>
-      <c r="H148" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="I148" s="18"/>
-      <c r="J148" s="18"/>
-      <c r="K148" s="18"/>
-      <c r="L148" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M148" s="19"/>
-      <c r="N148" s="19"/>
-      <c r="O148" s="19"/>
-      <c r="P148" s="19"/>
-      <c r="Q148" s="19"/>
-      <c r="R148" s="19"/>
-      <c r="S148" s="19"/>
-      <c r="T148" s="19"/>
-      <c r="U148" s="19"/>
-      <c r="V148" s="19"/>
-      <c r="W148" s="19"/>
-      <c r="X148" s="19"/>
-      <c r="Y148" s="19"/>
-    </row>
   </sheetData>
-  <mergeCells count="335">
+  <mergeCells count="323">
     <mergeCell ref="B51:G51"/>
     <mergeCell ref="H51:J51"/>
     <mergeCell ref="K51:N51"/>
     <mergeCell ref="O51:Y51"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:Y4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="O6:Y6"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:Y10"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:Y5"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:Y12"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="O7:Y7"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="O22:Y22"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="L25:Y25"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="O19:Y19"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="O21:Y21"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="L29:Y29"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="L32:Y32"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="L27:Y27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="L28:Y28"/>
-    <mergeCell ref="L37:Y37"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="L34:Y34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="L35:Y35"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="L33:Y33"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="L58:Y58"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="L60:Y60"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="L42:Y42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="L43:Y43"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="O50:Y50"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="L56:Y56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:Y57"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="L80:Y80"/>
-    <mergeCell ref="O71:Y71"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="O72:Y72"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="O76:Y76"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="L81:Y81"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="O77:Y77"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:Y137"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:Y138"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:Y59"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="K129:N129"/>
+    <mergeCell ref="O129:Y129"/>
+    <mergeCell ref="H130:J130"/>
+    <mergeCell ref="K130:N130"/>
+    <mergeCell ref="O130:Y130"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:Y115"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:Y122"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:Y118"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:Y111"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:Y112"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:Y109"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:Y110"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:Y107"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:Y108"/>
+    <mergeCell ref="K102:N102"/>
+    <mergeCell ref="O102:Y102"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="K104:N104"/>
+    <mergeCell ref="O104:Y104"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="K103:N103"/>
+    <mergeCell ref="O103:Y103"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:Y94"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="O75:Y75"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:Y89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:Y90"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:Y83"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:Y93"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:Y84"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:Y82"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:Y55"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:Y65"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:Y66"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:Y63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:Y64"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:Y26"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="O48:Y48"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:Y40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:Y41"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:Y38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:Y39"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:Y36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:Y139"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:Y140"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:Y11"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:Y14"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="O20:Y20"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:Y13"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="O49:Y49"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:Y141"/>
+    <mergeCell ref="B142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:Y142"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:Y135"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:Y136"/>
+    <mergeCell ref="B131:G131"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:Y134"/>
+    <mergeCell ref="H131:J131"/>
+    <mergeCell ref="K131:N131"/>
+    <mergeCell ref="O131:Y131"/>
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="H128:J128"/>
+    <mergeCell ref="K128:N128"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:Y113"/>
+    <mergeCell ref="L114:Y114"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:Y120"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:Y121"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:Y119"/>
+    <mergeCell ref="O128:Y128"/>
     <mergeCell ref="B100:G100"/>
     <mergeCell ref="H100:J100"/>
     <mergeCell ref="K100:N100"/>
@@ -5107,108 +5045,15 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:Y92"/>
     <mergeCell ref="B93:G93"/>
-    <mergeCell ref="B130:G130"/>
-    <mergeCell ref="B129:G129"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="H128:J128"/>
-    <mergeCell ref="K128:N128"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="H114:K114"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="H113:K113"/>
-    <mergeCell ref="L113:Y113"/>
-    <mergeCell ref="L114:Y114"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="H120:K120"/>
-    <mergeCell ref="L120:Y120"/>
-    <mergeCell ref="H121:K121"/>
-    <mergeCell ref="L121:Y121"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="H119:K119"/>
-    <mergeCell ref="L119:Y119"/>
-    <mergeCell ref="O128:Y128"/>
-    <mergeCell ref="H135:K135"/>
-    <mergeCell ref="L135:Y135"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="H136:K136"/>
-    <mergeCell ref="L136:Y136"/>
-    <mergeCell ref="B131:G131"/>
-    <mergeCell ref="B134:G134"/>
-    <mergeCell ref="H134:K134"/>
-    <mergeCell ref="L134:Y134"/>
-    <mergeCell ref="H131:J131"/>
-    <mergeCell ref="K131:N131"/>
-    <mergeCell ref="O131:Y131"/>
-    <mergeCell ref="B147:G147"/>
-    <mergeCell ref="H147:K147"/>
-    <mergeCell ref="L147:Y147"/>
-    <mergeCell ref="B148:G148"/>
-    <mergeCell ref="H148:K148"/>
-    <mergeCell ref="L148:Y148"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="H141:K141"/>
-    <mergeCell ref="L141:Y141"/>
-    <mergeCell ref="B142:G142"/>
-    <mergeCell ref="H142:K142"/>
-    <mergeCell ref="L142:Y142"/>
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="H145:K145"/>
-    <mergeCell ref="L145:Y145"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="H146:K146"/>
-    <mergeCell ref="L146:Y146"/>
-    <mergeCell ref="B139:G139"/>
-    <mergeCell ref="H139:K139"/>
-    <mergeCell ref="L139:Y139"/>
-    <mergeCell ref="B140:G140"/>
-    <mergeCell ref="H140:K140"/>
-    <mergeCell ref="L140:Y140"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:Y11"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:Y14"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="O20:Y20"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:Y13"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="O49:Y49"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="L26:Y26"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="O48:Y48"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:Y40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:Y41"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:Y38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:Y39"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="L36:Y36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:Y81"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="O77:Y77"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="H72:J72"/>
     <mergeCell ref="B73:G73"/>
     <mergeCell ref="H73:J73"/>
     <mergeCell ref="K73:N73"/>
@@ -5217,97 +5062,104 @@
     <mergeCell ref="H74:J74"/>
     <mergeCell ref="K74:N74"/>
     <mergeCell ref="O74:Y74"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:Y80"/>
+    <mergeCell ref="O71:Y71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="O72:Y72"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="O76:Y76"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:Y58"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:Y60"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:Y42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:Y43"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="O50:Y50"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:Y56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:Y57"/>
+    <mergeCell ref="L37:Y37"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:Y34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:Y35"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:Y33"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:Y29"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:Y32"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:Y27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:Y28"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="O7:Y7"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="O22:Y22"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:Y25"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="O19:Y19"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="O21:Y21"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:N52"/>
     <mergeCell ref="O52:Y52"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="L55:Y55"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="L65:Y65"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="L66:Y66"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="L63:Y63"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:Y64"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="L94:Y94"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="O75:Y75"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="H89:K89"/>
-    <mergeCell ref="L89:Y89"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="L90:Y90"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="L83:Y83"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="L93:Y93"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="H84:K84"/>
-    <mergeCell ref="L84:Y84"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="L82:Y82"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="H107:K107"/>
-    <mergeCell ref="L107:Y107"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="H108:K108"/>
-    <mergeCell ref="L108:Y108"/>
-    <mergeCell ref="K102:N102"/>
-    <mergeCell ref="O102:Y102"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="K104:N104"/>
-    <mergeCell ref="O104:Y104"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="K103:N103"/>
-    <mergeCell ref="O103:Y103"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="H112:K112"/>
-    <mergeCell ref="L112:Y112"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="H109:K109"/>
-    <mergeCell ref="L109:Y109"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="H110:K110"/>
-    <mergeCell ref="L110:Y110"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="H137:K137"/>
-    <mergeCell ref="L137:Y137"/>
-    <mergeCell ref="B138:G138"/>
-    <mergeCell ref="H138:K138"/>
-    <mergeCell ref="L138:Y138"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="L59:Y59"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:N129"/>
-    <mergeCell ref="O129:Y129"/>
-    <mergeCell ref="H130:J130"/>
-    <mergeCell ref="K130:N130"/>
-    <mergeCell ref="O130:Y130"/>
-    <mergeCell ref="H115:K115"/>
-    <mergeCell ref="L115:Y115"/>
-    <mergeCell ref="H122:K122"/>
-    <mergeCell ref="L122:Y122"/>
-    <mergeCell ref="H118:K118"/>
-    <mergeCell ref="L118:Y118"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="H111:K111"/>
-    <mergeCell ref="L111:Y111"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:Y4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="O6:Y6"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:Y10"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:Y5"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:Y12"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/document/API接口文档.xlsx
+++ b/document/API接口文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5200" yWindow="460" windowWidth="28200" windowHeight="16740" activeTab="1"/>
+    <workbookView xWindow="14760" yWindow="460" windowWidth="28200" windowHeight="16740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="134">
   <si>
     <t>必选</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -434,6 +434,33 @@
   </si>
   <si>
     <t>jsonObject</t>
+  </si>
+  <si>
+    <t>hasUnread</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>是否有未读短信</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>7 短信标记已读</t>
+  </si>
+  <si>
+    <t>7.1 发送参数</t>
+  </si>
+  <si>
+    <t>8.1 发送参数</t>
+  </si>
+  <si>
+    <t>8 删除所有短信</t>
+  </si>
+  <si>
+    <t>sms_delete</t>
   </si>
 </sst>
 </file>
@@ -1144,10 +1171,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y143"/>
+  <dimension ref="A1:Y163"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="AS47" sqref="AS47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="Y172" sqref="Y172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2435,92 +2462,94 @@
       <c r="X52" s="19"/>
       <c r="Y52" s="20"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B53" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="I53" s="16"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19"/>
+      <c r="U53" s="19"/>
+      <c r="V53" s="19"/>
+      <c r="W53" s="19"/>
+      <c r="X53" s="19"/>
+      <c r="Y53" s="20"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B55" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M55" s="21"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="21"/>
-      <c r="T55" s="21"/>
-      <c r="U55" s="21"/>
-      <c r="V55" s="21"/>
-      <c r="W55" s="21"/>
-      <c r="X55" s="21"/>
-      <c r="Y55" s="21"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B56" s="15" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
       <c r="E56" s="16"/>
       <c r="F56" s="16"/>
       <c r="G56" s="17"/>
-      <c r="H56" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="22"/>
-      <c r="T56" s="22"/>
-      <c r="U56" s="22"/>
-      <c r="V56" s="22"/>
-      <c r="W56" s="22"/>
-      <c r="X56" s="22"/>
-      <c r="Y56" s="22"/>
+      <c r="H56" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="21"/>
+      <c r="W56" s="21"/>
+      <c r="X56" s="21"/>
+      <c r="Y56" s="21"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B57" s="15" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C57" s="16"/>
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
       <c r="G57" s="17"/>
-      <c r="H57" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
+      <c r="H57" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="17"/>
       <c r="L57" s="22" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
@@ -2538,7 +2567,7 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B58" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
@@ -2546,13 +2575,13 @@
       <c r="F58" s="16"/>
       <c r="G58" s="17"/>
       <c r="H58" s="21" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="I58" s="21"/>
       <c r="J58" s="21"/>
       <c r="K58" s="21"/>
       <c r="L58" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M58" s="22"/>
       <c r="N58" s="22"/>
@@ -2570,7 +2599,7 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B59" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
@@ -2578,13 +2607,13 @@
       <c r="F59" s="16"/>
       <c r="G59" s="17"/>
       <c r="H59" s="21" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="I59" s="21"/>
       <c r="J59" s="21"/>
       <c r="K59" s="21"/>
       <c r="L59" s="22" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="M59" s="22"/>
       <c r="N59" s="22"/>
@@ -2602,7 +2631,7 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B60" s="15" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
@@ -2610,13 +2639,13 @@
       <c r="F60" s="16"/>
       <c r="G60" s="17"/>
       <c r="H60" s="21" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="I60" s="21"/>
       <c r="J60" s="21"/>
       <c r="K60" s="21"/>
       <c r="L60" s="22" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="M60" s="22"/>
       <c r="N60" s="22"/>
@@ -2633,35 +2662,38 @@
       <c r="Y60" s="22"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="9"/>
-      <c r="S61" s="9"/>
-      <c r="T61" s="9"/>
-      <c r="U61" s="9"/>
-      <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
-      <c r="X61" s="9"/>
-      <c r="Y61" s="9"/>
+      <c r="B61" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="22"/>
+      <c r="Q61" s="22"/>
+      <c r="R61" s="22"/>
+      <c r="S61" s="22"/>
+      <c r="T61" s="22"/>
+      <c r="U61" s="22"/>
+      <c r="V61" s="22"/>
+      <c r="W61" s="22"/>
+      <c r="X61" s="22"/>
+      <c r="Y61" s="22"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -2688,40 +2720,37 @@
       <c r="Y62" s="9"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B63" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M63" s="21"/>
-      <c r="N63" s="21"/>
-      <c r="O63" s="21"/>
-      <c r="P63" s="21"/>
-      <c r="Q63" s="21"/>
-      <c r="R63" s="21"/>
-      <c r="S63" s="21"/>
-      <c r="T63" s="21"/>
-      <c r="U63" s="21"/>
-      <c r="V63" s="21"/>
-      <c r="W63" s="21"/>
-      <c r="X63" s="21"/>
-      <c r="Y63" s="21"/>
+      <c r="A63" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="9"/>
+      <c r="Y63" s="9"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B64" s="15" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
@@ -2729,31 +2758,31 @@
       <c r="F64" s="16"/>
       <c r="G64" s="17"/>
       <c r="H64" s="21" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="I64" s="21"/>
       <c r="J64" s="21"/>
       <c r="K64" s="21"/>
-      <c r="L64" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="22"/>
-      <c r="S64" s="22"/>
-      <c r="T64" s="22"/>
-      <c r="U64" s="22"/>
-      <c r="V64" s="22"/>
-      <c r="W64" s="22"/>
-      <c r="X64" s="22"/>
-      <c r="Y64" s="22"/>
+      <c r="L64" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="21"/>
+      <c r="S64" s="21"/>
+      <c r="T64" s="21"/>
+      <c r="U64" s="21"/>
+      <c r="V64" s="21"/>
+      <c r="W64" s="21"/>
+      <c r="X64" s="21"/>
+      <c r="Y64" s="21"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B65" s="15" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C65" s="16"/>
       <c r="D65" s="16"/>
@@ -2761,13 +2790,13 @@
       <c r="F65" s="16"/>
       <c r="G65" s="17"/>
       <c r="H65" s="21" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I65" s="21"/>
       <c r="J65" s="21"/>
       <c r="K65" s="21"/>
       <c r="L65" s="22" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="M65" s="22"/>
       <c r="N65" s="22"/>
@@ -2785,7 +2814,7 @@
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B66" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
@@ -2799,7 +2828,7 @@
       <c r="J66" s="21"/>
       <c r="K66" s="21"/>
       <c r="L66" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M66" s="22"/>
       <c r="N66" s="22"/>
@@ -2815,90 +2844,86 @@
       <c r="X66" s="22"/>
       <c r="Y66" s="22"/>
     </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B67" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="22"/>
+      <c r="Q67" s="22"/>
+      <c r="R67" s="22"/>
+      <c r="S67" s="22"/>
+      <c r="T67" s="22"/>
+      <c r="U67" s="22"/>
+      <c r="V67" s="22"/>
+      <c r="W67" s="22"/>
+      <c r="X67" s="22"/>
+      <c r="Y67" s="22"/>
+    </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A68" s="6" t="s">
+      <c r="B68" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="M68" s="22"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="22"/>
+      <c r="P68" s="22"/>
+      <c r="Q68" s="22"/>
+      <c r="R68" s="22"/>
+      <c r="S68" s="22"/>
+      <c r="T68" s="22"/>
+      <c r="U68" s="22"/>
+      <c r="V68" s="22"/>
+      <c r="W68" s="22"/>
+      <c r="X68" s="22"/>
+      <c r="Y68" s="22"/>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A69" s="6"/>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A70" s="7" t="s">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A71" s="6"/>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B71" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I71" s="16"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="16"/>
-      <c r="S71" s="16"/>
-      <c r="T71" s="16"/>
-      <c r="U71" s="16"/>
-      <c r="V71" s="16"/>
-      <c r="W71" s="16"/>
-      <c r="X71" s="16"/>
-      <c r="Y71" s="17"/>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B72" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I72" s="16"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="19"/>
-      <c r="R72" s="19"/>
-      <c r="S72" s="19"/>
-      <c r="T72" s="19"/>
-      <c r="U72" s="19"/>
-      <c r="V72" s="19"/>
-      <c r="W72" s="19"/>
-      <c r="X72" s="19"/>
-      <c r="Y72" s="20"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B73" s="15" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
@@ -2906,33 +2931,33 @@
       <c r="F73" s="16"/>
       <c r="G73" s="17"/>
       <c r="H73" s="15" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I73" s="16"/>
       <c r="J73" s="17"/>
       <c r="K73" s="15" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="L73" s="16"/>
       <c r="M73" s="16"/>
       <c r="N73" s="17"/>
-      <c r="O73" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="P73" s="19"/>
-      <c r="Q73" s="19"/>
-      <c r="R73" s="19"/>
-      <c r="S73" s="19"/>
-      <c r="T73" s="19"/>
-      <c r="U73" s="19"/>
-      <c r="V73" s="19"/>
-      <c r="W73" s="19"/>
-      <c r="X73" s="19"/>
-      <c r="Y73" s="20"/>
+      <c r="O73" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
+      <c r="R73" s="16"/>
+      <c r="S73" s="16"/>
+      <c r="T73" s="16"/>
+      <c r="U73" s="16"/>
+      <c r="V73" s="16"/>
+      <c r="W73" s="16"/>
+      <c r="X73" s="16"/>
+      <c r="Y73" s="17"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B74" s="15" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
@@ -2945,13 +2970,13 @@
       <c r="I74" s="16"/>
       <c r="J74" s="17"/>
       <c r="K74" s="15" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="L74" s="16"/>
       <c r="M74" s="16"/>
       <c r="N74" s="17"/>
       <c r="O74" s="18" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="P74" s="19"/>
       <c r="Q74" s="19"/>
@@ -2966,7 +2991,7 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B75" s="15" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
@@ -2979,13 +3004,13 @@
       <c r="I75" s="16"/>
       <c r="J75" s="17"/>
       <c r="K75" s="15" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="L75" s="16"/>
       <c r="M75" s="16"/>
       <c r="N75" s="17"/>
       <c r="O75" s="18" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="P75" s="19"/>
       <c r="Q75" s="19"/>
@@ -3000,7 +3025,7 @@
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B76" s="15" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
@@ -3013,13 +3038,13 @@
       <c r="I76" s="16"/>
       <c r="J76" s="17"/>
       <c r="K76" s="15" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="L76" s="16"/>
       <c r="M76" s="16"/>
       <c r="N76" s="17"/>
       <c r="O76" s="18" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="P76" s="19"/>
       <c r="Q76" s="19"/>
@@ -3034,7 +3059,7 @@
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B77" s="15" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
@@ -3047,13 +3072,13 @@
       <c r="I77" s="16"/>
       <c r="J77" s="17"/>
       <c r="K77" s="15" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="L77" s="16"/>
       <c r="M77" s="16"/>
       <c r="N77" s="17"/>
       <c r="O77" s="18" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="P77" s="19"/>
       <c r="Q77" s="19"/>
@@ -3066,78 +3091,82 @@
       <c r="X77" s="19"/>
       <c r="Y77" s="20"/>
     </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B78" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I78" s="16"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P78" s="19"/>
+      <c r="Q78" s="19"/>
+      <c r="R78" s="19"/>
+      <c r="S78" s="19"/>
+      <c r="T78" s="19"/>
+      <c r="U78" s="19"/>
+      <c r="V78" s="19"/>
+      <c r="W78" s="19"/>
+      <c r="X78" s="19"/>
+      <c r="Y78" s="20"/>
+    </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A79" s="7" t="s">
+      <c r="B79" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I79" s="16"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="P79" s="19"/>
+      <c r="Q79" s="19"/>
+      <c r="R79" s="19"/>
+      <c r="S79" s="19"/>
+      <c r="T79" s="19"/>
+      <c r="U79" s="19"/>
+      <c r="V79" s="19"/>
+      <c r="W79" s="19"/>
+      <c r="X79" s="19"/>
+      <c r="Y79" s="20"/>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A81" s="7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B80" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I80" s="21"/>
-      <c r="J80" s="21"/>
-      <c r="K80" s="21"/>
-      <c r="L80" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M80" s="21"/>
-      <c r="N80" s="21"/>
-      <c r="O80" s="21"/>
-      <c r="P80" s="21"/>
-      <c r="Q80" s="21"/>
-      <c r="R80" s="21"/>
-      <c r="S80" s="21"/>
-      <c r="T80" s="21"/>
-      <c r="U80" s="21"/>
-      <c r="V80" s="21"/>
-      <c r="W80" s="21"/>
-      <c r="X80" s="21"/>
-      <c r="Y80" s="21"/>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B81" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I81" s="16"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="M81" s="22"/>
-      <c r="N81" s="22"/>
-      <c r="O81" s="22"/>
-      <c r="P81" s="22"/>
-      <c r="Q81" s="22"/>
-      <c r="R81" s="22"/>
-      <c r="S81" s="22"/>
-      <c r="T81" s="22"/>
-      <c r="U81" s="22"/>
-      <c r="V81" s="22"/>
-      <c r="W81" s="22"/>
-      <c r="X81" s="22"/>
-      <c r="Y81" s="22"/>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B82" s="15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
@@ -3145,45 +3174,45 @@
       <c r="F82" s="16"/>
       <c r="G82" s="17"/>
       <c r="H82" s="21" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="I82" s="21"/>
       <c r="J82" s="21"/>
       <c r="K82" s="21"/>
-      <c r="L82" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M82" s="22"/>
-      <c r="N82" s="22"/>
-      <c r="O82" s="22"/>
-      <c r="P82" s="22"/>
-      <c r="Q82" s="22"/>
-      <c r="R82" s="22"/>
-      <c r="S82" s="22"/>
-      <c r="T82" s="22"/>
-      <c r="U82" s="22"/>
-      <c r="V82" s="22"/>
-      <c r="W82" s="22"/>
-      <c r="X82" s="22"/>
-      <c r="Y82" s="22"/>
+      <c r="L82" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M82" s="21"/>
+      <c r="N82" s="21"/>
+      <c r="O82" s="21"/>
+      <c r="P82" s="21"/>
+      <c r="Q82" s="21"/>
+      <c r="R82" s="21"/>
+      <c r="S82" s="21"/>
+      <c r="T82" s="21"/>
+      <c r="U82" s="21"/>
+      <c r="V82" s="21"/>
+      <c r="W82" s="21"/>
+      <c r="X82" s="21"/>
+      <c r="Y82" s="21"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B83" s="15" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C83" s="16"/>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
       <c r="F83" s="16"/>
       <c r="G83" s="17"/>
-      <c r="H83" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="21"/>
-      <c r="J83" s="21"/>
-      <c r="K83" s="21"/>
+      <c r="H83" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I83" s="16"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="17"/>
       <c r="L83" s="22" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="M83" s="22"/>
       <c r="N83" s="22"/>
@@ -3201,7 +3230,7 @@
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B84" s="15" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
@@ -3209,13 +3238,13 @@
       <c r="F84" s="16"/>
       <c r="G84" s="17"/>
       <c r="H84" s="21" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="I84" s="21"/>
       <c r="J84" s="21"/>
       <c r="K84" s="21"/>
       <c r="L84" s="22" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="M84" s="22"/>
       <c r="N84" s="22"/>
@@ -3232,127 +3261,127 @@
       <c r="Y84" s="22"/>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="9"/>
-      <c r="M85" s="9"/>
-      <c r="N85" s="9"/>
-      <c r="O85" s="9"/>
-      <c r="P85" s="9"/>
-      <c r="Q85" s="9"/>
-      <c r="R85" s="9"/>
-      <c r="S85" s="9"/>
-      <c r="T85" s="9"/>
-      <c r="U85" s="9"/>
-      <c r="V85" s="9"/>
-      <c r="W85" s="9"/>
-      <c r="X85" s="9"/>
-      <c r="Y85" s="9"/>
+      <c r="B85" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M85" s="22"/>
+      <c r="N85" s="22"/>
+      <c r="O85" s="22"/>
+      <c r="P85" s="22"/>
+      <c r="Q85" s="22"/>
+      <c r="R85" s="22"/>
+      <c r="S85" s="22"/>
+      <c r="T85" s="22"/>
+      <c r="U85" s="22"/>
+      <c r="V85" s="22"/>
+      <c r="W85" s="22"/>
+      <c r="X85" s="22"/>
+      <c r="Y85" s="22"/>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A86" s="7" t="s">
+      <c r="B86" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="M86" s="22"/>
+      <c r="N86" s="22"/>
+      <c r="O86" s="22"/>
+      <c r="P86" s="22"/>
+      <c r="Q86" s="22"/>
+      <c r="R86" s="22"/>
+      <c r="S86" s="22"/>
+      <c r="T86" s="22"/>
+      <c r="U86" s="22"/>
+      <c r="V86" s="22"/>
+      <c r="W86" s="22"/>
+      <c r="X86" s="22"/>
+      <c r="Y86" s="22"/>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="9"/>
+      <c r="R87" s="9"/>
+      <c r="S87" s="9"/>
+      <c r="T87" s="9"/>
+      <c r="U87" s="9"/>
+      <c r="V87" s="9"/>
+      <c r="W87" s="9"/>
+      <c r="X87" s="9"/>
+      <c r="Y87" s="9"/>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A88" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="9"/>
-      <c r="N86" s="9"/>
-      <c r="O86" s="9"/>
-      <c r="P86" s="9"/>
-      <c r="Q86" s="9"/>
-      <c r="R86" s="9"/>
-      <c r="S86" s="9"/>
-      <c r="T86" s="9"/>
-      <c r="U86" s="9"/>
-      <c r="V86" s="9"/>
-      <c r="W86" s="9"/>
-      <c r="X86" s="9"/>
-      <c r="Y86" s="9"/>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B87" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I87" s="21"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="21"/>
-      <c r="L87" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M87" s="21"/>
-      <c r="N87" s="21"/>
-      <c r="O87" s="21"/>
-      <c r="P87" s="21"/>
-      <c r="Q87" s="21"/>
-      <c r="R87" s="21"/>
-      <c r="S87" s="21"/>
-      <c r="T87" s="21"/>
-      <c r="U87" s="21"/>
-      <c r="V87" s="21"/>
-      <c r="W87" s="21"/>
-      <c r="X87" s="21"/>
-      <c r="Y87" s="21"/>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B88" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I88" s="21"/>
-      <c r="J88" s="21"/>
-      <c r="K88" s="21"/>
-      <c r="L88" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="M88" s="22"/>
-      <c r="N88" s="22"/>
-      <c r="O88" s="22"/>
-      <c r="P88" s="22"/>
-      <c r="Q88" s="22"/>
-      <c r="R88" s="22"/>
-      <c r="S88" s="22"/>
-      <c r="T88" s="22"/>
-      <c r="U88" s="22"/>
-      <c r="V88" s="22"/>
-      <c r="W88" s="22"/>
-      <c r="X88" s="22"/>
-      <c r="Y88" s="22"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="9"/>
+      <c r="P88" s="9"/>
+      <c r="Q88" s="9"/>
+      <c r="R88" s="9"/>
+      <c r="S88" s="9"/>
+      <c r="T88" s="9"/>
+      <c r="U88" s="9"/>
+      <c r="V88" s="9"/>
+      <c r="W88" s="9"/>
+      <c r="X88" s="9"/>
+      <c r="Y88" s="9"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B89" s="15" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="C89" s="16"/>
       <c r="D89" s="16"/>
@@ -3360,31 +3389,31 @@
       <c r="F89" s="16"/>
       <c r="G89" s="17"/>
       <c r="H89" s="21" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="I89" s="21"/>
       <c r="J89" s="21"/>
       <c r="K89" s="21"/>
-      <c r="L89" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="M89" s="22"/>
-      <c r="N89" s="22"/>
-      <c r="O89" s="22"/>
-      <c r="P89" s="22"/>
-      <c r="Q89" s="22"/>
-      <c r="R89" s="22"/>
-      <c r="S89" s="22"/>
-      <c r="T89" s="22"/>
-      <c r="U89" s="22"/>
-      <c r="V89" s="22"/>
-      <c r="W89" s="22"/>
-      <c r="X89" s="22"/>
-      <c r="Y89" s="22"/>
+      <c r="L89" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M89" s="21"/>
+      <c r="N89" s="21"/>
+      <c r="O89" s="21"/>
+      <c r="P89" s="21"/>
+      <c r="Q89" s="21"/>
+      <c r="R89" s="21"/>
+      <c r="S89" s="21"/>
+      <c r="T89" s="21"/>
+      <c r="U89" s="21"/>
+      <c r="V89" s="21"/>
+      <c r="W89" s="21"/>
+      <c r="X89" s="21"/>
+      <c r="Y89" s="21"/>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B90" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C90" s="16"/>
       <c r="D90" s="16"/>
@@ -3392,13 +3421,13 @@
       <c r="F90" s="16"/>
       <c r="G90" s="17"/>
       <c r="H90" s="21" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="I90" s="21"/>
       <c r="J90" s="21"/>
       <c r="K90" s="21"/>
       <c r="L90" s="22" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M90" s="22"/>
       <c r="N90" s="22"/>
@@ -3416,7 +3445,7 @@
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B91" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
@@ -3424,13 +3453,13 @@
       <c r="F91" s="16"/>
       <c r="G91" s="17"/>
       <c r="H91" s="21" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="I91" s="21"/>
       <c r="J91" s="21"/>
       <c r="K91" s="21"/>
       <c r="L91" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M91" s="22"/>
       <c r="N91" s="22"/>
@@ -3448,7 +3477,7 @@
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B92" s="15" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C92" s="16"/>
       <c r="D92" s="16"/>
@@ -3456,13 +3485,13 @@
       <c r="F92" s="16"/>
       <c r="G92" s="17"/>
       <c r="H92" s="21" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I92" s="21"/>
       <c r="J92" s="21"/>
       <c r="K92" s="21"/>
       <c r="L92" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M92" s="22"/>
       <c r="N92" s="22"/>
@@ -3480,7 +3509,7 @@
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B93" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C93" s="16"/>
       <c r="D93" s="16"/>
@@ -3488,13 +3517,13 @@
       <c r="F93" s="16"/>
       <c r="G93" s="17"/>
       <c r="H93" s="21" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="I93" s="21"/>
       <c r="J93" s="21"/>
       <c r="K93" s="21"/>
       <c r="L93" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M93" s="22"/>
       <c r="N93" s="22"/>
@@ -3512,7 +3541,7 @@
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B94" s="15" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
@@ -3520,13 +3549,13 @@
       <c r="F94" s="16"/>
       <c r="G94" s="17"/>
       <c r="H94" s="21" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I94" s="21"/>
       <c r="J94" s="21"/>
       <c r="K94" s="21"/>
       <c r="L94" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M94" s="22"/>
       <c r="N94" s="22"/>
@@ -3544,7 +3573,7 @@
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B95" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
@@ -3558,7 +3587,7 @@
       <c r="J95" s="21"/>
       <c r="K95" s="21"/>
       <c r="L95" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M95" s="22"/>
       <c r="N95" s="22"/>
@@ -3575,115 +3604,111 @@
       <c r="Y95" s="22"/>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="8"/>
-      <c r="L96" s="9"/>
-      <c r="M96" s="9"/>
-      <c r="N96" s="9"/>
-      <c r="O96" s="9"/>
-      <c r="P96" s="9"/>
-      <c r="Q96" s="9"/>
-      <c r="R96" s="9"/>
-      <c r="S96" s="9"/>
-      <c r="T96" s="9"/>
-      <c r="U96" s="9"/>
-      <c r="V96" s="9"/>
-      <c r="W96" s="9"/>
-      <c r="X96" s="9"/>
-      <c r="Y96" s="9"/>
+      <c r="B96" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="M96" s="22"/>
+      <c r="N96" s="22"/>
+      <c r="O96" s="22"/>
+      <c r="P96" s="22"/>
+      <c r="Q96" s="22"/>
+      <c r="R96" s="22"/>
+      <c r="S96" s="22"/>
+      <c r="T96" s="22"/>
+      <c r="U96" s="22"/>
+      <c r="V96" s="22"/>
+      <c r="W96" s="22"/>
+      <c r="X96" s="22"/>
+      <c r="Y96" s="22"/>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A97" s="6" t="s">
+      <c r="B97" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I97" s="21"/>
+      <c r="J97" s="21"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="M97" s="22"/>
+      <c r="N97" s="22"/>
+      <c r="O97" s="22"/>
+      <c r="P97" s="22"/>
+      <c r="Q97" s="22"/>
+      <c r="R97" s="22"/>
+      <c r="S97" s="22"/>
+      <c r="T97" s="22"/>
+      <c r="U97" s="22"/>
+      <c r="V97" s="22"/>
+      <c r="W97" s="22"/>
+      <c r="X97" s="22"/>
+      <c r="Y97" s="22"/>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="9"/>
+      <c r="R98" s="9"/>
+      <c r="S98" s="9"/>
+      <c r="T98" s="9"/>
+      <c r="U98" s="9"/>
+      <c r="V98" s="9"/>
+      <c r="W98" s="9"/>
+      <c r="X98" s="9"/>
+      <c r="Y98" s="9"/>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A98" s="6"/>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A99" s="7" t="s">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A100" s="6"/>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A101" s="7" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B100" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I100" s="16"/>
-      <c r="J100" s="17"/>
-      <c r="K100" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L100" s="16"/>
-      <c r="M100" s="16"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="P100" s="16"/>
-      <c r="Q100" s="16"/>
-      <c r="R100" s="16"/>
-      <c r="S100" s="16"/>
-      <c r="T100" s="16"/>
-      <c r="U100" s="16"/>
-      <c r="V100" s="16"/>
-      <c r="W100" s="16"/>
-      <c r="X100" s="16"/>
-      <c r="Y100" s="17"/>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B101" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I101" s="16"/>
-      <c r="J101" s="17"/>
-      <c r="K101" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L101" s="16"/>
-      <c r="M101" s="16"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="P101" s="19"/>
-      <c r="Q101" s="19"/>
-      <c r="R101" s="19"/>
-      <c r="S101" s="19"/>
-      <c r="T101" s="19"/>
-      <c r="U101" s="19"/>
-      <c r="V101" s="19"/>
-      <c r="W101" s="19"/>
-      <c r="X101" s="19"/>
-      <c r="Y101" s="20"/>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B102" s="15" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
@@ -3691,33 +3716,33 @@
       <c r="F102" s="16"/>
       <c r="G102" s="17"/>
       <c r="H102" s="15" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I102" s="16"/>
       <c r="J102" s="17"/>
       <c r="K102" s="15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L102" s="16"/>
       <c r="M102" s="16"/>
       <c r="N102" s="17"/>
-      <c r="O102" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="P102" s="19"/>
-      <c r="Q102" s="19"/>
-      <c r="R102" s="19"/>
-      <c r="S102" s="19"/>
-      <c r="T102" s="19"/>
-      <c r="U102" s="19"/>
-      <c r="V102" s="19"/>
-      <c r="W102" s="19"/>
-      <c r="X102" s="19"/>
-      <c r="Y102" s="20"/>
+      <c r="O102" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P102" s="16"/>
+      <c r="Q102" s="16"/>
+      <c r="R102" s="16"/>
+      <c r="S102" s="16"/>
+      <c r="T102" s="16"/>
+      <c r="U102" s="16"/>
+      <c r="V102" s="16"/>
+      <c r="W102" s="16"/>
+      <c r="X102" s="16"/>
+      <c r="Y102" s="17"/>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B103" s="15" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
@@ -3730,13 +3755,13 @@
       <c r="I103" s="16"/>
       <c r="J103" s="17"/>
       <c r="K103" s="15" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="L103" s="16"/>
       <c r="M103" s="16"/>
       <c r="N103" s="17"/>
       <c r="O103" s="18" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="P103" s="19"/>
       <c r="Q103" s="19"/>
@@ -3751,7 +3776,7 @@
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B104" s="15" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="C104" s="16"/>
       <c r="D104" s="16"/>
@@ -3764,13 +3789,13 @@
       <c r="I104" s="16"/>
       <c r="J104" s="17"/>
       <c r="K104" s="15" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="L104" s="16"/>
       <c r="M104" s="16"/>
       <c r="N104" s="17"/>
       <c r="O104" s="18" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="P104" s="19"/>
       <c r="Q104" s="19"/>
@@ -3783,102 +3808,106 @@
       <c r="X104" s="19"/>
       <c r="Y104" s="20"/>
     </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B105" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I105" s="16"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L105" s="16"/>
+      <c r="M105" s="16"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="P105" s="19"/>
+      <c r="Q105" s="19"/>
+      <c r="R105" s="19"/>
+      <c r="S105" s="19"/>
+      <c r="T105" s="19"/>
+      <c r="U105" s="19"/>
+      <c r="V105" s="19"/>
+      <c r="W105" s="19"/>
+      <c r="X105" s="19"/>
+      <c r="Y105" s="20"/>
+    </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A106" s="7" t="s">
+      <c r="B106" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I106" s="16"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L106" s="16"/>
+      <c r="M106" s="16"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="P106" s="19"/>
+      <c r="Q106" s="19"/>
+      <c r="R106" s="19"/>
+      <c r="S106" s="19"/>
+      <c r="T106" s="19"/>
+      <c r="U106" s="19"/>
+      <c r="V106" s="19"/>
+      <c r="W106" s="19"/>
+      <c r="X106" s="19"/>
+      <c r="Y106" s="20"/>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A108" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
-      <c r="K106" s="8"/>
-      <c r="L106" s="9"/>
-      <c r="M106" s="9"/>
-      <c r="N106" s="9"/>
-      <c r="O106" s="9"/>
-      <c r="P106" s="9"/>
-      <c r="Q106" s="9"/>
-      <c r="R106" s="9"/>
-      <c r="S106" s="9"/>
-      <c r="T106" s="9"/>
-      <c r="U106" s="9"/>
-      <c r="V106" s="9"/>
-      <c r="W106" s="9"/>
-      <c r="X106" s="9"/>
-      <c r="Y106" s="9"/>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B107" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="17"/>
-      <c r="H107" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I107" s="21"/>
-      <c r="J107" s="21"/>
-      <c r="K107" s="21"/>
-      <c r="L107" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M107" s="21"/>
-      <c r="N107" s="21"/>
-      <c r="O107" s="21"/>
-      <c r="P107" s="21"/>
-      <c r="Q107" s="21"/>
-      <c r="R107" s="21"/>
-      <c r="S107" s="21"/>
-      <c r="T107" s="21"/>
-      <c r="U107" s="21"/>
-      <c r="V107" s="21"/>
-      <c r="W107" s="21"/>
-      <c r="X107" s="21"/>
-      <c r="Y107" s="21"/>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B108" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I108" s="21"/>
-      <c r="J108" s="21"/>
-      <c r="K108" s="21"/>
-      <c r="L108" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="M108" s="22"/>
-      <c r="N108" s="22"/>
-      <c r="O108" s="22"/>
-      <c r="P108" s="22"/>
-      <c r="Q108" s="22"/>
-      <c r="R108" s="22"/>
-      <c r="S108" s="22"/>
-      <c r="T108" s="22"/>
-      <c r="U108" s="22"/>
-      <c r="V108" s="22"/>
-      <c r="W108" s="22"/>
-      <c r="X108" s="22"/>
-      <c r="Y108" s="22"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="9"/>
+      <c r="P108" s="9"/>
+      <c r="Q108" s="9"/>
+      <c r="R108" s="9"/>
+      <c r="S108" s="9"/>
+      <c r="T108" s="9"/>
+      <c r="U108" s="9"/>
+      <c r="V108" s="9"/>
+      <c r="W108" s="9"/>
+      <c r="X108" s="9"/>
+      <c r="Y108" s="9"/>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B109" s="15" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="C109" s="16"/>
       <c r="D109" s="16"/>
@@ -3886,31 +3915,31 @@
       <c r="F109" s="16"/>
       <c r="G109" s="17"/>
       <c r="H109" s="21" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="I109" s="21"/>
       <c r="J109" s="21"/>
       <c r="K109" s="21"/>
-      <c r="L109" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="M109" s="22"/>
-      <c r="N109" s="22"/>
-      <c r="O109" s="22"/>
-      <c r="P109" s="22"/>
-      <c r="Q109" s="22"/>
-      <c r="R109" s="22"/>
-      <c r="S109" s="22"/>
-      <c r="T109" s="22"/>
-      <c r="U109" s="22"/>
-      <c r="V109" s="22"/>
-      <c r="W109" s="22"/>
-      <c r="X109" s="22"/>
-      <c r="Y109" s="22"/>
+      <c r="L109" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M109" s="21"/>
+      <c r="N109" s="21"/>
+      <c r="O109" s="21"/>
+      <c r="P109" s="21"/>
+      <c r="Q109" s="21"/>
+      <c r="R109" s="21"/>
+      <c r="S109" s="21"/>
+      <c r="T109" s="21"/>
+      <c r="U109" s="21"/>
+      <c r="V109" s="21"/>
+      <c r="W109" s="21"/>
+      <c r="X109" s="21"/>
+      <c r="Y109" s="21"/>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B110" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
@@ -3918,13 +3947,13 @@
       <c r="F110" s="16"/>
       <c r="G110" s="17"/>
       <c r="H110" s="21" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="I110" s="21"/>
       <c r="J110" s="21"/>
       <c r="K110" s="21"/>
       <c r="L110" s="22" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M110" s="22"/>
       <c r="N110" s="22"/>
@@ -3942,7 +3971,7 @@
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B111" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C111" s="16"/>
       <c r="D111" s="16"/>
@@ -3950,13 +3979,13 @@
       <c r="F111" s="16"/>
       <c r="G111" s="17"/>
       <c r="H111" s="21" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="I111" s="21"/>
       <c r="J111" s="21"/>
       <c r="K111" s="21"/>
       <c r="L111" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M111" s="22"/>
       <c r="N111" s="22"/>
@@ -3974,7 +4003,7 @@
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B112" s="15" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
@@ -3982,13 +4011,13 @@
       <c r="F112" s="16"/>
       <c r="G112" s="17"/>
       <c r="H112" s="21" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I112" s="21"/>
       <c r="J112" s="21"/>
       <c r="K112" s="21"/>
       <c r="L112" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M112" s="22"/>
       <c r="N112" s="22"/>
@@ -4006,7 +4035,7 @@
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B113" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C113" s="16"/>
       <c r="D113" s="16"/>
@@ -4014,13 +4043,13 @@
       <c r="F113" s="16"/>
       <c r="G113" s="17"/>
       <c r="H113" s="21" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="I113" s="21"/>
       <c r="J113" s="21"/>
       <c r="K113" s="21"/>
       <c r="L113" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M113" s="22"/>
       <c r="N113" s="22"/>
@@ -4038,7 +4067,7 @@
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B114" s="15" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
@@ -4046,13 +4075,13 @@
       <c r="F114" s="16"/>
       <c r="G114" s="17"/>
       <c r="H114" s="21" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I114" s="21"/>
       <c r="J114" s="21"/>
       <c r="K114" s="21"/>
       <c r="L114" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M114" s="22"/>
       <c r="N114" s="22"/>
@@ -4070,7 +4099,7 @@
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B115" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
@@ -4084,7 +4113,7 @@
       <c r="J115" s="21"/>
       <c r="K115" s="21"/>
       <c r="L115" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M115" s="22"/>
       <c r="N115" s="22"/>
@@ -4101,103 +4130,103 @@
       <c r="Y115" s="22"/>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="8"/>
-      <c r="J116" s="8"/>
-      <c r="K116" s="8"/>
-      <c r="L116" s="9"/>
-      <c r="M116" s="9"/>
-      <c r="N116" s="9"/>
-      <c r="O116" s="9"/>
-      <c r="P116" s="9"/>
-      <c r="Q116" s="9"/>
-      <c r="R116" s="9"/>
-      <c r="S116" s="9"/>
-      <c r="T116" s="9"/>
-      <c r="U116" s="9"/>
-      <c r="V116" s="9"/>
-      <c r="W116" s="9"/>
-      <c r="X116" s="9"/>
-      <c r="Y116" s="9"/>
+      <c r="B116" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I116" s="21"/>
+      <c r="J116" s="21"/>
+      <c r="K116" s="21"/>
+      <c r="L116" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="M116" s="22"/>
+      <c r="N116" s="22"/>
+      <c r="O116" s="22"/>
+      <c r="P116" s="22"/>
+      <c r="Q116" s="22"/>
+      <c r="R116" s="22"/>
+      <c r="S116" s="22"/>
+      <c r="T116" s="22"/>
+      <c r="U116" s="22"/>
+      <c r="V116" s="22"/>
+      <c r="W116" s="22"/>
+      <c r="X116" s="22"/>
+      <c r="Y116" s="22"/>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A117" s="7" t="s">
+      <c r="B117" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I117" s="21"/>
+      <c r="J117" s="21"/>
+      <c r="K117" s="21"/>
+      <c r="L117" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="M117" s="22"/>
+      <c r="N117" s="22"/>
+      <c r="O117" s="22"/>
+      <c r="P117" s="22"/>
+      <c r="Q117" s="22"/>
+      <c r="R117" s="22"/>
+      <c r="S117" s="22"/>
+      <c r="T117" s="22"/>
+      <c r="U117" s="22"/>
+      <c r="V117" s="22"/>
+      <c r="W117" s="22"/>
+      <c r="X117" s="22"/>
+      <c r="Y117" s="22"/>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="9"/>
+      <c r="P118" s="9"/>
+      <c r="Q118" s="9"/>
+      <c r="R118" s="9"/>
+      <c r="S118" s="9"/>
+      <c r="T118" s="9"/>
+      <c r="U118" s="9"/>
+      <c r="V118" s="9"/>
+      <c r="W118" s="9"/>
+      <c r="X118" s="9"/>
+      <c r="Y118" s="9"/>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A119" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B118" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="17"/>
-      <c r="H118" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I118" s="21"/>
-      <c r="J118" s="21"/>
-      <c r="K118" s="21"/>
-      <c r="L118" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M118" s="21"/>
-      <c r="N118" s="21"/>
-      <c r="O118" s="21"/>
-      <c r="P118" s="21"/>
-      <c r="Q118" s="21"/>
-      <c r="R118" s="21"/>
-      <c r="S118" s="21"/>
-      <c r="T118" s="21"/>
-      <c r="U118" s="21"/>
-      <c r="V118" s="21"/>
-      <c r="W118" s="21"/>
-      <c r="X118" s="21"/>
-      <c r="Y118" s="21"/>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B119" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
-      <c r="F119" s="16"/>
-      <c r="G119" s="17"/>
-      <c r="H119" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I119" s="16"/>
-      <c r="J119" s="16"/>
-      <c r="K119" s="17"/>
-      <c r="L119" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="M119" s="22"/>
-      <c r="N119" s="22"/>
-      <c r="O119" s="22"/>
-      <c r="P119" s="22"/>
-      <c r="Q119" s="22"/>
-      <c r="R119" s="22"/>
-      <c r="S119" s="22"/>
-      <c r="T119" s="22"/>
-      <c r="U119" s="22"/>
-      <c r="V119" s="22"/>
-      <c r="W119" s="22"/>
-      <c r="X119" s="22"/>
-      <c r="Y119" s="22"/>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B120" s="15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C120" s="16"/>
       <c r="D120" s="16"/>
@@ -4205,45 +4234,45 @@
       <c r="F120" s="16"/>
       <c r="G120" s="17"/>
       <c r="H120" s="21" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="I120" s="21"/>
       <c r="J120" s="21"/>
       <c r="K120" s="21"/>
-      <c r="L120" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M120" s="22"/>
-      <c r="N120" s="22"/>
-      <c r="O120" s="22"/>
-      <c r="P120" s="22"/>
-      <c r="Q120" s="22"/>
-      <c r="R120" s="22"/>
-      <c r="S120" s="22"/>
-      <c r="T120" s="22"/>
-      <c r="U120" s="22"/>
-      <c r="V120" s="22"/>
-      <c r="W120" s="22"/>
-      <c r="X120" s="22"/>
-      <c r="Y120" s="22"/>
+      <c r="L120" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M120" s="21"/>
+      <c r="N120" s="21"/>
+      <c r="O120" s="21"/>
+      <c r="P120" s="21"/>
+      <c r="Q120" s="21"/>
+      <c r="R120" s="21"/>
+      <c r="S120" s="21"/>
+      <c r="T120" s="21"/>
+      <c r="U120" s="21"/>
+      <c r="V120" s="21"/>
+      <c r="W120" s="21"/>
+      <c r="X120" s="21"/>
+      <c r="Y120" s="21"/>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B121" s="15" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C121" s="16"/>
       <c r="D121" s="16"/>
       <c r="E121" s="16"/>
       <c r="F121" s="16"/>
       <c r="G121" s="17"/>
-      <c r="H121" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="I121" s="21"/>
-      <c r="J121" s="21"/>
-      <c r="K121" s="21"/>
+      <c r="H121" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I121" s="16"/>
+      <c r="J121" s="16"/>
+      <c r="K121" s="17"/>
       <c r="L121" s="22" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="M121" s="22"/>
       <c r="N121" s="22"/>
@@ -4261,7 +4290,7 @@
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B122" s="15" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="C122" s="16"/>
       <c r="D122" s="16"/>
@@ -4269,13 +4298,13 @@
       <c r="F122" s="16"/>
       <c r="G122" s="17"/>
       <c r="H122" s="21" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="I122" s="21"/>
       <c r="J122" s="21"/>
       <c r="K122" s="21"/>
       <c r="L122" s="22" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="M122" s="22"/>
       <c r="N122" s="22"/>
@@ -4292,141 +4321,137 @@
       <c r="Y122" s="22"/>
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="8"/>
-      <c r="J123" s="8"/>
-      <c r="K123" s="8"/>
-      <c r="L123" s="9"/>
-      <c r="M123" s="9"/>
-      <c r="N123" s="9"/>
-      <c r="O123" s="9"/>
-      <c r="P123" s="9"/>
-      <c r="Q123" s="9"/>
-      <c r="R123" s="9"/>
-      <c r="S123" s="9"/>
-      <c r="T123" s="9"/>
-      <c r="U123" s="9"/>
-      <c r="V123" s="9"/>
-      <c r="W123" s="9"/>
-      <c r="X123" s="9"/>
-      <c r="Y123" s="9"/>
+      <c r="B123" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I123" s="21"/>
+      <c r="J123" s="21"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M123" s="22"/>
+      <c r="N123" s="22"/>
+      <c r="O123" s="22"/>
+      <c r="P123" s="22"/>
+      <c r="Q123" s="22"/>
+      <c r="R123" s="22"/>
+      <c r="S123" s="22"/>
+      <c r="T123" s="22"/>
+      <c r="U123" s="22"/>
+      <c r="V123" s="22"/>
+      <c r="W123" s="22"/>
+      <c r="X123" s="22"/>
+      <c r="Y123" s="22"/>
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="8"/>
-      <c r="J124" s="8"/>
-      <c r="K124" s="8"/>
-      <c r="L124" s="9"/>
-      <c r="M124" s="9"/>
-      <c r="N124" s="9"/>
-      <c r="O124" s="9"/>
-      <c r="P124" s="9"/>
-      <c r="Q124" s="9"/>
-      <c r="R124" s="9"/>
-      <c r="S124" s="9"/>
-      <c r="T124" s="9"/>
-      <c r="U124" s="9"/>
-      <c r="V124" s="9"/>
-      <c r="W124" s="9"/>
-      <c r="X124" s="9"/>
-      <c r="Y124" s="9"/>
+      <c r="B124" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="I124" s="21"/>
+      <c r="J124" s="21"/>
+      <c r="K124" s="21"/>
+      <c r="L124" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="M124" s="22"/>
+      <c r="N124" s="22"/>
+      <c r="O124" s="22"/>
+      <c r="P124" s="22"/>
+      <c r="Q124" s="22"/>
+      <c r="R124" s="22"/>
+      <c r="S124" s="22"/>
+      <c r="T124" s="22"/>
+      <c r="U124" s="22"/>
+      <c r="V124" s="22"/>
+      <c r="W124" s="22"/>
+      <c r="X124" s="22"/>
+      <c r="Y124" s="22"/>
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A125" s="6" t="s">
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
+      <c r="K125" s="8"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="9"/>
+      <c r="N125" s="9"/>
+      <c r="O125" s="9"/>
+      <c r="P125" s="9"/>
+      <c r="Q125" s="9"/>
+      <c r="R125" s="9"/>
+      <c r="S125" s="9"/>
+      <c r="T125" s="9"/>
+      <c r="U125" s="9"/>
+      <c r="V125" s="9"/>
+      <c r="W125" s="9"/>
+      <c r="X125" s="9"/>
+      <c r="Y125" s="9"/>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="8"/>
+      <c r="L126" s="9"/>
+      <c r="M126" s="9"/>
+      <c r="N126" s="9"/>
+      <c r="O126" s="9"/>
+      <c r="P126" s="9"/>
+      <c r="Q126" s="9"/>
+      <c r="R126" s="9"/>
+      <c r="S126" s="9"/>
+      <c r="T126" s="9"/>
+      <c r="U126" s="9"/>
+      <c r="V126" s="9"/>
+      <c r="W126" s="9"/>
+      <c r="X126" s="9"/>
+      <c r="Y126" s="9"/>
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A127" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A126" s="6"/>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A127" s="7" t="s">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A128" s="6"/>
+    </row>
+    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A129" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B128" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C128" s="16"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="16"/>
-      <c r="F128" s="16"/>
-      <c r="G128" s="17"/>
-      <c r="H128" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I128" s="16"/>
-      <c r="J128" s="17"/>
-      <c r="K128" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L128" s="16"/>
-      <c r="M128" s="16"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="P128" s="16"/>
-      <c r="Q128" s="16"/>
-      <c r="R128" s="16"/>
-      <c r="S128" s="16"/>
-      <c r="T128" s="16"/>
-      <c r="U128" s="16"/>
-      <c r="V128" s="16"/>
-      <c r="W128" s="16"/>
-      <c r="X128" s="16"/>
-      <c r="Y128" s="17"/>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B129" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C129" s="16"/>
-      <c r="D129" s="16"/>
-      <c r="E129" s="16"/>
-      <c r="F129" s="16"/>
-      <c r="G129" s="17"/>
-      <c r="H129" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I129" s="16"/>
-      <c r="J129" s="17"/>
-      <c r="K129" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L129" s="16"/>
-      <c r="M129" s="16"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="P129" s="19"/>
-      <c r="Q129" s="19"/>
-      <c r="R129" s="19"/>
-      <c r="S129" s="19"/>
-      <c r="T129" s="19"/>
-      <c r="U129" s="19"/>
-      <c r="V129" s="19"/>
-      <c r="W129" s="19"/>
-      <c r="X129" s="19"/>
-      <c r="Y129" s="20"/>
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B130" s="15" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C130" s="16"/>
       <c r="D130" s="16"/>
@@ -4434,33 +4459,33 @@
       <c r="F130" s="16"/>
       <c r="G130" s="17"/>
       <c r="H130" s="15" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I130" s="16"/>
       <c r="J130" s="17"/>
       <c r="K130" s="15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L130" s="16"/>
       <c r="M130" s="16"/>
       <c r="N130" s="17"/>
-      <c r="O130" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="P130" s="19"/>
-      <c r="Q130" s="19"/>
-      <c r="R130" s="19"/>
-      <c r="S130" s="19"/>
-      <c r="T130" s="19"/>
-      <c r="U130" s="19"/>
-      <c r="V130" s="19"/>
-      <c r="W130" s="19"/>
-      <c r="X130" s="19"/>
-      <c r="Y130" s="20"/>
+      <c r="O130" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P130" s="16"/>
+      <c r="Q130" s="16"/>
+      <c r="R130" s="16"/>
+      <c r="S130" s="16"/>
+      <c r="T130" s="16"/>
+      <c r="U130" s="16"/>
+      <c r="V130" s="16"/>
+      <c r="W130" s="16"/>
+      <c r="X130" s="16"/>
+      <c r="Y130" s="17"/>
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B131" s="15" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="C131" s="16"/>
       <c r="D131" s="16"/>
@@ -4473,13 +4498,13 @@
       <c r="I131" s="16"/>
       <c r="J131" s="17"/>
       <c r="K131" s="15" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="L131" s="16"/>
       <c r="M131" s="16"/>
       <c r="N131" s="17"/>
       <c r="O131" s="18" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="P131" s="19"/>
       <c r="Q131" s="19"/>
@@ -4492,70 +4517,72 @@
       <c r="X131" s="19"/>
       <c r="Y131" s="20"/>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A133" s="7" t="s">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B132" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C132" s="16"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="16"/>
+      <c r="F132" s="16"/>
+      <c r="G132" s="17"/>
+      <c r="H132" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I132" s="16"/>
+      <c r="J132" s="17"/>
+      <c r="K132" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="L132" s="16"/>
+      <c r="M132" s="16"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="P132" s="19"/>
+      <c r="Q132" s="19"/>
+      <c r="R132" s="19"/>
+      <c r="S132" s="19"/>
+      <c r="T132" s="19"/>
+      <c r="U132" s="19"/>
+      <c r="V132" s="19"/>
+      <c r="W132" s="19"/>
+      <c r="X132" s="19"/>
+      <c r="Y132" s="20"/>
+    </row>
+    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A134" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B133" s="8"/>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
-      <c r="I133" s="8"/>
-      <c r="J133" s="8"/>
-      <c r="K133" s="8"/>
-      <c r="L133" s="9"/>
-      <c r="M133" s="9"/>
-      <c r="N133" s="9"/>
-      <c r="O133" s="9"/>
-      <c r="P133" s="9"/>
-      <c r="Q133" s="9"/>
-      <c r="R133" s="9"/>
-      <c r="S133" s="9"/>
-      <c r="T133" s="9"/>
-      <c r="U133" s="9"/>
-      <c r="V133" s="9"/>
-      <c r="W133" s="9"/>
-      <c r="X133" s="9"/>
-      <c r="Y133" s="9"/>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B134" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C134" s="16"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="16"/>
-      <c r="F134" s="16"/>
-      <c r="G134" s="17"/>
-      <c r="H134" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I134" s="21"/>
-      <c r="J134" s="21"/>
-      <c r="K134" s="21"/>
-      <c r="L134" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M134" s="21"/>
-      <c r="N134" s="21"/>
-      <c r="O134" s="21"/>
-      <c r="P134" s="21"/>
-      <c r="Q134" s="21"/>
-      <c r="R134" s="21"/>
-      <c r="S134" s="21"/>
-      <c r="T134" s="21"/>
-      <c r="U134" s="21"/>
-      <c r="V134" s="21"/>
-      <c r="W134" s="21"/>
-      <c r="X134" s="21"/>
-      <c r="Y134" s="21"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
+      <c r="K134" s="8"/>
+      <c r="L134" s="9"/>
+      <c r="M134" s="9"/>
+      <c r="N134" s="9"/>
+      <c r="O134" s="9"/>
+      <c r="P134" s="9"/>
+      <c r="Q134" s="9"/>
+      <c r="R134" s="9"/>
+      <c r="S134" s="9"/>
+      <c r="T134" s="9"/>
+      <c r="U134" s="9"/>
+      <c r="V134" s="9"/>
+      <c r="W134" s="9"/>
+      <c r="X134" s="9"/>
+      <c r="Y134" s="9"/>
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B135" s="15" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="C135" s="16"/>
       <c r="D135" s="16"/>
@@ -4563,31 +4590,31 @@
       <c r="F135" s="16"/>
       <c r="G135" s="17"/>
       <c r="H135" s="21" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="I135" s="21"/>
       <c r="J135" s="21"/>
       <c r="K135" s="21"/>
-      <c r="L135" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="M135" s="22"/>
-      <c r="N135" s="22"/>
-      <c r="O135" s="22"/>
-      <c r="P135" s="22"/>
-      <c r="Q135" s="22"/>
-      <c r="R135" s="22"/>
-      <c r="S135" s="22"/>
-      <c r="T135" s="22"/>
-      <c r="U135" s="22"/>
-      <c r="V135" s="22"/>
-      <c r="W135" s="22"/>
-      <c r="X135" s="22"/>
-      <c r="Y135" s="22"/>
+      <c r="L135" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M135" s="21"/>
+      <c r="N135" s="21"/>
+      <c r="O135" s="21"/>
+      <c r="P135" s="21"/>
+      <c r="Q135" s="21"/>
+      <c r="R135" s="21"/>
+      <c r="S135" s="21"/>
+      <c r="T135" s="21"/>
+      <c r="U135" s="21"/>
+      <c r="V135" s="21"/>
+      <c r="W135" s="21"/>
+      <c r="X135" s="21"/>
+      <c r="Y135" s="21"/>
     </row>
     <row r="136" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B136" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C136" s="16"/>
       <c r="D136" s="16"/>
@@ -4595,13 +4622,13 @@
       <c r="F136" s="16"/>
       <c r="G136" s="17"/>
       <c r="H136" s="21" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="I136" s="21"/>
       <c r="J136" s="21"/>
       <c r="K136" s="21"/>
       <c r="L136" s="22" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M136" s="22"/>
       <c r="N136" s="22"/>
@@ -4619,7 +4646,7 @@
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B137" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C137" s="16"/>
       <c r="D137" s="16"/>
@@ -4633,7 +4660,7 @@
       <c r="J137" s="21"/>
       <c r="K137" s="21"/>
       <c r="L137" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M137" s="22"/>
       <c r="N137" s="22"/>
@@ -4651,7 +4678,7 @@
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B138" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C138" s="16"/>
       <c r="D138" s="16"/>
@@ -4659,13 +4686,13 @@
       <c r="F138" s="16"/>
       <c r="G138" s="17"/>
       <c r="H138" s="21" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="I138" s="21"/>
       <c r="J138" s="21"/>
       <c r="K138" s="21"/>
       <c r="L138" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M138" s="22"/>
       <c r="N138" s="22"/>
@@ -4683,7 +4710,7 @@
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B139" s="15" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C139" s="16"/>
       <c r="D139" s="16"/>
@@ -4691,13 +4718,13 @@
       <c r="F139" s="16"/>
       <c r="G139" s="17"/>
       <c r="H139" s="21" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I139" s="21"/>
       <c r="J139" s="21"/>
       <c r="K139" s="21"/>
       <c r="L139" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M139" s="22"/>
       <c r="N139" s="22"/>
@@ -4715,7 +4742,7 @@
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B140" s="15" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C140" s="16"/>
       <c r="D140" s="16"/>
@@ -4723,13 +4750,13 @@
       <c r="F140" s="16"/>
       <c r="G140" s="17"/>
       <c r="H140" s="21" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I140" s="21"/>
       <c r="J140" s="21"/>
       <c r="K140" s="21"/>
       <c r="L140" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M140" s="22"/>
       <c r="N140" s="22"/>
@@ -4747,7 +4774,7 @@
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B141" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C141" s="16"/>
       <c r="D141" s="16"/>
@@ -4761,7 +4788,7 @@
       <c r="J141" s="21"/>
       <c r="K141" s="21"/>
       <c r="L141" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M141" s="22"/>
       <c r="N141" s="22"/>
@@ -4779,7 +4806,7 @@
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B142" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C142" s="16"/>
       <c r="D142" s="16"/>
@@ -4793,7 +4820,7 @@
       <c r="J142" s="21"/>
       <c r="K142" s="21"/>
       <c r="L142" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M142" s="22"/>
       <c r="N142" s="22"/>
@@ -4810,127 +4837,700 @@
       <c r="Y142" s="22"/>
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B143" s="8"/>
-      <c r="C143" s="8"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
-      <c r="K143" s="8"/>
-      <c r="L143" s="9"/>
-      <c r="M143" s="9"/>
-      <c r="N143" s="9"/>
-      <c r="O143" s="9"/>
-      <c r="P143" s="9"/>
-      <c r="Q143" s="9"/>
-      <c r="R143" s="9"/>
-      <c r="S143" s="9"/>
-      <c r="T143" s="9"/>
-      <c r="U143" s="9"/>
-      <c r="V143" s="9"/>
-      <c r="W143" s="9"/>
-      <c r="X143" s="9"/>
-      <c r="Y143" s="9"/>
+      <c r="B143" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C143" s="16"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="16"/>
+      <c r="F143" s="16"/>
+      <c r="G143" s="17"/>
+      <c r="H143" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I143" s="21"/>
+      <c r="J143" s="21"/>
+      <c r="K143" s="21"/>
+      <c r="L143" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="M143" s="22"/>
+      <c r="N143" s="22"/>
+      <c r="O143" s="22"/>
+      <c r="P143" s="22"/>
+      <c r="Q143" s="22"/>
+      <c r="R143" s="22"/>
+      <c r="S143" s="22"/>
+      <c r="T143" s="22"/>
+      <c r="U143" s="22"/>
+      <c r="V143" s="22"/>
+      <c r="W143" s="22"/>
+      <c r="X143" s="22"/>
+      <c r="Y143" s="22"/>
+    </row>
+    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="8"/>
+      <c r="J144" s="8"/>
+      <c r="K144" s="8"/>
+      <c r="L144" s="9"/>
+      <c r="M144" s="9"/>
+      <c r="N144" s="9"/>
+      <c r="O144" s="9"/>
+      <c r="P144" s="9"/>
+      <c r="Q144" s="9"/>
+      <c r="R144" s="9"/>
+      <c r="S144" s="9"/>
+      <c r="T144" s="9"/>
+      <c r="U144" s="9"/>
+      <c r="V144" s="9"/>
+      <c r="W144" s="9"/>
+      <c r="X144" s="9"/>
+      <c r="Y144" s="9"/>
+    </row>
+    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A146" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A147" s="6"/>
+    </row>
+    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A148" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B149" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" s="16"/>
+      <c r="D149" s="16"/>
+      <c r="E149" s="16"/>
+      <c r="F149" s="16"/>
+      <c r="G149" s="17"/>
+      <c r="H149" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I149" s="16"/>
+      <c r="J149" s="17"/>
+      <c r="K149" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L149" s="16"/>
+      <c r="M149" s="16"/>
+      <c r="N149" s="17"/>
+      <c r="O149" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P149" s="16"/>
+      <c r="Q149" s="16"/>
+      <c r="R149" s="16"/>
+      <c r="S149" s="16"/>
+      <c r="T149" s="16"/>
+      <c r="U149" s="16"/>
+      <c r="V149" s="16"/>
+      <c r="W149" s="16"/>
+      <c r="X149" s="16"/>
+      <c r="Y149" s="17"/>
+    </row>
+    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B150" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C150" s="16"/>
+      <c r="D150" s="16"/>
+      <c r="E150" s="16"/>
+      <c r="F150" s="16"/>
+      <c r="G150" s="17"/>
+      <c r="H150" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I150" s="16"/>
+      <c r="J150" s="17"/>
+      <c r="K150" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L150" s="16"/>
+      <c r="M150" s="16"/>
+      <c r="N150" s="17"/>
+      <c r="O150" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="P150" s="19"/>
+      <c r="Q150" s="19"/>
+      <c r="R150" s="19"/>
+      <c r="S150" s="19"/>
+      <c r="T150" s="19"/>
+      <c r="U150" s="19"/>
+      <c r="V150" s="19"/>
+      <c r="W150" s="19"/>
+      <c r="X150" s="19"/>
+      <c r="Y150" s="20"/>
+    </row>
+    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B151" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C151" s="16"/>
+      <c r="D151" s="16"/>
+      <c r="E151" s="16"/>
+      <c r="F151" s="16"/>
+      <c r="G151" s="17"/>
+      <c r="H151" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I151" s="16"/>
+      <c r="J151" s="17"/>
+      <c r="K151" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L151" s="16"/>
+      <c r="M151" s="16"/>
+      <c r="N151" s="17"/>
+      <c r="O151" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P151" s="19"/>
+      <c r="Q151" s="19"/>
+      <c r="R151" s="19"/>
+      <c r="S151" s="19"/>
+      <c r="T151" s="19"/>
+      <c r="U151" s="19"/>
+      <c r="V151" s="19"/>
+      <c r="W151" s="19"/>
+      <c r="X151" s="19"/>
+      <c r="Y151" s="20"/>
+    </row>
+    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B152" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" s="16"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="16"/>
+      <c r="F152" s="16"/>
+      <c r="G152" s="17"/>
+      <c r="H152" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I152" s="16"/>
+      <c r="J152" s="17"/>
+      <c r="K152" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L152" s="16"/>
+      <c r="M152" s="16"/>
+      <c r="N152" s="17"/>
+      <c r="O152" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="P152" s="19"/>
+      <c r="Q152" s="19"/>
+      <c r="R152" s="19"/>
+      <c r="S152" s="19"/>
+      <c r="T152" s="19"/>
+      <c r="U152" s="19"/>
+      <c r="V152" s="19"/>
+      <c r="W152" s="19"/>
+      <c r="X152" s="19"/>
+      <c r="Y152" s="20"/>
+    </row>
+    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B153" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C153" s="16"/>
+      <c r="D153" s="16"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="16"/>
+      <c r="G153" s="17"/>
+      <c r="H153" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I153" s="16"/>
+      <c r="J153" s="17"/>
+      <c r="K153" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L153" s="16"/>
+      <c r="M153" s="16"/>
+      <c r="N153" s="17"/>
+      <c r="O153" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P153" s="19"/>
+      <c r="Q153" s="19"/>
+      <c r="R153" s="19"/>
+      <c r="S153" s="19"/>
+      <c r="T153" s="19"/>
+      <c r="U153" s="19"/>
+      <c r="V153" s="19"/>
+      <c r="W153" s="19"/>
+      <c r="X153" s="19"/>
+      <c r="Y153" s="20"/>
+    </row>
+    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
+      <c r="I155" s="8"/>
+      <c r="J155" s="8"/>
+      <c r="K155" s="8"/>
+      <c r="L155" s="9"/>
+      <c r="M155" s="9"/>
+      <c r="N155" s="9"/>
+      <c r="O155" s="9"/>
+      <c r="P155" s="9"/>
+      <c r="Q155" s="9"/>
+      <c r="R155" s="9"/>
+      <c r="S155" s="9"/>
+      <c r="T155" s="9"/>
+      <c r="U155" s="9"/>
+      <c r="V155" s="9"/>
+      <c r="W155" s="9"/>
+      <c r="X155" s="9"/>
+      <c r="Y155" s="9"/>
+    </row>
+    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A156" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A157" s="6"/>
+    </row>
+    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A158" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B159" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" s="16"/>
+      <c r="D159" s="16"/>
+      <c r="E159" s="16"/>
+      <c r="F159" s="16"/>
+      <c r="G159" s="17"/>
+      <c r="H159" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I159" s="16"/>
+      <c r="J159" s="17"/>
+      <c r="K159" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L159" s="16"/>
+      <c r="M159" s="16"/>
+      <c r="N159" s="17"/>
+      <c r="O159" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P159" s="16"/>
+      <c r="Q159" s="16"/>
+      <c r="R159" s="16"/>
+      <c r="S159" s="16"/>
+      <c r="T159" s="16"/>
+      <c r="U159" s="16"/>
+      <c r="V159" s="16"/>
+      <c r="W159" s="16"/>
+      <c r="X159" s="16"/>
+      <c r="Y159" s="17"/>
+    </row>
+    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B160" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C160" s="16"/>
+      <c r="D160" s="16"/>
+      <c r="E160" s="16"/>
+      <c r="F160" s="16"/>
+      <c r="G160" s="17"/>
+      <c r="H160" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I160" s="16"/>
+      <c r="J160" s="17"/>
+      <c r="K160" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L160" s="16"/>
+      <c r="M160" s="16"/>
+      <c r="N160" s="17"/>
+      <c r="O160" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="P160" s="19"/>
+      <c r="Q160" s="19"/>
+      <c r="R160" s="19"/>
+      <c r="S160" s="19"/>
+      <c r="T160" s="19"/>
+      <c r="U160" s="19"/>
+      <c r="V160" s="19"/>
+      <c r="W160" s="19"/>
+      <c r="X160" s="19"/>
+      <c r="Y160" s="20"/>
+    </row>
+    <row r="161" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B161" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C161" s="16"/>
+      <c r="D161" s="16"/>
+      <c r="E161" s="16"/>
+      <c r="F161" s="16"/>
+      <c r="G161" s="17"/>
+      <c r="H161" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I161" s="16"/>
+      <c r="J161" s="17"/>
+      <c r="K161" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L161" s="16"/>
+      <c r="M161" s="16"/>
+      <c r="N161" s="17"/>
+      <c r="O161" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P161" s="19"/>
+      <c r="Q161" s="19"/>
+      <c r="R161" s="19"/>
+      <c r="S161" s="19"/>
+      <c r="T161" s="19"/>
+      <c r="U161" s="19"/>
+      <c r="V161" s="19"/>
+      <c r="W161" s="19"/>
+      <c r="X161" s="19"/>
+      <c r="Y161" s="20"/>
+    </row>
+    <row r="162" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B162" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162" s="16"/>
+      <c r="D162" s="16"/>
+      <c r="E162" s="16"/>
+      <c r="F162" s="16"/>
+      <c r="G162" s="17"/>
+      <c r="H162" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I162" s="16"/>
+      <c r="J162" s="17"/>
+      <c r="K162" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L162" s="16"/>
+      <c r="M162" s="16"/>
+      <c r="N162" s="17"/>
+      <c r="O162" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="P162" s="19"/>
+      <c r="Q162" s="19"/>
+      <c r="R162" s="19"/>
+      <c r="S162" s="19"/>
+      <c r="T162" s="19"/>
+      <c r="U162" s="19"/>
+      <c r="V162" s="19"/>
+      <c r="W162" s="19"/>
+      <c r="X162" s="19"/>
+      <c r="Y162" s="20"/>
+    </row>
+    <row r="163" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B163" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C163" s="16"/>
+      <c r="D163" s="16"/>
+      <c r="E163" s="16"/>
+      <c r="F163" s="16"/>
+      <c r="G163" s="17"/>
+      <c r="H163" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I163" s="16"/>
+      <c r="J163" s="17"/>
+      <c r="K163" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L163" s="16"/>
+      <c r="M163" s="16"/>
+      <c r="N163" s="17"/>
+      <c r="O163" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P163" s="19"/>
+      <c r="Q163" s="19"/>
+      <c r="R163" s="19"/>
+      <c r="S163" s="19"/>
+      <c r="T163" s="19"/>
+      <c r="U163" s="19"/>
+      <c r="V163" s="19"/>
+      <c r="W163" s="19"/>
+      <c r="X163" s="19"/>
+      <c r="Y163" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="323">
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="O51:Y51"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="H137:K137"/>
-    <mergeCell ref="L137:Y137"/>
-    <mergeCell ref="B138:G138"/>
-    <mergeCell ref="H138:K138"/>
-    <mergeCell ref="L138:Y138"/>
+  <mergeCells count="366">
+    <mergeCell ref="B153:G153"/>
+    <mergeCell ref="H153:J153"/>
+    <mergeCell ref="K153:N153"/>
+    <mergeCell ref="O153:Y153"/>
+    <mergeCell ref="H159:J159"/>
+    <mergeCell ref="K159:N159"/>
+    <mergeCell ref="O159:Y159"/>
+    <mergeCell ref="H160:J160"/>
+    <mergeCell ref="K160:N160"/>
+    <mergeCell ref="O160:Y160"/>
+    <mergeCell ref="B150:G150"/>
+    <mergeCell ref="H150:J150"/>
+    <mergeCell ref="K150:N150"/>
+    <mergeCell ref="O150:Y150"/>
+    <mergeCell ref="B151:G151"/>
+    <mergeCell ref="H151:J151"/>
+    <mergeCell ref="K151:N151"/>
+    <mergeCell ref="O151:Y151"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="H152:J152"/>
+    <mergeCell ref="K152:N152"/>
+    <mergeCell ref="O152:Y152"/>
+    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="H163:J163"/>
+    <mergeCell ref="K163:N163"/>
+    <mergeCell ref="O163:Y163"/>
+    <mergeCell ref="B160:G160"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B162:G162"/>
+    <mergeCell ref="H161:J161"/>
+    <mergeCell ref="K161:N161"/>
+    <mergeCell ref="O161:Y161"/>
+    <mergeCell ref="H162:J162"/>
+    <mergeCell ref="K162:N162"/>
+    <mergeCell ref="O162:Y162"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="O52:Y52"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:Y68"/>
+    <mergeCell ref="B149:G149"/>
+    <mergeCell ref="H149:J149"/>
+    <mergeCell ref="K149:N149"/>
+    <mergeCell ref="O149:Y149"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="O53:Y53"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:Y4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="O6:Y6"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:Y10"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:Y5"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:Y12"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="O7:Y7"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="O22:Y22"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:Y25"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="O19:Y19"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="O21:Y21"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:Y29"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:Y32"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:Y27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:Y28"/>
+    <mergeCell ref="L37:Y37"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:Y34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:Y35"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:Y33"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:Y42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:Y43"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="O50:Y50"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="O78:Y78"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="K73:N73"/>
     <mergeCell ref="B59:G59"/>
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:Y59"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:N129"/>
-    <mergeCell ref="O129:Y129"/>
-    <mergeCell ref="H130:J130"/>
-    <mergeCell ref="K130:N130"/>
-    <mergeCell ref="O130:Y130"/>
-    <mergeCell ref="H115:K115"/>
-    <mergeCell ref="L115:Y115"/>
-    <mergeCell ref="H122:K122"/>
-    <mergeCell ref="L122:Y122"/>
-    <mergeCell ref="H118:K118"/>
-    <mergeCell ref="L118:Y118"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="H111:K111"/>
-    <mergeCell ref="L111:Y111"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="H112:K112"/>
-    <mergeCell ref="L112:Y112"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="H109:K109"/>
-    <mergeCell ref="L109:Y109"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="H110:K110"/>
-    <mergeCell ref="L110:Y110"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="H107:K107"/>
-    <mergeCell ref="L107:Y107"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="H108:K108"/>
-    <mergeCell ref="L108:Y108"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:Y61"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:Y83"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="O79:Y79"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="O75:Y75"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="O76:Y76"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:Y82"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="O74:Y74"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="H102:J102"/>
     <mergeCell ref="K102:N102"/>
     <mergeCell ref="O102:Y102"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="K104:N104"/>
-    <mergeCell ref="O104:Y104"/>
     <mergeCell ref="B103:G103"/>
     <mergeCell ref="H103:J103"/>
     <mergeCell ref="K103:N103"/>
     <mergeCell ref="O103:Y103"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="L94:Y94"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="O75:Y75"/>
     <mergeCell ref="B89:G89"/>
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:Y89"/>
     <mergeCell ref="B90:G90"/>
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:Y90"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="L83:Y83"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:Y97"/>
+    <mergeCell ref="B93:G93"/>
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:Y93"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="H84:K84"/>
-    <mergeCell ref="L84:Y84"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="L82:Y82"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="L55:Y55"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="L65:Y65"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="L66:Y66"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="L63:Y63"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:Y64"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:Y94"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="H130:J130"/>
+    <mergeCell ref="K130:N130"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:Y115"/>
+    <mergeCell ref="L116:Y116"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:Y122"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:Y123"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:Y121"/>
+    <mergeCell ref="O130:Y130"/>
+    <mergeCell ref="B132:G132"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:Y135"/>
+    <mergeCell ref="H132:J132"/>
+    <mergeCell ref="K132:N132"/>
+    <mergeCell ref="O132:Y132"/>
+    <mergeCell ref="B131:G131"/>
+    <mergeCell ref="B142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:Y142"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:Y143"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:Y136"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:Y137"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:Y140"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:Y141"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:Y11"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:Y14"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="O20:Y20"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:Y13"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="O49:Y49"/>
+    <mergeCell ref="B50:G50"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:Y26"/>
@@ -4955,211 +5555,105 @@
     <mergeCell ref="L36:Y36"/>
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="H37:K37"/>
-    <mergeCell ref="B139:G139"/>
-    <mergeCell ref="H139:K139"/>
-    <mergeCell ref="L139:Y139"/>
-    <mergeCell ref="B140:G140"/>
-    <mergeCell ref="H140:K140"/>
-    <mergeCell ref="L140:Y140"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:Y11"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:Y14"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="O20:Y20"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:Y13"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="O49:Y49"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="H141:K141"/>
-    <mergeCell ref="L141:Y141"/>
-    <mergeCell ref="B142:G142"/>
-    <mergeCell ref="H142:K142"/>
-    <mergeCell ref="L142:Y142"/>
-    <mergeCell ref="H135:K135"/>
-    <mergeCell ref="L135:Y135"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="H136:K136"/>
-    <mergeCell ref="L136:Y136"/>
-    <mergeCell ref="B131:G131"/>
-    <mergeCell ref="B134:G134"/>
-    <mergeCell ref="H134:K134"/>
-    <mergeCell ref="L134:Y134"/>
-    <mergeCell ref="H131:J131"/>
-    <mergeCell ref="K131:N131"/>
-    <mergeCell ref="O131:Y131"/>
-    <mergeCell ref="B130:G130"/>
-    <mergeCell ref="B129:G129"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="H128:J128"/>
-    <mergeCell ref="K128:N128"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="H114:K114"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="H113:K113"/>
-    <mergeCell ref="L113:Y113"/>
-    <mergeCell ref="L114:Y114"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="H120:K120"/>
-    <mergeCell ref="L120:Y120"/>
-    <mergeCell ref="H121:K121"/>
-    <mergeCell ref="L121:Y121"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="H119:K119"/>
-    <mergeCell ref="L119:Y119"/>
-    <mergeCell ref="O128:Y128"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="K100:N100"/>
-    <mergeCell ref="O100:Y100"/>
-    <mergeCell ref="B101:G101"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="K101:N101"/>
-    <mergeCell ref="O101:Y101"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="H87:K87"/>
-    <mergeCell ref="L87:Y87"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="H88:K88"/>
-    <mergeCell ref="L88:Y88"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="L95:Y95"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:Y56"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:Y66"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:Y67"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:Y64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:Y65"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="O73:Y73"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:Y57"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:Y58"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:Y96"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="O77:Y77"/>
     <mergeCell ref="B91:G91"/>
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:Y91"/>
     <mergeCell ref="B92:G92"/>
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:Y92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="L81:Y81"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="O77:Y77"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="O73:Y73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="O74:Y74"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="L80:Y80"/>
-    <mergeCell ref="O71:Y71"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="O72:Y72"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="O76:Y76"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="L58:Y58"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:Y85"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:Y95"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:Y86"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:Y84"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:Y109"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:Y110"/>
+    <mergeCell ref="K104:N104"/>
+    <mergeCell ref="O104:Y104"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="K106:N106"/>
+    <mergeCell ref="O106:Y106"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="K105:N105"/>
+    <mergeCell ref="O105:Y105"/>
+    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="L120:Y120"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:Y113"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:Y114"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:Y111"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:Y112"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="O51:Y51"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:Y138"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:Y139"/>
     <mergeCell ref="B60:G60"/>
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:Y60"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="L42:Y42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="L43:Y43"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="O50:Y50"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="L56:Y56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:Y57"/>
-    <mergeCell ref="L37:Y37"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="L34:Y34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="L35:Y35"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="L33:Y33"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="L29:Y29"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="L32:Y32"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="L27:Y27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="L28:Y28"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="O7:Y7"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="O22:Y22"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="L25:Y25"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="O19:Y19"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="O21:Y21"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="O52:Y52"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:Y4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="O6:Y6"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:Y10"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:Y5"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:Y12"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H131:J131"/>
+    <mergeCell ref="K131:N131"/>
+    <mergeCell ref="O131:Y131"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:Y117"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:Y124"/>
+    <mergeCell ref="H120:K120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/document/API接口文档.xlsx
+++ b/document/API接口文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14760" yWindow="460" windowWidth="28200" windowHeight="16740" activeTab="1"/>
+    <workbookView xWindow="14760" yWindow="460" windowWidth="28200" windowHeight="16740"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="136">
   <si>
     <t>必选</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -461,6 +461,12 @@
   </si>
   <si>
     <t>sms_delete</t>
+  </si>
+  <si>
+    <t>删除整组短信</t>
+  </si>
+  <si>
+    <t>短信标记已读</t>
   </si>
 </sst>
 </file>
@@ -1069,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1144,12 +1150,20 @@
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="10">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="10">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
@@ -1173,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y163"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="Y172" sqref="Y172"/>
+    <sheetView showGridLines="0" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="F166" sqref="F166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5288,135 +5302,202 @@
     </row>
   </sheetData>
   <mergeCells count="366">
-    <mergeCell ref="B153:G153"/>
-    <mergeCell ref="H153:J153"/>
-    <mergeCell ref="K153:N153"/>
-    <mergeCell ref="O153:Y153"/>
-    <mergeCell ref="H159:J159"/>
-    <mergeCell ref="K159:N159"/>
-    <mergeCell ref="O159:Y159"/>
-    <mergeCell ref="H160:J160"/>
-    <mergeCell ref="K160:N160"/>
-    <mergeCell ref="O160:Y160"/>
-    <mergeCell ref="B150:G150"/>
-    <mergeCell ref="H150:J150"/>
-    <mergeCell ref="K150:N150"/>
-    <mergeCell ref="O150:Y150"/>
-    <mergeCell ref="B151:G151"/>
-    <mergeCell ref="H151:J151"/>
-    <mergeCell ref="K151:N151"/>
-    <mergeCell ref="O151:Y151"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="H152:J152"/>
-    <mergeCell ref="K152:N152"/>
-    <mergeCell ref="O152:Y152"/>
-    <mergeCell ref="B163:G163"/>
-    <mergeCell ref="H163:J163"/>
-    <mergeCell ref="K163:N163"/>
-    <mergeCell ref="O163:Y163"/>
-    <mergeCell ref="B160:G160"/>
-    <mergeCell ref="B161:G161"/>
-    <mergeCell ref="B162:G162"/>
-    <mergeCell ref="H161:J161"/>
-    <mergeCell ref="K161:N161"/>
-    <mergeCell ref="O161:Y161"/>
-    <mergeCell ref="H162:J162"/>
-    <mergeCell ref="K162:N162"/>
-    <mergeCell ref="O162:Y162"/>
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="O52:Y52"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="L68:Y68"/>
-    <mergeCell ref="B149:G149"/>
-    <mergeCell ref="H149:J149"/>
-    <mergeCell ref="K149:N149"/>
-    <mergeCell ref="O149:Y149"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="O53:Y53"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:Y4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="O6:Y6"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:Y10"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:Y5"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:Y12"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="O7:Y7"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="O22:Y22"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="L25:Y25"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="O19:Y19"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="O21:Y21"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="L29:Y29"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="L32:Y32"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="L27:Y27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="L28:Y28"/>
-    <mergeCell ref="L37:Y37"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="L34:Y34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="L35:Y35"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="L33:Y33"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="L42:Y42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="L43:Y43"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="O50:Y50"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="O78:Y78"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="L59:Y59"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="O51:Y51"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:Y138"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:Y139"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:Y60"/>
+    <mergeCell ref="H131:J131"/>
+    <mergeCell ref="K131:N131"/>
+    <mergeCell ref="O131:Y131"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:Y117"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:Y124"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:Y120"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:Y113"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:Y114"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:Y111"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:Y112"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:Y109"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:Y110"/>
+    <mergeCell ref="K104:N104"/>
+    <mergeCell ref="O104:Y104"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="K106:N106"/>
+    <mergeCell ref="O106:Y106"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="K105:N105"/>
+    <mergeCell ref="O105:Y105"/>
+    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:Y96"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="O77:Y77"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:Y91"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:Y92"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:Y85"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:Y95"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:Y86"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:Y84"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:Y56"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:Y66"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:Y67"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:Y64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:Y65"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="O73:Y73"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:Y57"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:Y58"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:Y26"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="O48:Y48"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:Y40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:Y41"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:Y38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:Y39"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:Y36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:Y143"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:Y136"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:Y137"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:Y140"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:Y141"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="B132:G132"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:Y135"/>
+    <mergeCell ref="H132:J132"/>
+    <mergeCell ref="K132:N132"/>
+    <mergeCell ref="O132:Y132"/>
+    <mergeCell ref="B131:G131"/>
+    <mergeCell ref="B142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:Y142"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="H130:J130"/>
+    <mergeCell ref="K130:N130"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:Y115"/>
+    <mergeCell ref="L116:Y116"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:Y122"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:Y123"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:Y121"/>
+    <mergeCell ref="O130:Y130"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="K102:N102"/>
+    <mergeCell ref="O102:Y102"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="K103:N103"/>
+    <mergeCell ref="O103:Y103"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:Y89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:Y90"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:Y97"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:Y93"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:Y94"/>
     <mergeCell ref="L61:Y61"/>
     <mergeCell ref="B83:G83"/>
     <mergeCell ref="H83:K83"/>
@@ -5441,219 +5522,152 @@
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="K74:N74"/>
     <mergeCell ref="O74:Y74"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="K102:N102"/>
-    <mergeCell ref="O102:Y102"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="K103:N103"/>
-    <mergeCell ref="O103:Y103"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="H89:K89"/>
-    <mergeCell ref="L89:Y89"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="L90:Y90"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="H97:K97"/>
-    <mergeCell ref="L97:Y97"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="L93:Y93"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="L94:Y94"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="B130:G130"/>
-    <mergeCell ref="H130:J130"/>
-    <mergeCell ref="K130:N130"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="H116:K116"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="H115:K115"/>
-    <mergeCell ref="L115:Y115"/>
-    <mergeCell ref="L116:Y116"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="B124:G124"/>
-    <mergeCell ref="H122:K122"/>
-    <mergeCell ref="L122:Y122"/>
-    <mergeCell ref="H123:K123"/>
-    <mergeCell ref="L123:Y123"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="H121:K121"/>
-    <mergeCell ref="L121:Y121"/>
-    <mergeCell ref="O130:Y130"/>
-    <mergeCell ref="B132:G132"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="H135:K135"/>
-    <mergeCell ref="L135:Y135"/>
-    <mergeCell ref="H132:J132"/>
-    <mergeCell ref="K132:N132"/>
-    <mergeCell ref="O132:Y132"/>
-    <mergeCell ref="B131:G131"/>
-    <mergeCell ref="B142:G142"/>
-    <mergeCell ref="H142:K142"/>
-    <mergeCell ref="L142:Y142"/>
-    <mergeCell ref="B143:G143"/>
-    <mergeCell ref="H143:K143"/>
-    <mergeCell ref="L143:Y143"/>
-    <mergeCell ref="H136:K136"/>
-    <mergeCell ref="L136:Y136"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="H137:K137"/>
-    <mergeCell ref="L137:Y137"/>
-    <mergeCell ref="B140:G140"/>
-    <mergeCell ref="H140:K140"/>
-    <mergeCell ref="L140:Y140"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="H141:K141"/>
-    <mergeCell ref="L141:Y141"/>
-    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:Y42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:Y43"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="O50:Y50"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="O49:Y49"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="L37:Y37"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:Y34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:Y35"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:Y33"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:Y29"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:Y32"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:Y27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:Y28"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:Y25"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="O19:Y19"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="O21:Y21"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="O20:Y20"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:Y12"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="O7:Y7"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="O22:Y22"/>
+    <mergeCell ref="B11:G11"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:Y11"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:Y14"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="O20:Y20"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:Y13"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="O49:Y49"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="L26:Y26"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="O48:Y48"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:Y40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:Y41"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:Y38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:Y39"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="L36:Y36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="L56:Y56"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="L66:Y66"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="L67:Y67"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:Y64"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="L65:Y65"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="O73:Y73"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:Y57"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="L58:Y58"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="H96:K96"/>
-    <mergeCell ref="L96:Y96"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="O77:Y77"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="H91:K91"/>
-    <mergeCell ref="L91:Y91"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="L92:Y92"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="H85:K85"/>
-    <mergeCell ref="L85:Y85"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="L95:Y95"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="H86:K86"/>
-    <mergeCell ref="L86:Y86"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="H84:K84"/>
-    <mergeCell ref="L84:Y84"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="H109:K109"/>
-    <mergeCell ref="L109:Y109"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="H110:K110"/>
-    <mergeCell ref="L110:Y110"/>
-    <mergeCell ref="K104:N104"/>
-    <mergeCell ref="O104:Y104"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="K106:N106"/>
-    <mergeCell ref="O106:Y106"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="H105:J105"/>
-    <mergeCell ref="K105:N105"/>
-    <mergeCell ref="O105:Y105"/>
-    <mergeCell ref="B106:G106"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="L120:Y120"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="H113:K113"/>
-    <mergeCell ref="L113:Y113"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="H114:K114"/>
-    <mergeCell ref="L114:Y114"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="H111:K111"/>
-    <mergeCell ref="L111:Y111"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="H112:K112"/>
-    <mergeCell ref="L112:Y112"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="O51:Y51"/>
-    <mergeCell ref="B138:G138"/>
-    <mergeCell ref="H138:K138"/>
-    <mergeCell ref="L138:Y138"/>
-    <mergeCell ref="B139:G139"/>
-    <mergeCell ref="H139:K139"/>
-    <mergeCell ref="L139:Y139"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="L60:Y60"/>
-    <mergeCell ref="H131:J131"/>
-    <mergeCell ref="K131:N131"/>
-    <mergeCell ref="O131:Y131"/>
-    <mergeCell ref="H117:K117"/>
-    <mergeCell ref="L117:Y117"/>
-    <mergeCell ref="H124:K124"/>
-    <mergeCell ref="L124:Y124"/>
-    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:Y4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="O6:Y6"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:Y10"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:Y5"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="O52:Y52"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:Y68"/>
+    <mergeCell ref="B149:G149"/>
+    <mergeCell ref="H149:J149"/>
+    <mergeCell ref="K149:N149"/>
+    <mergeCell ref="O149:Y149"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="O53:Y53"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="O78:Y78"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:Y59"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="H163:J163"/>
+    <mergeCell ref="K163:N163"/>
+    <mergeCell ref="O163:Y163"/>
+    <mergeCell ref="B160:G160"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B162:G162"/>
+    <mergeCell ref="H161:J161"/>
+    <mergeCell ref="K161:N161"/>
+    <mergeCell ref="O161:Y161"/>
+    <mergeCell ref="H162:J162"/>
+    <mergeCell ref="K162:N162"/>
+    <mergeCell ref="O162:Y162"/>
+    <mergeCell ref="B150:G150"/>
+    <mergeCell ref="H150:J150"/>
+    <mergeCell ref="K150:N150"/>
+    <mergeCell ref="O150:Y150"/>
+    <mergeCell ref="B151:G151"/>
+    <mergeCell ref="H151:J151"/>
+    <mergeCell ref="K151:N151"/>
+    <mergeCell ref="O151:Y151"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="H152:J152"/>
+    <mergeCell ref="K152:N152"/>
+    <mergeCell ref="O152:Y152"/>
+    <mergeCell ref="B153:G153"/>
+    <mergeCell ref="H153:J153"/>
+    <mergeCell ref="K153:N153"/>
+    <mergeCell ref="O153:Y153"/>
+    <mergeCell ref="H159:J159"/>
+    <mergeCell ref="K159:N159"/>
+    <mergeCell ref="O159:Y159"/>
+    <mergeCell ref="H160:J160"/>
+    <mergeCell ref="K160:N160"/>
+    <mergeCell ref="O160:Y160"/>
+    <mergeCell ref="B159:G159"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/document/API接口文档.xlsx
+++ b/document/API接口文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14760" yWindow="460" windowWidth="28200" windowHeight="16740"/>
+    <workbookView xWindow="15280" yWindow="460" windowWidth="28200" windowHeight="16740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="3" r:id="rId1"/>
@@ -352,15 +352,6 @@
     <t>短信id</t>
   </si>
   <si>
-    <t>numberPerPage</t>
-  </si>
-  <si>
-    <t>page</t>
-  </si>
-  <si>
-    <t>页数，从0开始</t>
-  </si>
-  <si>
     <t>每页数量，10、20等</t>
   </si>
   <si>
@@ -467,13 +458,22 @@
   </si>
   <si>
     <t>短信标记已读</t>
+  </si>
+  <si>
+    <t>countPerPage</t>
+  </si>
+  <si>
+    <t>什么时间之前的短信，用于分页</t>
+  </si>
+  <si>
+    <t>timeBefore</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,6 +495,14 @@
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -663,10 +671,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -772,8 +781,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1075,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1089,31 +1100,31 @@
     <row r="2" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C3" s="14"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>114</v>
+      <c r="C5" s="39" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="10">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="39" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1121,7 +1132,7 @@
       <c r="B7" s="10">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="39" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1129,40 +1140,40 @@
       <c r="B8" s="10">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>115</v>
+      <c r="C8" s="39" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="10">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>116</v>
+      <c r="C9" s="39" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="10">
         <v>6</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>123</v>
+      <c r="C10" s="39" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="10">
         <v>7</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>135</v>
+      <c r="C11" s="39" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="10">
         <v>8</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>134</v>
+      <c r="C12" s="39" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
@@ -1178,6 +1189,16 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C5" location="API接口说明!A1" display="用户登陆"/>
+    <hyperlink ref="C6" location="API接口说明!A16" display="设备信息"/>
+    <hyperlink ref="C7" location="API接口说明!A45" display="短信列表"/>
+    <hyperlink ref="C8" location="API接口说明!A70" display="短信详情"/>
+    <hyperlink ref="C9" location="API接口说明!A99" display="短信发送"/>
+    <hyperlink ref="C10" location="API接口说明!A127" display="短信推送"/>
+    <hyperlink ref="C11" location="API接口说明!A146" display="短信标记已读"/>
+    <hyperlink ref="C12" location="API接口说明!A156" display="删除整组短信"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1187,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y163"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="F166" sqref="F166"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="AO84" sqref="AO84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2478,7 +2499,7 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B53" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
@@ -2486,18 +2507,18 @@
       <c r="F53" s="16"/>
       <c r="G53" s="17"/>
       <c r="H53" s="15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I53" s="16"/>
       <c r="J53" s="17"/>
       <c r="K53" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L53" s="16"/>
       <c r="M53" s="16"/>
       <c r="N53" s="17"/>
       <c r="O53" s="18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P53" s="19"/>
       <c r="Q53" s="19"/>
@@ -2892,7 +2913,7 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B68" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
@@ -2900,13 +2921,13 @@
       <c r="F68" s="16"/>
       <c r="G68" s="17"/>
       <c r="H68" s="21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I68" s="21"/>
       <c r="J68" s="21"/>
       <c r="K68" s="21"/>
       <c r="L68" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M68" s="22"/>
       <c r="N68" s="22"/>
@@ -2932,7 +2953,7 @@
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.2">
@@ -3005,7 +3026,7 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B75" s="15" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
@@ -3024,7 +3045,7 @@
       <c r="M75" s="16"/>
       <c r="N75" s="17"/>
       <c r="O75" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P75" s="19"/>
       <c r="Q75" s="19"/>
@@ -3039,7 +3060,7 @@
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B76" s="15" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
@@ -3052,13 +3073,13 @@
       <c r="I76" s="16"/>
       <c r="J76" s="17"/>
       <c r="K76" s="15" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="L76" s="16"/>
       <c r="M76" s="16"/>
       <c r="N76" s="17"/>
       <c r="O76" s="18" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="P76" s="19"/>
       <c r="Q76" s="19"/>
@@ -3175,7 +3196,7 @@
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.2">
@@ -3366,7 +3387,7 @@
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -3709,7 +3730,7 @@
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.2">
@@ -3717,7 +3738,7 @@
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.2">
@@ -3775,7 +3796,7 @@
       <c r="M103" s="16"/>
       <c r="N103" s="17"/>
       <c r="O103" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P103" s="19"/>
       <c r="Q103" s="19"/>
@@ -3858,7 +3879,7 @@
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B106" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C106" s="16"/>
       <c r="D106" s="16"/>
@@ -3877,7 +3898,7 @@
       <c r="M106" s="16"/>
       <c r="N106" s="17"/>
       <c r="O106" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P106" s="19"/>
       <c r="Q106" s="19"/>
@@ -3892,7 +3913,7 @@
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -4235,7 +4256,7 @@
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.2">
@@ -4286,7 +4307,7 @@
       <c r="J121" s="16"/>
       <c r="K121" s="17"/>
       <c r="L121" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M121" s="22"/>
       <c r="N121" s="22"/>
@@ -4368,7 +4389,7 @@
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B124" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C124" s="16"/>
       <c r="D124" s="16"/>
@@ -4376,7 +4397,7 @@
       <c r="F124" s="16"/>
       <c r="G124" s="17"/>
       <c r="H124" s="21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I124" s="21"/>
       <c r="J124" s="21"/>
@@ -4452,7 +4473,7 @@
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.2">
@@ -4460,7 +4481,7 @@
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.2">
@@ -4518,7 +4539,7 @@
       <c r="M131" s="16"/>
       <c r="N131" s="17"/>
       <c r="O131" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P131" s="19"/>
       <c r="Q131" s="19"/>
@@ -4533,7 +4554,7 @@
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B132" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C132" s="16"/>
       <c r="D132" s="16"/>
@@ -4546,13 +4567,13 @@
       <c r="I132" s="16"/>
       <c r="J132" s="17"/>
       <c r="K132" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L132" s="16"/>
       <c r="M132" s="16"/>
       <c r="N132" s="17"/>
       <c r="O132" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P132" s="19"/>
       <c r="Q132" s="19"/>
@@ -4567,7 +4588,7 @@
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -4910,7 +4931,7 @@
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="147" spans="1:25" x14ac:dyDescent="0.2">
@@ -4918,7 +4939,7 @@
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="149" spans="1:25" x14ac:dyDescent="0.2">
@@ -4976,7 +4997,7 @@
       <c r="M150" s="16"/>
       <c r="N150" s="17"/>
       <c r="O150" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P150" s="19"/>
       <c r="Q150" s="19"/>
@@ -5119,7 +5140,7 @@
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.2">
@@ -5127,7 +5148,7 @@
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A158" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.2">
@@ -5185,7 +5206,7 @@
       <c r="M160" s="16"/>
       <c r="N160" s="17"/>
       <c r="O160" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P160" s="19"/>
       <c r="Q160" s="19"/>
@@ -5302,6 +5323,348 @@
     </row>
   </sheetData>
   <mergeCells count="366">
+    <mergeCell ref="B153:G153"/>
+    <mergeCell ref="H153:J153"/>
+    <mergeCell ref="K153:N153"/>
+    <mergeCell ref="O153:Y153"/>
+    <mergeCell ref="H159:J159"/>
+    <mergeCell ref="K159:N159"/>
+    <mergeCell ref="O159:Y159"/>
+    <mergeCell ref="H160:J160"/>
+    <mergeCell ref="K160:N160"/>
+    <mergeCell ref="O160:Y160"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="B150:G150"/>
+    <mergeCell ref="H150:J150"/>
+    <mergeCell ref="K150:N150"/>
+    <mergeCell ref="O150:Y150"/>
+    <mergeCell ref="B151:G151"/>
+    <mergeCell ref="H151:J151"/>
+    <mergeCell ref="K151:N151"/>
+    <mergeCell ref="O151:Y151"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="H152:J152"/>
+    <mergeCell ref="K152:N152"/>
+    <mergeCell ref="O152:Y152"/>
+    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="H163:J163"/>
+    <mergeCell ref="K163:N163"/>
+    <mergeCell ref="O163:Y163"/>
+    <mergeCell ref="B160:G160"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B162:G162"/>
+    <mergeCell ref="H161:J161"/>
+    <mergeCell ref="K161:N161"/>
+    <mergeCell ref="O161:Y161"/>
+    <mergeCell ref="H162:J162"/>
+    <mergeCell ref="K162:N162"/>
+    <mergeCell ref="O162:Y162"/>
+    <mergeCell ref="B149:G149"/>
+    <mergeCell ref="H149:J149"/>
+    <mergeCell ref="K149:N149"/>
+    <mergeCell ref="O149:Y149"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="O53:Y53"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="O78:Y78"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:Y59"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:Y4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="O6:Y6"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:Y10"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:Y5"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:Y12"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="O7:Y7"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="O22:Y22"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:Y11"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:Y14"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:Y13"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:Y25"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="O19:Y19"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="O21:Y21"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="O20:Y20"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:Y29"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:Y32"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:Y27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:Y28"/>
+    <mergeCell ref="L37:Y37"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:Y34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:Y35"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:Y33"/>
+    <mergeCell ref="O74:Y74"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:Y42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:Y43"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="O50:Y50"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="O49:Y49"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="O52:Y52"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:Y68"/>
+    <mergeCell ref="L94:Y94"/>
+    <mergeCell ref="L61:Y61"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:Y83"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="O79:Y79"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="O75:Y75"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="O76:Y76"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:Y82"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="K102:N102"/>
+    <mergeCell ref="O102:Y102"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="K103:N103"/>
+    <mergeCell ref="O103:Y103"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:Y89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:Y90"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:Y97"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:Y93"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="H130:J130"/>
+    <mergeCell ref="K130:N130"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:Y115"/>
+    <mergeCell ref="L116:Y116"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:Y122"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:Y123"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:Y121"/>
+    <mergeCell ref="O130:Y130"/>
+    <mergeCell ref="B132:G132"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:Y135"/>
+    <mergeCell ref="H132:J132"/>
+    <mergeCell ref="K132:N132"/>
+    <mergeCell ref="O132:Y132"/>
+    <mergeCell ref="B131:G131"/>
+    <mergeCell ref="B142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:Y142"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:Y143"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:Y136"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:Y137"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:Y140"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:Y141"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:Y26"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="O48:Y48"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:Y40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:Y41"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:Y38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:Y39"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:Y36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:Y56"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:Y66"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:Y67"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:Y64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:Y65"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="O73:Y73"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:Y57"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:Y58"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:Y96"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="O77:Y77"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:Y91"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:Y92"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:Y85"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:Y95"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:Y86"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:Y84"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:Y109"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:Y110"/>
+    <mergeCell ref="K104:N104"/>
+    <mergeCell ref="O104:Y104"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="K106:N106"/>
+    <mergeCell ref="O106:Y106"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="K105:N105"/>
+    <mergeCell ref="O105:Y105"/>
+    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="L113:Y113"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:Y114"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:Y111"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:Y112"/>
     <mergeCell ref="B51:G51"/>
     <mergeCell ref="H51:J51"/>
     <mergeCell ref="K51:N51"/>
@@ -5326,348 +5689,6 @@
     <mergeCell ref="L120:Y120"/>
     <mergeCell ref="B113:G113"/>
     <mergeCell ref="H113:K113"/>
-    <mergeCell ref="L113:Y113"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="H114:K114"/>
-    <mergeCell ref="L114:Y114"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="H111:K111"/>
-    <mergeCell ref="L111:Y111"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="H112:K112"/>
-    <mergeCell ref="L112:Y112"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="H109:K109"/>
-    <mergeCell ref="L109:Y109"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="H110:K110"/>
-    <mergeCell ref="L110:Y110"/>
-    <mergeCell ref="K104:N104"/>
-    <mergeCell ref="O104:Y104"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="K106:N106"/>
-    <mergeCell ref="O106:Y106"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="H105:J105"/>
-    <mergeCell ref="K105:N105"/>
-    <mergeCell ref="O105:Y105"/>
-    <mergeCell ref="B106:G106"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="H96:K96"/>
-    <mergeCell ref="L96:Y96"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="O77:Y77"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="H91:K91"/>
-    <mergeCell ref="L91:Y91"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="L92:Y92"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="H85:K85"/>
-    <mergeCell ref="L85:Y85"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="L95:Y95"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="H86:K86"/>
-    <mergeCell ref="L86:Y86"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="H84:K84"/>
-    <mergeCell ref="L84:Y84"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="L56:Y56"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="L66:Y66"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="L67:Y67"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:Y64"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="L65:Y65"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="O73:Y73"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:Y57"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="L58:Y58"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="L26:Y26"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="O48:Y48"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:Y40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:Y41"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:Y38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:Y39"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="L36:Y36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="B143:G143"/>
-    <mergeCell ref="H143:K143"/>
-    <mergeCell ref="L143:Y143"/>
-    <mergeCell ref="H136:K136"/>
-    <mergeCell ref="L136:Y136"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="H137:K137"/>
-    <mergeCell ref="L137:Y137"/>
-    <mergeCell ref="B140:G140"/>
-    <mergeCell ref="H140:K140"/>
-    <mergeCell ref="L140:Y140"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="H141:K141"/>
-    <mergeCell ref="L141:Y141"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="B132:G132"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="H135:K135"/>
-    <mergeCell ref="L135:Y135"/>
-    <mergeCell ref="H132:J132"/>
-    <mergeCell ref="K132:N132"/>
-    <mergeCell ref="O132:Y132"/>
-    <mergeCell ref="B131:G131"/>
-    <mergeCell ref="B142:G142"/>
-    <mergeCell ref="H142:K142"/>
-    <mergeCell ref="L142:Y142"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="B130:G130"/>
-    <mergeCell ref="H130:J130"/>
-    <mergeCell ref="K130:N130"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="H116:K116"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="H115:K115"/>
-    <mergeCell ref="L115:Y115"/>
-    <mergeCell ref="L116:Y116"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="B124:G124"/>
-    <mergeCell ref="H122:K122"/>
-    <mergeCell ref="L122:Y122"/>
-    <mergeCell ref="H123:K123"/>
-    <mergeCell ref="L123:Y123"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="H121:K121"/>
-    <mergeCell ref="L121:Y121"/>
-    <mergeCell ref="O130:Y130"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="K102:N102"/>
-    <mergeCell ref="O102:Y102"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="K103:N103"/>
-    <mergeCell ref="O103:Y103"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="H89:K89"/>
-    <mergeCell ref="L89:Y89"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="L90:Y90"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="H97:K97"/>
-    <mergeCell ref="L97:Y97"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="L93:Y93"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="L94:Y94"/>
-    <mergeCell ref="L61:Y61"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="L83:Y83"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="O79:Y79"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="O75:Y75"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="O76:Y76"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="L82:Y82"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="O74:Y74"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="L42:Y42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="L43:Y43"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="O50:Y50"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="O49:Y49"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="L37:Y37"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="L34:Y34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="L35:Y35"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="L33:Y33"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="L29:Y29"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="L32:Y32"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="L27:Y27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="L28:Y28"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="L25:Y25"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="O19:Y19"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="O21:Y21"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="O20:Y20"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:Y12"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="O7:Y7"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="O22:Y22"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:Y11"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:Y14"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:Y13"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:Y4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="O6:Y6"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:Y10"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:Y5"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="O52:Y52"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="L68:Y68"/>
-    <mergeCell ref="B149:G149"/>
-    <mergeCell ref="H149:J149"/>
-    <mergeCell ref="K149:N149"/>
-    <mergeCell ref="O149:Y149"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="O53:Y53"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="O78:Y78"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="L59:Y59"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="B163:G163"/>
-    <mergeCell ref="H163:J163"/>
-    <mergeCell ref="K163:N163"/>
-    <mergeCell ref="O163:Y163"/>
-    <mergeCell ref="B160:G160"/>
-    <mergeCell ref="B161:G161"/>
-    <mergeCell ref="B162:G162"/>
-    <mergeCell ref="H161:J161"/>
-    <mergeCell ref="K161:N161"/>
-    <mergeCell ref="O161:Y161"/>
-    <mergeCell ref="H162:J162"/>
-    <mergeCell ref="K162:N162"/>
-    <mergeCell ref="O162:Y162"/>
-    <mergeCell ref="B150:G150"/>
-    <mergeCell ref="H150:J150"/>
-    <mergeCell ref="K150:N150"/>
-    <mergeCell ref="O150:Y150"/>
-    <mergeCell ref="B151:G151"/>
-    <mergeCell ref="H151:J151"/>
-    <mergeCell ref="K151:N151"/>
-    <mergeCell ref="O151:Y151"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="H152:J152"/>
-    <mergeCell ref="K152:N152"/>
-    <mergeCell ref="O152:Y152"/>
-    <mergeCell ref="B153:G153"/>
-    <mergeCell ref="H153:J153"/>
-    <mergeCell ref="K153:N153"/>
-    <mergeCell ref="O153:Y153"/>
-    <mergeCell ref="H159:J159"/>
-    <mergeCell ref="K159:N159"/>
-    <mergeCell ref="O159:Y159"/>
-    <mergeCell ref="H160:J160"/>
-    <mergeCell ref="K160:N160"/>
-    <mergeCell ref="O160:Y160"/>
-    <mergeCell ref="B159:G159"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
